--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E4C48-6CBB-4452-9B01-287E3A22D05A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B148D8D2-684C-422A-9A96-1BF7C0C4A581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="4" activeTab="8" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Category" sheetId="3" r:id="rId1"/>
-    <sheet name="CategoryThumbnail" sheetId="2" r:id="rId2"/>
-    <sheet name="RestaurantsListing" sheetId="1" r:id="rId3"/>
-    <sheet name="HospitalsListing" sheetId="4" r:id="rId4"/>
-    <sheet name="SchoolsListing" sheetId="5" r:id="rId5"/>
-    <sheet name="DoctorsListing" sheetId="7" r:id="rId6"/>
-    <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId7"/>
-    <sheet name="AutomobilesListing" sheetId="10" r:id="rId8"/>
-    <sheet name="ShoppingListing" sheetId="11" r:id="rId9"/>
+    <sheet name="NewsList" sheetId="12" r:id="rId1"/>
+    <sheet name="Category" sheetId="3" r:id="rId2"/>
+    <sheet name="CategoryThumbnail" sheetId="2" r:id="rId3"/>
+    <sheet name="RestaurantsListing" sheetId="1" r:id="rId4"/>
+    <sheet name="HospitalsListing" sheetId="4" r:id="rId5"/>
+    <sheet name="SchoolsListing" sheetId="5" r:id="rId6"/>
+    <sheet name="DoctorsListing" sheetId="7" r:id="rId7"/>
+    <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId8"/>
+    <sheet name="AutomobilesListing" sheetId="10" r:id="rId9"/>
+    <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="326">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -999,6 +1000,18 @@
   </si>
   <si>
     <t>/nxdial-1/img/shopping/shopping_BedsheetsBags.jpeg</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>newsURL</t>
+  </si>
+  <si>
+    <t>Complaints by home buyers on rise, UP-RERA opens third bench in Noida</t>
+  </si>
+  <si>
+    <t>https://economictimes.indiatimes.com/wealth/personal-finance-news/complaints-by-home-buyers-on-rise-up-rera-opens-third-bench-in-noida/articleshow/69038470.cms</t>
   </si>
 </sst>
 </file>
@@ -1405,6 +1418,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5551A84-3C39-4D9D-A279-933A50692AE3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="62.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94A72-641F-4992-80D0-6BA5AD7CB7BC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CACE2-D48A-4B7A-816A-2A1EDF39A2C2}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -1561,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F0836F-3908-4833-B8F0-93FF494A7A6F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1680,7 +1804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -2240,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312478D-59AA-47FA-A2EB-CCE0DB7145BD}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2631,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B005557-25B7-4487-BE06-E764B2181BB1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2890,7 +3014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -3279,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -3377,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3452,81 +3576,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94A72-641F-4992-80D0-6BA5AD7CB7BC}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B148D8D2-684C-422A-9A96-1BF7C0C4A581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB3A4BD-B352-470E-8E62-64B4C898FD2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="3" activeTab="7" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="384">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -1012,6 +1012,180 @@
   </si>
   <si>
     <t>https://economictimes.indiatimes.com/wealth/personal-finance-news/complaints-by-home-buyers-on-rise-up-rera-opens-third-bench-in-noida/articleshow/69038470.cms</t>
+  </si>
+  <si>
+    <t>Little Sparrows Play School</t>
+  </si>
+  <si>
+    <t>D-132, Avenue 5, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Carnation-111, Gaur Saundaryam, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Little+Sparrows/@28.6141893,77.4268234,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4c0e65cc0b:0x4862719609f22c30!8m2!3d28.6141846!4d77.4290121</t>
+  </si>
+  <si>
+    <t>http://www.littlesparrowsschool.in/</t>
+  </si>
+  <si>
+    <t>09958871933, 09718630448</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/playSchools/playSchools_Little SparrowsPlaySchool.jpg</t>
+  </si>
+  <si>
+    <t>100 Bites Restaurant</t>
+  </si>
+  <si>
+    <t>07289957775</t>
+  </si>
+  <si>
+    <t>11, 12 numberdar market, Bisrakh Rd, near Yatharth Hospital, sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>10:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/100+BITES+restaurant/@28.5754491,77.4427051,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefc871d58469:0x62809d5b13719962!8m2!3d28.5754444!4d77.4448938</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_100BitesRestaurant.jpeg</t>
+  </si>
+  <si>
+    <t>Badamis Sweets and Restaurant</t>
+  </si>
+  <si>
+    <t>Shop No. 08, Arihant Arden, Bisrakh,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>097189 83030</t>
+  </si>
+  <si>
+    <t>08:AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/BADAMI'S+SWEETS+AND+RESTAURANT/@28.5786439,77.4401281,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeea2f35403b:0xf2cba187db477b51!8m2!3d28.5786392!4d77.4423168</t>
+  </si>
+  <si>
+    <t>Arihant Arden</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_BadamisSweetsAndRestaurant.jpeg</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Pohani</t>
+  </si>
+  <si>
+    <t>Apex Child Care, 1st floor, Shop No 105, City Plaza, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09:00AM to 11:30AM | 06:00PM to 09:00PM | (Sunday) 10:00AM to 12:30PM &amp; 06:00PM to 08:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Bord and Child Specialist </t>
+  </si>
+  <si>
+    <t>08375859581, 09717764746</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/City+Plaza/@28.6150345,77.4254884,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef6d85c36d0b:0x99a2ab29d24a4797!8m2!3d28.6150298!4d77.4276771</t>
+  </si>
+  <si>
+    <t>Dr. Rakesh Jang Bahadur</t>
+  </si>
+  <si>
+    <t>08527570948, 09999850214, 09811498505</t>
+  </si>
+  <si>
+    <t>10:30AM to 01:30PM | Sunday and Evening by Appointment</t>
+  </si>
+  <si>
+    <t>Health Care Center, Shop No 7, Panchsheel Greenaria Market, Basement, Sec 16B, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Rakesh+Jang+Bahadur/@28.6084422,77.4426139,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef0e70b65b47:0x28dd2f4e7541f58f!8m2!3d28.6084375!4d77.4448026</t>
+  </si>
+  <si>
+    <t>MBBS, F. Card, Family Physician &amp; Cardiologist</t>
+  </si>
+  <si>
+    <t>Panchsheel Greenaria</t>
+  </si>
+  <si>
+    <t>Paramount Emotions</t>
+  </si>
+  <si>
+    <t>Crossing Republik</t>
+  </si>
+  <si>
+    <t>Dr. Ali Nawaz</t>
+  </si>
+  <si>
+    <t>Sun Medical Pharmacy, Shop LGF 16, Ajnara Le Mart,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Med Health Pharmacy, Shop No 8, GF, Galaxy Shoppe, Gaur City 2,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>337, 3rd Floor, Orbit Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>05:00PM to 06:45PM (Daily)</t>
+  </si>
+  <si>
+    <t>09:00AM to 10:45AM (Mon to Sat) | 07:00PM to 09:00PM Daily</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ajnara+Le+Mart+Commercial+Shops/@28.6064526,77.4533041,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee6464a9c081:0x9b652ac3782cb339!8m2!3d28.6064479!4d77.4554928</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Galaxy+Shoppe/@28.6195603,77.4238519,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce442d4000001:0x87ed2514370e8a39!8m2!3d28.6195556!4d77.4260406</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ajnara+Orbit+Plaza/@28.6312969,77.4331903,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee22c9a70c85:0x5ad4c44c2d10f383!8m2!3d28.6312922!4d77.435379</t>
+  </si>
+  <si>
+    <t>MBBS, PGDCC (Family Physician)</t>
+  </si>
+  <si>
+    <t>08860542747</t>
+  </si>
+  <si>
+    <t>Dr. S K Thakur</t>
+  </si>
+  <si>
+    <t>Avichal Clinic, Shop no 106, 1st Floor, City Plaza, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08700591217</t>
+  </si>
+  <si>
+    <t>06:30PM to 09:00PM | Sunday Closed</t>
+  </si>
+  <si>
+    <t>MBBS, MAMC, MD Medicine, MACP, Senior Consultant</t>
+  </si>
+  <si>
+    <t>Ajnara Le Mart</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/playSchools/playSchools_FirstStepPreSchoolDayCare.jpg</t>
+  </si>
+  <si>
+    <t>Kidzee</t>
+  </si>
+  <si>
+    <t>B 80, 81, 1st Avenue, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09650952073</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/playSchools/playSchools_Kidzee.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/1st+Avenue+Gaur+City/@28.6128554,77.4223478,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4d2fffffff:0x1166327aa9e1770b!8m2!3d28.6128507!4d77.4245365</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1104,6 +1278,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1421,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5551A84-3C39-4D9D-A279-933A50692AE3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1806,15 +1982,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
@@ -1852,65 +2028,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>287</v>
+        <v>338</v>
+      </c>
+      <c r="G2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>287</v>
+        <v>345</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
@@ -1919,24 +2092,24 @@
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -1945,24 +2118,24 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -1971,24 +2144,24 @@
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -1997,24 +2170,24 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -2023,10 +2196,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>287</v>
@@ -2034,13 +2207,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -2049,10 +2222,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>287</v>
@@ -2060,13 +2233,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -2075,24 +2248,24 @@
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -2101,24 +2274,24 @@
         <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>30</v>
@@ -2127,24 +2300,24 @@
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
@@ -2153,10 +2326,10 @@
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>289</v>
@@ -2164,13 +2337,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -2179,10 +2352,10 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>287</v>
@@ -2190,51 +2363,51 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>287</v>
@@ -2242,25 +2415,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>287</v>
@@ -2268,13 +2441,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
@@ -2283,10 +2456,10 @@
         <v>206</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>287</v>
@@ -2294,25 +2467,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>287</v>
@@ -2320,44 +2493,96 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>239</v>
+        <v>222</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>287</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{203585D7-C00E-4AAD-9898-45C034E558AE}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
-    <hyperlink ref="G10" r:id="rId8" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{203585D7-C00E-4AAD-9898-45C034E558AE}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
+    <hyperlink ref="G12" r:id="rId8" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -2760,7 +2985,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3016,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3033,7 +3258,7 @@
     <col min="8" max="8" width="75.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
@@ -3058,8 +3283,11 @@
       <c r="H1" s="14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
@@ -3084,8 +3312,11 @@
       <c r="H2" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
@@ -3110,166 +3341,187 @@
       <c r="H3" s="15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>274</v>
+      <c r="G4" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+      <c r="I4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>274</v>
+      <c r="G5" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+      <c r="I5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>274</v>
+      <c r="G6" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="I6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>274</v>
+      <c r="G7" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>274</v>
+      <c r="G8" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>279</v>
+        <v>374</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>274</v>
+      <c r="G9" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>256</v>
@@ -3281,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>157</v>
@@ -3290,12 +3542,15 @@
         <v>274</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="I10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>256</v>
@@ -3307,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>157</v>
@@ -3316,12 +3571,15 @@
         <v>274</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="I11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>256</v>
@@ -3333,7 +3591,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>157</v>
@@ -3342,59 +3600,242 @@
         <v>274</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+      <c r="I12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+      <c r="I13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>314</v>
+      </c>
+      <c r="I20" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3405,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3418,7 +3859,7 @@
     <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="164.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.54296875" customWidth="1"/>
     <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3448,56 +3889,139 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>290</v>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1EA6B-4925-44A8-B1BF-325AEAF5ABBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938D151-6CFA-4286-9CE6-A6FEFBC30D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="7" activeTab="11" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId8"/>
     <sheet name="AutomobilesListing" sheetId="10" r:id="rId9"/>
     <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
-    <sheet name="ChemistsListing" sheetId="14" r:id="rId11"/>
+    <sheet name="PharmacyListing" sheetId="15" r:id="rId11"/>
+    <sheet name="PathLabsListing" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="647">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -871,9 +872,6 @@
     <t>09319570527</t>
   </si>
   <si>
-    <t>Ncr Wheels, Apna Garage</t>
-  </si>
-  <si>
     <t>Village Iteda, Iteda Gol Chakkar, Near Gaur Saundaryam 130 mtr Road, Opp. Eco Village-II, Greater Noida West (Noida Extension)</t>
   </si>
   <si>
@@ -1232,6 +1230,753 @@
   </si>
   <si>
     <t>PHARMACY</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/thumbnail/pharmacyThumbnail.jpeg</t>
+  </si>
+  <si>
+    <t>MediConectar Pharmacy</t>
+  </si>
+  <si>
+    <t>CH 004, Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204215290</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=chemists+near+me&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=28568143,77448961,908&amp;tbm=lcl&amp;ved=2ahUKEwi4raCP84HiAhVP8XMBHWrdBlcQjGp6BAgKED8&amp;tbs=lrf:!2m1!1e2!2m1!1e3!2m1!1e16!3sIAE,lf:1,lf_ui:10&amp;rldoc=1#rlfi=hd:;si:2764648205378814475,l,ChBjaGVtaXN0cyBuZWFyIG1lIgOQAQE,y,XBRqd2bUY48;mv:!1m2!1d28.6196132!2d77.4586786!2m2!1d28.5323136!2d77.39545609999999</t>
+  </si>
+  <si>
+    <t>Jeevandhara Pharmacy</t>
+  </si>
+  <si>
+    <t>10:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>08:30AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>Apollo Pharmacy</t>
+  </si>
+  <si>
+    <t>Unnamed Road, Near Yarharth Hospital, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No 26/27, Ground Floor, Ace City, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09643070378</t>
+  </si>
+  <si>
+    <t>08826188843</t>
+  </si>
+  <si>
+    <t>07:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>Ace City</t>
+  </si>
+  <si>
+    <t>Shop No 5, Arihant Arden, Sector 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826188947</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:10349756106590348779,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:4418323368998451121,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13049693698735333918,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,leTn9T67qms;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Delhi Pharmacy</t>
+  </si>
+  <si>
+    <t>Shop No. 21 , Panchsheel Hynish , Sector -1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>096432 87905</t>
+  </si>
+  <si>
+    <t>09:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14359274305205865275,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,ArqHtiY6Qpg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Panchsheel Hynish</t>
+  </si>
+  <si>
+    <t>Healthskool Pharmacy</t>
+  </si>
+  <si>
+    <t>GH-5B, Tech Zone-4, Cherry County Shopping Arcade, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08010330000</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14869185767094825019,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,dZjUhUnIN64;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Cherry County</t>
+  </si>
+  <si>
+    <t>Apple Pharmacy</t>
+  </si>
+  <si>
+    <t>09873586019</t>
+  </si>
+  <si>
+    <t>08:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:3581348286001509698,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k,y,Gfur7AZXo_o;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop No. 20, Plot No. 07B, Mayfair Residency, Techzone 04, Sector-04, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Mayfair Residency</t>
+  </si>
+  <si>
+    <t>09643292599</t>
+  </si>
+  <si>
+    <t>07:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:65055310229345402,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,MKu2Pi-slNU;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Icon Lesuire Valley</t>
+  </si>
+  <si>
+    <t>Shop No 28, La Residentia, GH 06, Techzone 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826033316</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13995724106049859435,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>La Residentia</t>
+  </si>
+  <si>
+    <t>Shop No 16, Cherry County, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:12066837091246884421,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>08826922877</t>
+  </si>
+  <si>
+    <t>08826190059</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:586385303671793973,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,seJOHBo_Od8;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop No 8, Ace Aspire, Tech Zone 4, Sector 16B, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Ace Aspire</t>
+  </si>
+  <si>
+    <t>Greno Pharmacy</t>
+  </si>
+  <si>
+    <t>Upper Ground Shop 32, Icon Lesuire Valley, Tech Zone IV, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No. LG-15, Icon Leisure Valley, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01207183948</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:579690272533299021,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,Anyzn_SpaLg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Manya Pharmacy</t>
+  </si>
+  <si>
+    <t>07906366860</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:8528886757645228722,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,76DONwFsuwk;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop.No.18,19,Opp.La Residency, MyFair Residency, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>MyFair Residency</t>
+  </si>
+  <si>
+    <t>Swasthyarekha Medicos</t>
+  </si>
+  <si>
+    <t>Shop number 45,City Plaza, Gaur City 1, GH-01, 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09999226845</t>
+  </si>
+  <si>
+    <t>08:30AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:4546087768302462445;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Way 2 Wellness</t>
+  </si>
+  <si>
+    <t>08800293080</t>
+  </si>
+  <si>
+    <t>08:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:16818375781778124752;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Block-A, 6th Ave Rd, Gaur City 1, Sector 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>1420, 10th Ave, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11019748506156613034;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>City Chemist</t>
+  </si>
+  <si>
+    <t>Shop No.GF-35, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08265957909</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:6340808028203742228;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Medspree Pharmacy</t>
+  </si>
+  <si>
+    <t>GF, Shop No. 36-37, City Plaza, Gaur City-I, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08587097146</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:12583373738340564582;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Himgiri Pharmacy</t>
+  </si>
+  <si>
+    <t>SHOP.NO.K-4 , 1ST FLOOR, GALAXY PLAZA,GAUR CITY -1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07840071432</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:10977514920862728949;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Galaxy Pharmacy</t>
+  </si>
+  <si>
+    <t>SHOP.NO.7,GALAXY SHOPEE, GAUR CITY 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08130848228</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:5574040361941938758;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Dr Plus Pharmacy</t>
+  </si>
+  <si>
+    <t>Exotica Dreamville Arcade, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09667179482</t>
+  </si>
+  <si>
+    <t>Open 24 Hrs.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11692176277654813132;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Shop. No.G.18,City Galleria, Gaur City -2,Sec - 16C, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826995604</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:13195625745323585788;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>SR Pharmacy</t>
+  </si>
+  <si>
+    <t>8A, GF, Galaxy Plaza, Gaur City-1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09971803252</t>
+  </si>
+  <si>
+    <t>08:00AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:8564378462515421124;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Family Homeopathic Pharmacy</t>
+  </si>
+  <si>
+    <t>FF 153, First Floor,Gaur City Plaza, Above ICICI Bank ATM, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08178500332</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:7816679870845769774;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>JD Pharmacy</t>
+  </si>
+  <si>
+    <t>Soul Pharmacy</t>
+  </si>
+  <si>
+    <t>09971898996</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/soul+pharmacy/@28.629409,77.4307163,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30ffffffe7:0x49ce98d0e191b7c2!8m2!3d28.629409!4d77.432905</t>
+  </si>
+  <si>
+    <t>S.G. Medicose</t>
+  </si>
+  <si>
+    <t>Shop No-18, Paramount Symphony, Ground Floor, Crossing Republik</t>
+  </si>
+  <si>
+    <t>Shop no-30,Well Bazar, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09540908908</t>
+  </si>
+  <si>
+    <t>09:30AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/S.G.+Medicose/@28.6287446,77.4383887,18z/data=!4m5!3m4!1s0x390cee3bb84ef78b:0xafd5bf4fafb7916!8m2!3d28.62874!4d77.439483</t>
+  </si>
+  <si>
+    <t>Manya Medical Hall</t>
+  </si>
+  <si>
+    <t>09971521003</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.628683,77.4383213,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b933fbe11:0x61dd4690d5d68906!8m2!3d28.6286783!4d77.44051</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.6150947,77.4350263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee45ddff376b:0xeabd7343aa6f2b78!8m2!3d28.61509!4d77.437215</t>
+  </si>
+  <si>
+    <t>Shop No-Gf- Paramount, 17, Crossings Republik</t>
+  </si>
+  <si>
+    <t>Orbit, Paramount Market, Near KFC, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09971521004</t>
+  </si>
+  <si>
+    <t>Shop.No.6, Proview Laboni, Near Hari Mandir, Crossings Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SWASTHYA+PHARMACY/@28.6234397,77.4323633,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee37992eff49:0xab4449222d4d9bf1!8m2!3d28.623435!4d77.434552</t>
+  </si>
+  <si>
+    <t>Swasthya Pharmacy</t>
+  </si>
+  <si>
+    <t>Shri Ram Medical Store</t>
+  </si>
+  <si>
+    <t>Shop No-Ugf-1&amp;2, Crossing Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shri+Ram+Medical+Store/@28.6261997,77.4322853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3749a5552f:0x20dcf559f90f6240!8m2!3d28.626195!4d77.434474</t>
+  </si>
+  <si>
+    <t>Shivam Medical Store &amp; Poly Clinic</t>
+  </si>
+  <si>
+    <t>Shop No. 217, Second Floor, Panchsheel Sqaure, Crossing Republik</t>
+  </si>
+  <si>
+    <t>07011563138</t>
+  </si>
+  <si>
+    <t>09811845369</t>
+  </si>
+  <si>
+    <t>09582905131</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shivam+Medical+Store+%26+Poly+Clinic/@28.6308497,77.4323853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee306b0f2975:0x37dbd05d8ce818da!8m2!3d28.630845!4d77.434574</t>
+  </si>
+  <si>
+    <t>Shristi Medicos</t>
+  </si>
+  <si>
+    <t>Shop No. GF-26, Gallaria Market, Plot No. 6, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09654085328</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shristi+Medicos/@28.6257287,77.4326593,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30a8badd3f:0x85455e067c541fd6!8m2!3d28.625724!4d77.434848</t>
+  </si>
+  <si>
+    <t>My Chemists</t>
+  </si>
+  <si>
+    <t>Shop No. 8, Mahagun Mascot Mart, Crossing Republik</t>
+  </si>
+  <si>
+    <t>08750603007</t>
+  </si>
+  <si>
+    <t>09:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/My+Chemists/@28.6293267,77.4386903,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b8fc74017:0x2cd3a0f82de27bdc!8m2!3d28.629322!4d77.440879</t>
+  </si>
+  <si>
+    <t>Jan Aushadhi Store</t>
+  </si>
+  <si>
+    <t>Shop. No. 141, 1st Floor, Panchsheel Square Mall, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09773694859</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Jan+Aushadhi+Store/@28.6310937,77.4323223,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30151f9653:0xb36c94aa0d1e5f1!8m2!3d28.631089!4d77.434511</t>
+  </si>
+  <si>
+    <t>MedMe Pharmacy</t>
+  </si>
+  <si>
+    <t>UGF-28, Ajnara Arcade, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09718884488</t>
+  </si>
+  <si>
+    <t>06:00AM to 11:59PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MedMe+Pharmacy/@28.6295027,77.4332683,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3080d09775:0xc7647f60b622f133!8m2!3d28.629498!4d77.435457</t>
+  </si>
+  <si>
+    <t>Mac Pharmacy</t>
+  </si>
+  <si>
+    <t>FF-34, Orbit Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>08447739709</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MAC+PHARMACY/@28.6308857,77.4329273,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee307289a5bb:0xa74c2b544ad68dcf!8m2!3d28.630881!4d77.435116</t>
+  </si>
+  <si>
+    <t>Shivay Medical Store</t>
+  </si>
+  <si>
+    <t>Panchsheel Square, shop no 110, first flor, Mall, Crossings Republik</t>
+  </si>
+  <si>
+    <t>07042153157</t>
+  </si>
+  <si>
+    <t>09:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shivay+Medical+Store/@28.6309558,77.4321091,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefa2026ab3a7:0xc983afb14bd1448e!8m2!3d28.6309511!4d77.4342978</t>
+  </si>
+  <si>
+    <t>http://sksworldschool.com/</t>
+  </si>
+  <si>
+    <t>http://www.stjohnsschools.org/home.aspx</t>
+  </si>
+  <si>
+    <t>http://www.bloominternationalschool.com/</t>
+  </si>
+  <si>
+    <t>http://www.gaursinternationalschool.com/</t>
+  </si>
+  <si>
+    <t>https://www.asterinstitutions.com/greater-noida/</t>
+  </si>
+  <si>
+    <t>http://dwpsnoidaex.com/</t>
+  </si>
+  <si>
+    <t>https://www.ryaninternational.org/site/risnoidaextn/</t>
+  </si>
+  <si>
+    <t>http://www.sarvottamnoida.com/</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics in Noida, Shop no 146, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09958552232</t>
+  </si>
+  <si>
+    <t>08:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SRL+Diagnostics:+Pathology+Lab+%7C+Diagnostic+Center+For+Blood+Test/@28.5353045,77.3898243,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce8ba85555525:0xe33f56b39af9eed6!8m2!3d28.5352998!4d77.392013</t>
+  </si>
+  <si>
+    <t>Home Collection, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+Pathlab+Noida+Home+Collection/@28.5797068,77.4350533,17z/data=!4m5!3m4!1s0x390ce8c6cc1a33eb:0x81a5f63cc5ffefe2!8m2!3d28.5796023!4d77.4370796</t>
+  </si>
+  <si>
+    <t>Techzone 4, Amrapali Leisure Valley, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09971064820</t>
+  </si>
+  <si>
+    <t>07:30AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+Path+Labs+Noida+Extension/@28.5865291,77.4356268,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe853c36379:0x24f0693835fbabae!8m2!3d28.5865244!4d77.4378155</t>
+  </si>
+  <si>
+    <t>Amrapali Leisure Valley</t>
+  </si>
+  <si>
+    <t>Shop No.- 11, Galaxy Shoppe Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6195097,77.4236874,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef4591b82e7d:0x39de993fda55995d!8m2!3d28.619505!4d77.4258761</t>
+  </si>
+  <si>
+    <t>07065397983, 085859 51546</t>
+  </si>
+  <si>
+    <t>Shop No.- FF- 117, Gaur City, City Plaza Mall, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:00AM to 07:30PM</t>
+  </si>
+  <si>
+    <t>01203988505</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6168436,77.4181418,16z/data=!4m8!1m2!2m1!1sDr.+Lal+PathLabs+Shop+No.-+FF-+117,+Gaur+City,!3m4!1s0x390ce8babc160291:0x8b8feab84a3252fc!8m2!3d28.6148904!4d77.4277505</t>
+  </si>
+  <si>
+    <t>Max Lab (A unit of MAX Hospital)</t>
+  </si>
+  <si>
+    <t>FF8, First Floor, Galaxy Plaza, Gaur City 1, Sector 4, L block, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09417186080</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Max+Lab+(A+UNIT+of+MAX+HOSPITAL)+Pathology+Lab%2F+Blood+Tests+in+Gaur+City+(Noida+Extension)/@28.6119635,77.4203418,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11ae6a6f8d:0x858dc63b30d0bbdf!8m2!3d28.6119588!4d77.4225305</t>
+  </si>
+  <si>
+    <t>08010776944</t>
+  </si>
+  <si>
+    <t>City Plaza, FF, Shop No 152, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>098994 43272</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.6151437,77.4255742,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef990cd4694f:0xd3317d85782ab8bf!8m2!3d28.615139!4d77.4277629</t>
+  </si>
+  <si>
+    <t>07:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.5609266,77.4509117,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefcd73e94417:0xbe1d86502f07fd8b!8m2!3d28.5609219!4d77.4531004</t>
+  </si>
+  <si>
+    <t>08:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>09350075758</t>
+  </si>
+  <si>
+    <t>FF 105, Tooth Angel Dental Clinic, Ace City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop. No. LGF-16, Galaxy Plaza, Gaur City1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07827985965</t>
+  </si>
+  <si>
+    <t>07:00AM to 09:30PM</t>
+  </si>
+  <si>
+    <t>http://www.niramayahealthcare.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Nir+Amaya+Path+Labs+NABL+Accredited+Lab/@28.6117447,77.4202203,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb31bb57315:0x5c06bceb189e1b4a!8m2!3d28.61174!4d77.422409</t>
+  </si>
+  <si>
+    <t>09:30AM to 07:45PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/KRISHNA+DIAGNOSTICS,+NOIDA+Extn./@28.6195707,77.4242073,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4a96d3aa93:0x5b732594f1fdb078!8m2!3d28.619566!4d77.426396</t>
+  </si>
+  <si>
+    <t>Shop No. 01, 1st Floor, Galaxy Shoppe Complex,, Gaur City 2, opp. Mahagun Mywoods Mall, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204555585</t>
+  </si>
+  <si>
+    <t>09560154423</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.5703749,77.4442792,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef76ec235eaf:0xe4f24fd8fce43553!8m2!3d28.5703702!4d77.4464679</t>
+  </si>
+  <si>
+    <t>https://www.lalpathlabs.com</t>
+  </si>
+  <si>
+    <t>Paramount Emotions, Unit No- FF 15, City Square, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No: FF-02, Paramount Spectrum Market, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09718507535</t>
+  </si>
+  <si>
+    <t>06:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6120047,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3b9377e15d:0x52dfb0c579b9e6af!8m2!3d28.6287646!4d77.4403618</t>
+  </si>
+  <si>
+    <t>Crossing Relublik</t>
+  </si>
+  <si>
+    <t>Shop No G-36,PSC Panchsheel Square Near Axis Bank, Mall, Sain Vihar, Crossings Republik</t>
+  </si>
+  <si>
+    <t>08750139031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6309511,77.4167884,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee304005e309:0x368a73290e49c1f!8m2!3d28.6309511!4d77.4342979</t>
+  </si>
+  <si>
+    <t>LGF-008, Galleria -2, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09971780677</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Niramaya+Pathlabs/@28.6121509,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee37485ddd1b:0x538c22321918fb14!8m2!3d28.626068!4d77.434494</t>
+  </si>
+  <si>
+    <t>Shop N0.-UGF-09 Upper Ground Floor, Galleria-II, Sain Vihar, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09643703006</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.612224,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cef9abf23eb7f:0x4c913a6bd4586207!8m2!3d28.6294093!4d77.4329048</t>
+  </si>
+  <si>
+    <t>Shop No. G-44 Panchsheel Square Mall, In Front Of Police Chowki, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09818639390</t>
+  </si>
+  <si>
+    <t>Village Shahberi, Near Crossing Republik, Shahberi</t>
+  </si>
+  <si>
+    <t>09716787066</t>
+  </si>
+  <si>
+    <t>09:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Life+Care+Pathology+Lab/@28.6125164,77.4050207,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3846d62a93:0xba0766a54e40a3a3!8m2!3d28.623049!4d77.437388</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics Pathology Lab</t>
+  </si>
+  <si>
+    <t>Dr Lal Pathlab Noida Home Collection</t>
+  </si>
+  <si>
+    <t>Dr Lal Path Labs Noida Extension</t>
+  </si>
+  <si>
+    <t>Dr. Lal PathLabs</t>
+  </si>
+  <si>
+    <t>Dr Lal PathLabs</t>
+  </si>
+  <si>
+    <t>Get Well Path Lab</t>
+  </si>
+  <si>
+    <t>Nir Amaya Path Labs NABL Accredited Lab</t>
+  </si>
+  <si>
+    <t>Krishna Diagnostics</t>
+  </si>
+  <si>
+    <t>Niramaya Pathlabs</t>
+  </si>
+  <si>
+    <t>Reliable Health care PathLab</t>
+  </si>
+  <si>
+    <t>Life Care Pathology Lab</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +2020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1312,6 +2057,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5551A84-3C39-4D9D-A279-933A50692AE3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1641,18 +2398,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -1663,87 +2420,158 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94A72-641F-4992-80D0-6BA5AD7CB7BC}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>317</v>
-      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,76 +2580,2024 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D052DE0-6001-4742-8DD4-46C0B92D0E17}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B262F6-3615-4EEE-B3B0-4C0BE8A1198A}">
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+      <selection activeCell="C2" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I10" t="s">
+        <v>398</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I11" t="s">
+        <v>398</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I14" t="s">
+        <v>398</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" t="s">
+        <v>398</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I16" t="s">
+        <v>398</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I17" t="s">
+        <v>398</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" t="s">
+        <v>474</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" t="s">
+        <v>398</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I19" t="s">
+        <v>398</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I20" t="s">
+        <v>398</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I21" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E22" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I22" t="s">
+        <v>398</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" t="s">
+        <v>398</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I24" t="s">
+        <v>398</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E25" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I25" t="s">
+        <v>398</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I26" t="s">
+        <v>398</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" t="s">
+        <v>396</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I27" t="s">
+        <v>398</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" t="s">
+        <v>398</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E29" t="s">
+        <v>520</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I29" t="s">
+        <v>398</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E30" t="s">
+        <v>523</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I30" t="s">
+        <v>398</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I31" t="s">
+        <v>398</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E32" t="s">
+        <v>530</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I32" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I33" t="s">
+        <v>398</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E34" t="s">
+        <v>540</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I34" t="s">
+        <v>398</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I35" t="s">
+        <v>398</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E36" t="s">
+        <v>549</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I36" t="s">
+        <v>398</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I37" t="s">
+        <v>398</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" t="s">
+        <v>396</v>
+      </c>
+      <c r="D38" t="s">
+        <v>557</v>
+      </c>
+      <c r="E38" t="s">
+        <v>558</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I38" t="s">
+        <v>398</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7299E0-EDDE-4C29-B4A5-17E466E21EB2}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.6328125" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="E10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" t="s">
+        <v>606</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>608</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" t="s">
+        <v>612</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" t="s">
+        <v>618</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E14" t="s">
+        <v>620</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" t="s">
+        <v>622</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="E15" t="s">
+        <v>623</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="G15" t="s">
+        <v>605</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>625</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E16" t="s">
+        <v>626</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>628</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" t="s">
+        <v>629</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E18" t="s">
+        <v>631</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1830,7 +4606,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1849,7 +4625,7 @@
         <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1860,7 +4636,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1871,7 +4647,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1882,95 +4658,95 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1981,7 +4757,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1992,7 +4768,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2003,7 +4779,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2014,7 +4790,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2025,7 +4801,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2035,10 +4811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F0836F-3908-4833-B8F0-93FF494A7A6F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2055,7 +4831,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2066,7 +4842,7 @@
         <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2077,7 +4853,7 @@
         <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2088,95 +4864,106 @@
         <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>164</v>
       </c>
-      <c r="C12" t="s">
-        <v>394</v>
+      <c r="C13" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2187,769 +4974,841 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="131.08984375" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="131.08984375" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>382</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>384</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>285</v>
+      <c r="K23" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
-    <hyperlink ref="I12" r:id="rId4" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
-    <hyperlink ref="I13" r:id="rId5" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
-    <hyperlink ref="I14" r:id="rId6" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
-    <hyperlink ref="I15" r:id="rId7" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
-    <hyperlink ref="I16" r:id="rId8" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
-    <hyperlink ref="I17" r:id="rId9" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
+    <hyperlink ref="J8" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
+    <hyperlink ref="J13" r:id="rId5" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
+    <hyperlink ref="J14" r:id="rId6" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
+    <hyperlink ref="J15" r:id="rId7" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
+    <hyperlink ref="J16" r:id="rId8" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
+    <hyperlink ref="J17" r:id="rId9" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
+    <hyperlink ref="J9" r:id="rId11" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -2958,299 +5817,325 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312478D-59AA-47FA-A2EB-CCE0DB7145BD}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3258,31 +6143,34 @@
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3290,63 +6178,69 @@
         <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3354,75 +6248,111 @@
         <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="K14" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3432,315 +6362,386 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B005557-25B7-4487-BE06-E764B2181BB1}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>8010109090</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>137</v>
       </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3749,720 +6750,791 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="10" max="10" width="75.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="11" max="11" width="75.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="I4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" t="s">
         <v>354</v>
       </c>
-      <c r="K5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>358</v>
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>367</v>
+      <c r="J7" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>358</v>
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="K14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K20" t="s">
-        <v>357</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4472,212 +7544,283 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.54296875" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" t="s">
         <v>324</v>
       </c>
-      <c r="D3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>151</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J6" t="s">
-        <v>289</v>
-      </c>
+      <c r="K6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4687,14 +7830,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -4707,13 +7851,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
+      <c r="C1" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>74</v>
@@ -4734,7 +7878,7 @@
         <v>115</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -4742,30 +7886,93 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>282</v>
-      </c>
       <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938D151-6CFA-4286-9CE6-A6FEFBC30D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A1E57-099D-4AB7-A9C0-CD09BAEA7BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="7" activeTab="11" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="8" activeTab="12" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
     <sheet name="PharmacyListing" sheetId="15" r:id="rId11"/>
     <sheet name="PathLabsListing" sheetId="16" r:id="rId12"/>
+    <sheet name="DailyNeedsListing" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="767">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -800,9 +801,6 @@
     <t>City Plaza, Opposite ICICI Bank, Gaur City 1, Greater Noida West (Noida Extension)</t>
   </si>
   <si>
-    <t>UGF 45, Mahagun Mart, Opp. Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
     <t>MBBS, MD, MNNF, New Born and Child Specialist</t>
   </si>
   <si>
@@ -1977,6 +1975,369 @@
   </si>
   <si>
     <t>Life Care Pathology Lab</t>
+  </si>
+  <si>
+    <t>Dr. Mansha Mishra</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tooth+Angel+Dental+Clinic/@28.5605362,77.4530277,15z/data=!4m5!3m4!1s0x0:0x297e52768da6add9!8m2!3d28.5605362!4d77.4530277</t>
+  </si>
+  <si>
+    <t>07011687947</t>
+  </si>
+  <si>
+    <t>http://toothangel.in/</t>
+  </si>
+  <si>
+    <t>Tooth Angel Dental Clinic, Shop No-105, Ace Square, Ace City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Dentistry Clinic, BDS, Dental Surgeon , Dentist</t>
+  </si>
+  <si>
+    <t>Dr. Shachindra Narayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN dental Clinic, Shop No CH 016, GF, Stellar Jeevan Commercial Block, Plot No GH 03, Sec 1, Greater Noida West (Noida Extension) </t>
+  </si>
+  <si>
+    <t>07503471171</t>
+  </si>
+  <si>
+    <t>09:00AM to 08:00PM | Monday Closed</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SN+dental+Clinic/@28.5660577,77.4473663,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeb8372cbd57:0xaa774043610fc814!8m2!3d28.566053!4d77.449555</t>
+  </si>
+  <si>
+    <t>Dr. Shuchi Sharma</t>
+  </si>
+  <si>
+    <t>Opal Care Clinic, Shop Numbr 24, LGF, Mahagun Mart, Gaur City-2, Landmark: Opposite 11th Avenue Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08130567453</t>
+  </si>
+  <si>
+    <t>10:00 AM to 01:00 PM &amp; 06:00 PM to 09:00 PM (Monday to Saturday) | 10:00 AM - 01:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Shuchi+Sharma.Child+Doctor+in+Gaur+City+2.Child+Specialist+in+Mahagun+Mart,Gaur+City+-2/@28.6185167,77.4240679,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11b2154b7f:0x56f0b50104cf1d81!8m2!3d28.618512!4d77.4262566</t>
+  </si>
+  <si>
+    <t>MBBS, DCH, DNB - Paediatrics, Pediatrician, 9 Years Experience</t>
+  </si>
+  <si>
+    <t>Mahagun Mart, Gaur City</t>
+  </si>
+  <si>
+    <t>City Plaza, Gaur City</t>
+  </si>
+  <si>
+    <t>Galaxy Shoppe, Gaur City</t>
+  </si>
+  <si>
+    <t>Dr. Gaurav Gupta</t>
+  </si>
+  <si>
+    <t>08800737264</t>
+  </si>
+  <si>
+    <t>09:00AM to 12:30PM | Wednesday Closed</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/General+Physician+in+Gaur+City+1+-+Dr.+Gaurav+Gupta/@28.6148027,77.4254575,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceff9e563cc9b:0x705d78b3ed100bfd!8m2!3d28.614798!4d77.4276462</t>
+  </si>
+  <si>
+    <t>Shop No.208, 2nd Floor, City Plaza, Near Char Murti Chowk, Gaur City 1 &amp; 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>General Physician, MD, 9 Years of Experience</t>
+  </si>
+  <si>
+    <t>Dr. K K Gupta</t>
+  </si>
+  <si>
+    <t>MBBS, Diploma in Orthopaedics, DNB - Orthopedics/Orthopedic Surgery, Orthopedist, Joint Replacement Surgeon, Spine Surgeon, 9 Years Experience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Opal+care+Clinic/@28.6192281,77.4233609,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef84b53701e9:0x29aacb6f8f480832!8m2!3d28.6192234!4d77.4255496</t>
+  </si>
+  <si>
+    <t>3:00 PM to 4:00 PM &amp; 7:00 PM to 9:00 PM (Monday to Saturday) | 10:00 AM to 01:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>08527590742</t>
+  </si>
+  <si>
+    <t>Dr. Neetu Singh</t>
+  </si>
+  <si>
+    <t>11:00 AM to 01:30 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>MBBS, MD - Obstetrics &amp; Gynaecology, Fellowship in Minimal Access Surgery, Gynecologist, Obstetrician, Laparoscopic Surgeon, 16 Years Experience</t>
+  </si>
+  <si>
+    <t>Dr. Avnish Gupta</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Prosthodontist &amp; Oral Implantologist, Implantologist, 12 Years Experience</t>
+  </si>
+  <si>
+    <t>Shop No. 25, Ground Floor, City Plaza, Gaur City -1, Sector 4,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09599065099</t>
+  </si>
+  <si>
+    <t>10:00 AM to 01:00 PM (Monday to Saturday) | 05:00 PM to 09:00 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr.+Avnish+Oro+Dental+Clinic+%26+Implant+Centre/@28.6150987,77.4255803,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b85a40d89:0xe17e2ff7c69c384a!8m2!3d28.615094!4d77.427769</t>
+  </si>
+  <si>
+    <t>Dr. Abhijit Kumar</t>
+  </si>
+  <si>
+    <t>08802753906</t>
+  </si>
+  <si>
+    <t>10:00 AM to 12:00 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>MBBS, DNB, General Medicine, General Physician, 8 Years Experience</t>
+  </si>
+  <si>
+    <t>Dr. Rachninder Kaur</t>
+  </si>
+  <si>
+    <t>BDS, MDS, Dentist, 10 Years Experience</t>
+  </si>
+  <si>
+    <t>Opal Care Clinic, Shop Numbr 24, LGF, Mahagun Mart, Gaur City-2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Raghav Dental Care, Shop No 136, First Floor, City Plaza, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09891275884</t>
+  </si>
+  <si>
+    <t>06:00 PM to 09:00 PM (Tuesday to Friday) | 10:00 AM to 02:00 PM &amp; 05:30 PM to 09:00 PM (Saturday) | 10:00 AM to 06:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr.Rachninder+Kaur+(Oral+Medicine+%26+Radiology)+Dentist+at+Raghav+Dental+Care/@28.6149807,77.4254713,17z/data=!4m5!3m4!1s0x390cee4b842fffbf:0xbb7cc251cfd00ba5!8m2!3d28.614976!4d77.42766</t>
+  </si>
+  <si>
+    <t>Dr. Ritika Gulati</t>
+  </si>
+  <si>
+    <t>Smile World, CD 207 (2nd floor), Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09873577568</t>
+  </si>
+  <si>
+    <t>10:00 AM to 01:00PM | 05:00PM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Smile+World+Multispeciality+Dental+and+Orthodontic+center/@28.566052,77.4476326,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef285137ba4b:0x415fca5db716262!8m2!3d28.5660473!4d77.4498213</t>
+  </si>
+  <si>
+    <t>Dr. Raghavendra Singh</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Orthodontics, Orthodontist, Cosmetic/Aesthetic Dentist, 12 Years Experience</t>
+  </si>
+  <si>
+    <t>09560267996</t>
+  </si>
+  <si>
+    <t>10:00 AM to 2:00 PM &amp; 5:30 PM to 9:00 PM (Tuesday to Saturday) | 10:00 AM to 6:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Raghav+Dental+Care+and+Orthodontic+centre/@28.6150737,77.4256263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b8596d673:0xc93d105afddc84dd!8m2!3d28.615069!4d77.427815</t>
+  </si>
+  <si>
+    <t>Dr. Vinay Saini</t>
+  </si>
+  <si>
+    <t>MDS - Oral &amp; Maxillofacial Surgery, Dentist, Oral And MaxilloFacial Surgeon, 10 Years Experience</t>
+  </si>
+  <si>
+    <t>09818578608</t>
+  </si>
+  <si>
+    <t>9:00 AM to 1:00 PM &amp; 5:00 PM to 9:00 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/J.D.Dental+Care/@28.6084193,77.4226375,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef6d59a2e92d:0x6cf4e7c3df075fb5!8m2!3d28.6084146!4d77.4248262</t>
+  </si>
+  <si>
+    <t>J.D. Dental Care, LGF-22, Aarza Square-1,7th Avenue, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Aarza Square, Gaur City</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrRitikaGulati.jpeg</t>
+  </si>
+  <si>
+    <t>BDS, MDS Orthodontics, Dentist, 9 Years Experience</t>
+  </si>
+  <si>
+    <t>BDS, Dentist, Dental Surgeon, 7 Years Experience</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrSanjayPohani.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrAliNawaz.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/AVICHAL+HEALTHCARE/@28.6150299,77.4254204,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b846bffb7:0xbcfec233fa98aed1!8m2!3d28.6150252!4d77.4276091</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Rashi+Clinic/@28.6171039,77.4202409,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefdbb0e4332b:0xd3518069a9d6ef!8m2!3d28.6170992!4d77.4224296</t>
+  </si>
+  <si>
+    <t>Rashi Clinic, UGF 45, Mahagun Mart, Opp. Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrDevanshGupta.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrEshaSinghal.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVashima.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVipulVerma.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrAmitabhBanka.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrAbhishekSingh.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVijaySharma.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrKomalPanwar.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVineshPanwar.jpeg</t>
+  </si>
+  <si>
+    <t>Dr. Shweta Jindal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derma Clinic, C 4020, 16th Avenue, Gaur City 2, Greater Noida West (Noida Extension) </t>
+  </si>
+  <si>
+    <t>09899683220, 09717163037</t>
+  </si>
+  <si>
+    <t>10:30AM to 12:30PM | 05:30AM to 08:30PM | Prior Appointment</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrShwetaJindal.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/16th+Avenue+Apartments/@28.6226597,77.4204089,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef26dda48685:0x7a305a0412d736a4!8m2!3d28.622655!4d77.4225976</t>
+  </si>
+  <si>
+    <t>MD (AM), MHA, PGDCAM, CSD, D. Tricho (UK), Dermo-Cosmetologist &amp; Aesthetic Physician, Certified in Aesthetic Dermatology &amp; Laser treatments</t>
+  </si>
+  <si>
+    <t>Family Store</t>
+  </si>
+  <si>
+    <t>LGF 41, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09599975791, 09599975792, 07827439297</t>
+  </si>
+  <si>
+    <t>Mini Mart</t>
+  </si>
+  <si>
+    <t>Shop no.23, City plaza, Gaur city 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.Minimart.com </t>
+  </si>
+  <si>
+    <t>08:00AM to 09:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Family+Store/@28.6146087,77.4255353,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b8783e553:0x652d6c4956ab52f6!8m2!3d28.614604!4d77.427724</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mini+Mart/@28.6150307,77.4255613,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b85c7e24d:0x984467dc816981a0!8m2!3d28.615026!4d77.42775</t>
+  </si>
+  <si>
+    <t>One Stop Mart</t>
+  </si>
+  <si>
+    <t>Shop Number 45-50, Lower Ground Floor, Galliria Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Galliria Market, Gaur City</t>
+  </si>
+  <si>
+    <t>08800563608</t>
+  </si>
+  <si>
+    <t>07290016382, 07290016383</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/One+Stop+Mart/@28.619435,77.4210851,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb559f85485:0x6e99725b0e217cc2!8m2!3d28.6194303!4d77.4232738</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_FamilyStore.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MiniMart.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_OneStopMart.jpeg</t>
+  </si>
+  <si>
+    <t>Daily Needs Mart</t>
+  </si>
+  <si>
+    <t>Shop No.25/26, Panchsheel Hynish Market, Plot. no. 8, Sec.1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09911703520</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Daily+Needs+Mart/@28.5795267,77.4348023,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceee8959a5c61:0x6ba0cadac16e743c!8m2!3d28.579522!4d77.436991</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_DailyNeedsMart.jpeg</t>
+  </si>
+  <si>
+    <t>www.nbmshopping.com</t>
+  </si>
+  <si>
+    <t>Price Smart</t>
+  </si>
+  <si>
+    <t>Shopping Arcade, Cherry County, Ek Murti Chowk, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08860007997</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_PriceSmart.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Price+Smart/@28.6019387,77.4453433,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee607d008025:0x1fcb50d6ab0962ac!8m2!3d28.601934!4d77.447532</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2069,6 +2430,16 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2398,18 +2769,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2422,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94A72-641F-4992-80D0-6BA5AD7CB7BC}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2442,13 +2813,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>71</v>
@@ -2472,7 +2843,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2480,34 +2851,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2583,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B262F6-3615-4EEE-B3B0-4C0BE8A1198A}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
@@ -2603,13 +2974,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>71</v>
@@ -2633,7 +3004,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2641,34 +3012,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
         <v>399</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="K2" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2676,34 +3047,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2711,34 +3082,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="I4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2746,34 +3117,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I5" t="s">
+        <v>397</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I5" t="s">
-        <v>398</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2781,34 +3152,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" t="s">
         <v>422</v>
-      </c>
-      <c r="K6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2816,34 +3187,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I7" t="s">
+        <v>397</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I7" t="s">
-        <v>398</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2851,34 +3222,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8" t="s">
+        <v>397</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I8" t="s">
-        <v>398</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2886,34 +3257,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I9" t="s">
-        <v>398</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2921,34 +3292,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I10" t="s">
+        <v>397</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I10" t="s">
-        <v>398</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -2956,34 +3327,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I11" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I11" t="s">
-        <v>398</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -2991,34 +3362,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I12" t="s">
+        <v>397</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I12" t="s">
-        <v>398</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3026,34 +3397,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I13" t="s">
+        <v>397</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I13" t="s">
-        <v>398</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -3061,34 +3432,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="I14" t="s">
-        <v>398</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3096,34 +3467,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" t="s">
+        <v>397</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="I15" t="s">
-        <v>398</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>464</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3131,34 +3502,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I16" t="s">
-        <v>398</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -3166,31 +3537,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I17" t="s">
-        <v>398</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -3198,34 +3569,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" t="s">
         <v>473</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I18" t="s">
+        <v>397</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I18" t="s">
-        <v>398</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -3233,34 +3604,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I19" t="s">
-        <v>398</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -3268,34 +3639,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I20" t="s">
+        <v>397</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I20" t="s">
-        <v>398</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -3303,34 +3674,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I21" t="s">
+        <v>397</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I21" t="s">
-        <v>398</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -3338,34 +3709,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E22" t="s">
         <v>489</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" t="s">
+        <v>397</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I22" t="s">
-        <v>398</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -3373,34 +3744,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I23" t="s">
+        <v>397</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I23" t="s">
-        <v>398</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -3408,34 +3779,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" t="s">
+        <v>397</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I24" t="s">
-        <v>398</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -3443,34 +3814,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" t="s">
         <v>502</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I25" t="s">
+        <v>397</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I25" t="s">
-        <v>398</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -3478,34 +3849,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E26" t="s">
+        <v>511</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="E26" t="s">
-        <v>512</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I26" t="s">
-        <v>398</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -3513,34 +3884,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" t="s">
         <v>510</v>
       </c>
-      <c r="E27" t="s">
-        <v>511</v>
-      </c>
       <c r="F27" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" t="s">
+        <v>397</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="I27" t="s">
-        <v>398</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -3548,34 +3919,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I28" t="s">
+        <v>397</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="I28" t="s">
-        <v>398</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -3583,34 +3954,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -3618,34 +3989,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E30" t="s">
+        <v>522</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I30" t="s">
+        <v>397</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I30" t="s">
-        <v>398</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -3653,34 +4024,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I31" t="s">
+        <v>397</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I31" t="s">
-        <v>398</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -3688,34 +4059,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E32" t="s">
         <v>529</v>
       </c>
-      <c r="E32" t="s">
-        <v>530</v>
-      </c>
       <c r="F32" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I32" t="s">
-        <v>398</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="K32" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -3723,34 +4094,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I33" t="s">
+        <v>397</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I33" t="s">
-        <v>398</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -3758,34 +4129,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D34" t="s">
+        <v>538</v>
+      </c>
+      <c r="E34" t="s">
         <v>539</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" t="s">
+        <v>397</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I34" t="s">
-        <v>398</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="K34" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -3793,34 +4164,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I35" t="s">
-        <v>398</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -3828,34 +4199,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
+        <v>547</v>
+      </c>
+      <c r="E36" t="s">
         <v>548</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" t="s">
+        <v>397</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I36" t="s">
-        <v>398</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -3863,34 +4234,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I37" t="s">
+        <v>397</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I37" t="s">
-        <v>398</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -3898,34 +4269,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D38" t="s">
+        <v>556</v>
+      </c>
+      <c r="E38" t="s">
         <v>557</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" t="s">
+        <v>397</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I38" t="s">
-        <v>398</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="K38" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3938,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7299E0-EDDE-4C29-B4A5-17E466E21EB2}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3958,13 +4329,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>71</v>
@@ -3988,7 +4359,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3996,34 +4367,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>572</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4031,34 +4402,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>574</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>575</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -4066,34 +4437,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>578</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>579</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>580</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4101,34 +4472,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -4136,34 +4507,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>585</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -4171,34 +4542,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>591</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -4206,34 +4577,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>595</v>
-      </c>
       <c r="G8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -4241,34 +4612,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -4276,34 +4647,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E10" t="s">
+        <v>601</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>603</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>604</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -4311,34 +4682,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>610</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -4346,34 +4717,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -4381,34 +4752,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E13" t="s">
+        <v>614</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>617</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J13" t="s">
+        <v>617</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>618</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -4416,34 +4787,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>621</v>
-      </c>
       <c r="G14" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -4451,31 +4822,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E15" t="s">
+        <v>622</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>624</v>
-      </c>
       <c r="G15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -4483,31 +4854,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E16" t="s">
+        <v>625</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>627</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -4515,25 +4886,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>630</v>
-      </c>
       <c r="G17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>160</v>
@@ -4542,7 +4913,7 @@
         <v>160</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -4550,34 +4921,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E18" t="s">
+        <v>630</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>632</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>633</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -4594,6 +4965,261 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED1DB0C-0CF3-43D6-9188-8D0D89B0D236}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.6328125" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="K2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="J3" t="s">
+        <v>746</v>
+      </c>
+      <c r="K3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>747</v>
+      </c>
+      <c r="E4" t="s">
+        <v>748</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="J4" t="s">
+        <v>752</v>
+      </c>
+      <c r="K4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="J5" t="s">
+        <v>759</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="J6" t="s">
+        <v>766</v>
+      </c>
+      <c r="K6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4606,7 +5232,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4625,7 +5251,7 @@
         <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4636,7 +5262,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4647,7 +5273,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4658,18 +5284,18 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4680,7 +5306,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4691,7 +5317,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4702,7 +5328,7 @@
         <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4713,7 +5339,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4724,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4735,7 +5361,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4746,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4757,7 +5383,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4768,7 +5394,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4779,7 +5405,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4790,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -4801,7 +5427,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +5440,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4831,7 +5457,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4842,7 +5468,7 @@
         <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4853,7 +5479,7 @@
         <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4864,18 +5490,18 @@
         <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4886,7 +5512,7 @@
         <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4897,7 +5523,7 @@
         <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4908,7 +5534,7 @@
         <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4919,7 +5545,7 @@
         <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4930,7 +5556,7 @@
         <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4941,7 +5567,7 @@
         <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4952,7 +5578,7 @@
         <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4963,7 +5589,7 @@
         <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4995,13 +5621,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>71</v>
@@ -5025,7 +5651,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -5033,19 +5659,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>29</v>
@@ -5054,13 +5680,13 @@
         <v>204</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -5068,31 +5694,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -5101,34 +5727,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5136,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5154,7 +5780,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>165</v>
@@ -5163,7 +5789,7 @@
         <v>116</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5171,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -5198,7 +5824,7 @@
         <v>117</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5206,7 +5832,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -5224,7 +5850,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>167</v>
@@ -5233,7 +5859,7 @@
         <v>118</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -5241,7 +5867,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -5259,7 +5885,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>168</v>
@@ -5268,7 +5894,7 @@
         <v>119</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5276,7 +5902,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -5303,7 +5929,7 @@
         <v>121</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5311,7 +5937,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -5338,7 +5964,7 @@
         <v>122</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5346,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -5373,7 +5999,7 @@
         <v>124</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5381,7 +6007,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -5408,7 +6034,7 @@
         <v>125</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5416,7 +6042,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -5434,7 +6060,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>173</v>
@@ -5443,7 +6069,7 @@
         <v>127</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5451,7 +6077,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -5478,7 +6104,7 @@
         <v>128</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5486,7 +6112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -5504,7 +6130,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>175</v>
@@ -5513,7 +6139,7 @@
         <v>130</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -5521,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -5548,7 +6174,7 @@
         <v>131</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -5556,7 +6182,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -5583,7 +6209,7 @@
         <v>132</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -5591,7 +6217,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -5618,7 +6244,7 @@
         <v>202</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -5626,7 +6252,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -5653,7 +6279,7 @@
         <v>206</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -5661,7 +6287,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -5679,7 +6305,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>218</v>
@@ -5688,7 +6314,7 @@
         <v>219</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5696,7 +6322,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -5723,7 +6349,7 @@
         <v>222</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -5731,7 +6357,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -5758,7 +6384,7 @@
         <v>233</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -5766,7 +6392,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -5793,7 +6419,7 @@
         <v>237</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5819,9 +6445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312478D-59AA-47FA-A2EB-CCE0DB7145BD}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5839,13 +6463,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>71</v>
@@ -5869,7 +6493,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -5877,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -5904,7 +6528,7 @@
         <v>133</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -5912,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -5939,7 +6563,7 @@
         <v>133</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -5947,7 +6571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -5974,7 +6598,7 @@
         <v>133</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5982,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -6009,7 +6633,7 @@
         <v>133</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -6017,7 +6641,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -6044,7 +6668,7 @@
         <v>133</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -6052,7 +6676,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -6079,7 +6703,7 @@
         <v>133</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -6087,7 +6711,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -6114,7 +6738,7 @@
         <v>133</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -6122,7 +6746,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -6142,14 +6766,14 @@
       <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
+      <c r="I9" t="s">
+        <v>156</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -6157,7 +6781,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -6177,14 +6801,14 @@
       <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
+      <c r="I10" t="s">
+        <v>156</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -6192,7 +6816,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -6219,7 +6843,7 @@
         <v>133</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6227,7 +6851,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -6247,14 +6871,14 @@
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
+      <c r="I12" t="s">
+        <v>156</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -6262,7 +6886,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -6289,7 +6913,7 @@
         <v>133</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -6297,7 +6921,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -6324,7 +6948,7 @@
         <v>133</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -6380,13 +7004,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>71</v>
@@ -6410,7 +7034,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -6418,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -6433,7 +7057,7 @@
         <v>111</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -6450,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -6465,7 +7089,7 @@
         <v>105</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -6482,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -6497,7 +7121,7 @@
         <v>106</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>29</v>
@@ -6514,7 +7138,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -6529,7 +7153,7 @@
         <v>8010109090</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>29</v>
@@ -6546,7 +7170,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -6561,7 +7185,7 @@
         <v>107</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>29</v>
@@ -6573,7 +7197,7 @@
         <v>133</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -6581,7 +7205,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6596,7 +7220,7 @@
         <v>108</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>29</v>
@@ -6613,7 +7237,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -6628,7 +7252,7 @@
         <v>109</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>29</v>
@@ -6645,7 +7269,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -6660,7 +7284,7 @@
         <v>110</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>29</v>
@@ -6677,7 +7301,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -6750,10 +7374,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6763,19 +7387,20 @@
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="9" max="9" width="47.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="75.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>71</v>
@@ -6802,635 +7427,635 @@
         <v>139</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>299</v>
+      <c r="D2" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>700</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" t="s">
-        <v>355</v>
+        <v>714</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>143</v>
+      <c r="D3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>145</v>
+        <v>273</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>345</v>
+        <v>198</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>155</v>
+        <v>717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L5" t="s">
-        <v>354</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="16">
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L6" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="16">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>359</v>
+      <c r="D7" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>361</v>
+        <v>734</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>735</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>736</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>366</v>
+        <v>737</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>356</v>
+      <c r="L8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>284</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>272</v>
+        <v>718</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" t="s">
-        <v>284</v>
+        <v>365</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>272</v>
+      <c r="J11" s="7" t="s">
+        <v>719</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" t="s">
-        <v>284</v>
+        <v>371</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L12" t="s">
-        <v>284</v>
+      <c r="L12" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>721</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>155</v>
+        <v>729</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L13" t="s">
-        <v>284</v>
+        <v>256</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>254</v>
+        <v>721</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>155</v>
+        <v>728</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L14" t="s">
-        <v>284</v>
+        <v>258</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>254</v>
+        <v>721</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>727</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L15" t="s">
-        <v>284</v>
+        <v>260</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>254</v>
+        <v>721</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>726</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" t="s">
-        <v>284</v>
+        <v>262</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>254</v>
+        <v>721</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>155</v>
+        <v>725</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" t="s">
-        <v>284</v>
+        <v>264</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>254</v>
+        <v>721</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>29</v>
@@ -7439,102 +8064,587 @@
         <v>292</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>155</v>
+        <v>724</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L18" t="s">
-        <v>284</v>
+        <v>266</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>291</v>
+        <v>721</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>155</v>
+        <v>723</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" t="s">
-        <v>356</v>
+        <v>268</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L22" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="G23" t="s">
+        <v>649</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>647</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="L23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" t="s">
+        <v>696</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" t="s">
+        <v>706</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" t="s">
+        <v>711</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>713</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7546,8 +8656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7563,13 +8673,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>71</v>
@@ -7593,7 +8703,7 @@
         <v>115</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -7601,34 +8711,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>152</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>379</v>
-      </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -7636,34 +8746,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>152</v>
       </c>
       <c r="D3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" t="s">
         <v>323</v>
       </c>
-      <c r="E3" t="s">
-        <v>324</v>
-      </c>
       <c r="F3" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -7671,34 +8781,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
         <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -7706,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>152</v>
@@ -7727,13 +8837,13 @@
         <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -7741,7 +8851,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>152</v>
@@ -7762,13 +8872,13 @@
         <v>29</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -7832,8 +8942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7851,13 +8961,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>74</v>
@@ -7878,7 +8988,7 @@
         <v>115</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -7886,28 +8996,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="J2" s="11"/>
     </row>

--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666BC77-A027-4CA1-AB45-A3659AF8CC46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE3FE9A-4313-496C-8AA5-246362B37029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="4" activeTab="5" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="9" activeTab="10" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1023">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -1219,1624 +1219,1900 @@
     <t>Apollo Pharmacy</t>
   </si>
   <si>
-    <t>Unnamed Road, Near Yarharth Hospital, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
     <t>Shop No 26/27, Ground Floor, Ace City, Sector 1, Greater Noida West (Noida Extension)</t>
   </si>
   <si>
+    <t>08826188843</t>
+  </si>
+  <si>
+    <t>07:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>Ace City</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:10349756106590348779,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:4418323368998451121,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13049693698735333918,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,leTn9T67qms;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Delhi Pharmacy</t>
+  </si>
+  <si>
+    <t>Shop No. 21 , Panchsheel Hynish , Sector -1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14359274305205865275,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,ArqHtiY6Qpg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Panchsheel Hynish</t>
+  </si>
+  <si>
+    <t>Healthskool Pharmacy</t>
+  </si>
+  <si>
+    <t>GH-5B, Tech Zone-4, Cherry County Shopping Arcade, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08010330000</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14869185767094825019,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,dZjUhUnIN64;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Cherry County</t>
+  </si>
+  <si>
+    <t>Apple Pharmacy</t>
+  </si>
+  <si>
+    <t>09873586019</t>
+  </si>
+  <si>
+    <t>08:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:3581348286001509698,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k,y,Gfur7AZXo_o;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop No. 20, Plot No. 07B, Mayfair Residency, Techzone 04, Sector-04, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Mayfair Residency</t>
+  </si>
+  <si>
+    <t>09643292599</t>
+  </si>
+  <si>
+    <t>07:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:65055310229345402,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,MKu2Pi-slNU;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Icon Lesuire Valley</t>
+  </si>
+  <si>
+    <t>Shop No 28, La Residentia, GH 06, Techzone 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826033316</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13995724106049859435,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>La Residentia</t>
+  </si>
+  <si>
+    <t>Shop No 16, Cherry County, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:12066837091246884421,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>08826922877</t>
+  </si>
+  <si>
+    <t>08826190059</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:586385303671793973,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,seJOHBo_Od8;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop No 8, Ace Aspire, Tech Zone 4, Sector 16B, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Ace Aspire</t>
+  </si>
+  <si>
+    <t>Greno Pharmacy</t>
+  </si>
+  <si>
+    <t>Upper Ground Shop 32, Icon Lesuire Valley, Tech Zone IV, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No. LG-15, Icon Leisure Valley, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01207183948</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:579690272533299021,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,Anyzn_SpaLg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Manya Pharmacy</t>
+  </si>
+  <si>
+    <t>07906366860</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:8528886757645228722,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,76DONwFsuwk;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop.No.18,19,Opp.La Residency, MyFair Residency, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>MyFair Residency</t>
+  </si>
+  <si>
+    <t>Swasthyarekha Medicos</t>
+  </si>
+  <si>
+    <t>Shop number 45,City Plaza, Gaur City 1, GH-01, 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09999226845</t>
+  </si>
+  <si>
+    <t>08:30AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:4546087768302462445;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Way 2 Wellness</t>
+  </si>
+  <si>
+    <t>08800293080</t>
+  </si>
+  <si>
+    <t>08:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:16818375781778124752;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Block-A, 6th Ave Rd, Gaur City 1, Sector 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>1420, 10th Ave, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11019748506156613034;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>City Chemist</t>
+  </si>
+  <si>
+    <t>Shop No.GF-35, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08265957909</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:6340808028203742228;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Medspree Pharmacy</t>
+  </si>
+  <si>
+    <t>GF, Shop No. 36-37, City Plaza, Gaur City-I, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08587097146</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:12583373738340564582;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Himgiri Pharmacy</t>
+  </si>
+  <si>
+    <t>SHOP.NO.K-4 , 1ST FLOOR, GALAXY PLAZA,GAUR CITY -1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07840071432</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:10977514920862728949;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Galaxy Pharmacy</t>
+  </si>
+  <si>
+    <t>SHOP.NO.7,GALAXY SHOPEE, GAUR CITY 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08130848228</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:5574040361941938758;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Dr Plus Pharmacy</t>
+  </si>
+  <si>
+    <t>Exotica Dreamville Arcade, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09667179482</t>
+  </si>
+  <si>
+    <t>Open 24 Hrs.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11692176277654813132;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Shop. No.G.18,City Galleria, Gaur City -2,Sec - 16C, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826995604</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:13195625745323585788;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>SR Pharmacy</t>
+  </si>
+  <si>
+    <t>8A, GF, Galaxy Plaza, Gaur City-1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09971803252</t>
+  </si>
+  <si>
+    <t>08:00AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:8564378462515421124;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Family Homeopathic Pharmacy</t>
+  </si>
+  <si>
+    <t>FF 153, First Floor,Gaur City Plaza, Above ICICI Bank ATM, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08178500332</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:7816679870845769774;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>JD Pharmacy</t>
+  </si>
+  <si>
+    <t>Soul Pharmacy</t>
+  </si>
+  <si>
+    <t>09971898996</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/soul+pharmacy/@28.629409,77.4307163,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30ffffffe7:0x49ce98d0e191b7c2!8m2!3d28.629409!4d77.432905</t>
+  </si>
+  <si>
+    <t>S.G. Medicose</t>
+  </si>
+  <si>
+    <t>Shop No-18, Paramount Symphony, Ground Floor, Crossing Republik</t>
+  </si>
+  <si>
+    <t>Shop no-30,Well Bazar, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09540908908</t>
+  </si>
+  <si>
+    <t>09:30AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/S.G.+Medicose/@28.6287446,77.4383887,18z/data=!4m5!3m4!1s0x390cee3bb84ef78b:0xafd5bf4fafb7916!8m2!3d28.62874!4d77.439483</t>
+  </si>
+  <si>
+    <t>Manya Medical Hall</t>
+  </si>
+  <si>
+    <t>09971521003</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.628683,77.4383213,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b933fbe11:0x61dd4690d5d68906!8m2!3d28.6286783!4d77.44051</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.6150947,77.4350263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee45ddff376b:0xeabd7343aa6f2b78!8m2!3d28.61509!4d77.437215</t>
+  </si>
+  <si>
+    <t>Shop No-Gf- Paramount, 17, Crossings Republik</t>
+  </si>
+  <si>
+    <t>Orbit, Paramount Market, Near KFC, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09971521004</t>
+  </si>
+  <si>
+    <t>Shop.No.6, Proview Laboni, Near Hari Mandir, Crossings Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SWASTHYA+PHARMACY/@28.6234397,77.4323633,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee37992eff49:0xab4449222d4d9bf1!8m2!3d28.623435!4d77.434552</t>
+  </si>
+  <si>
+    <t>Swasthya Pharmacy</t>
+  </si>
+  <si>
+    <t>Shri Ram Medical Store</t>
+  </si>
+  <si>
+    <t>Shop No-Ugf-1&amp;2, Crossing Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shri+Ram+Medical+Store/@28.6261997,77.4322853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3749a5552f:0x20dcf559f90f6240!8m2!3d28.626195!4d77.434474</t>
+  </si>
+  <si>
+    <t>Shivam Medical Store &amp; Poly Clinic</t>
+  </si>
+  <si>
+    <t>Shop No. 217, Second Floor, Panchsheel Sqaure, Crossing Republik</t>
+  </si>
+  <si>
+    <t>07011563138</t>
+  </si>
+  <si>
+    <t>09811845369</t>
+  </si>
+  <si>
+    <t>09582905131</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shivam+Medical+Store+%26+Poly+Clinic/@28.6308497,77.4323853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee306b0f2975:0x37dbd05d8ce818da!8m2!3d28.630845!4d77.434574</t>
+  </si>
+  <si>
+    <t>Shristi Medicos</t>
+  </si>
+  <si>
+    <t>Shop No. GF-26, Gallaria Market, Plot No. 6, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09654085328</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shristi+Medicos/@28.6257287,77.4326593,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30a8badd3f:0x85455e067c541fd6!8m2!3d28.625724!4d77.434848</t>
+  </si>
+  <si>
+    <t>My Chemists</t>
+  </si>
+  <si>
+    <t>Shop No. 8, Mahagun Mascot Mart, Crossing Republik</t>
+  </si>
+  <si>
+    <t>08750603007</t>
+  </si>
+  <si>
+    <t>09:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/My+Chemists/@28.6293267,77.4386903,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b8fc74017:0x2cd3a0f82de27bdc!8m2!3d28.629322!4d77.440879</t>
+  </si>
+  <si>
+    <t>Jan Aushadhi Store</t>
+  </si>
+  <si>
+    <t>Shop. No. 141, 1st Floor, Panchsheel Square Mall, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09773694859</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Jan+Aushadhi+Store/@28.6310937,77.4323223,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30151f9653:0xb36c94aa0d1e5f1!8m2!3d28.631089!4d77.434511</t>
+  </si>
+  <si>
+    <t>MedMe Pharmacy</t>
+  </si>
+  <si>
+    <t>UGF-28, Ajnara Arcade, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09718884488</t>
+  </si>
+  <si>
+    <t>06:00AM to 11:59PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MedMe+Pharmacy/@28.6295027,77.4332683,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3080d09775:0xc7647f60b622f133!8m2!3d28.629498!4d77.435457</t>
+  </si>
+  <si>
+    <t>Mac Pharmacy</t>
+  </si>
+  <si>
+    <t>FF-34, Orbit Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>08447739709</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MAC+PHARMACY/@28.6308857,77.4329273,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee307289a5bb:0xa74c2b544ad68dcf!8m2!3d28.630881!4d77.435116</t>
+  </si>
+  <si>
+    <t>Shivay Medical Store</t>
+  </si>
+  <si>
+    <t>Panchsheel Square, shop no 110, first flor, Mall, Crossings Republik</t>
+  </si>
+  <si>
+    <t>07042153157</t>
+  </si>
+  <si>
+    <t>09:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shivay+Medical+Store/@28.6309558,77.4321091,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefa2026ab3a7:0xc983afb14bd1448e!8m2!3d28.6309511!4d77.4342978</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics in Noida, Shop no 146, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09958552232</t>
+  </si>
+  <si>
+    <t>08:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SRL+Diagnostics:+Pathology+Lab+%7C+Diagnostic+Center+For+Blood+Test/@28.5353045,77.3898243,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce8ba85555525:0xe33f56b39af9eed6!8m2!3d28.5352998!4d77.392013</t>
+  </si>
+  <si>
+    <t>Home Collection, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+Pathlab+Noida+Home+Collection/@28.5797068,77.4350533,17z/data=!4m5!3m4!1s0x390ce8c6cc1a33eb:0x81a5f63cc5ffefe2!8m2!3d28.5796023!4d77.4370796</t>
+  </si>
+  <si>
+    <t>Techzone 4, Amrapali Leisure Valley, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09971064820</t>
+  </si>
+  <si>
+    <t>07:30AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+Path+Labs+Noida+Extension/@28.5865291,77.4356268,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe853c36379:0x24f0693835fbabae!8m2!3d28.5865244!4d77.4378155</t>
+  </si>
+  <si>
+    <t>Amrapali Leisure Valley</t>
+  </si>
+  <si>
+    <t>Shop No.- 11, Galaxy Shoppe Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6195097,77.4236874,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef4591b82e7d:0x39de993fda55995d!8m2!3d28.619505!4d77.4258761</t>
+  </si>
+  <si>
+    <t>07065397983, 085859 51546</t>
+  </si>
+  <si>
+    <t>Shop No.- FF- 117, Gaur City, City Plaza Mall, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:00AM to 07:30PM</t>
+  </si>
+  <si>
+    <t>01203988505</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6168436,77.4181418,16z/data=!4m8!1m2!2m1!1sDr.+Lal+PathLabs+Shop+No.-+FF-+117,+Gaur+City,!3m4!1s0x390ce8babc160291:0x8b8feab84a3252fc!8m2!3d28.6148904!4d77.4277505</t>
+  </si>
+  <si>
+    <t>Max Lab (A unit of MAX Hospital)</t>
+  </si>
+  <si>
+    <t>FF8, First Floor, Galaxy Plaza, Gaur City 1, Sector 4, L block, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09417186080</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Max+Lab+(A+UNIT+of+MAX+HOSPITAL)+Pathology+Lab%2F+Blood+Tests+in+Gaur+City+(Noida+Extension)/@28.6119635,77.4203418,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11ae6a6f8d:0x858dc63b30d0bbdf!8m2!3d28.6119588!4d77.4225305</t>
+  </si>
+  <si>
+    <t>08010776944</t>
+  </si>
+  <si>
+    <t>City Plaza, FF, Shop No 152, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>098994 43272</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.6151437,77.4255742,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef990cd4694f:0xd3317d85782ab8bf!8m2!3d28.615139!4d77.4277629</t>
+  </si>
+  <si>
+    <t>07:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.5609266,77.4509117,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefcd73e94417:0xbe1d86502f07fd8b!8m2!3d28.5609219!4d77.4531004</t>
+  </si>
+  <si>
+    <t>08:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>09350075758</t>
+  </si>
+  <si>
+    <t>FF 105, Tooth Angel Dental Clinic, Ace City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop. No. LGF-16, Galaxy Plaza, Gaur City1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07827985965</t>
+  </si>
+  <si>
+    <t>07:00AM to 09:30PM</t>
+  </si>
+  <si>
+    <t>http://www.niramayahealthcare.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Nir+Amaya+Path+Labs+NABL+Accredited+Lab/@28.6117447,77.4202203,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb31bb57315:0x5c06bceb189e1b4a!8m2!3d28.61174!4d77.422409</t>
+  </si>
+  <si>
+    <t>09:30AM to 07:45PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/KRISHNA+DIAGNOSTICS,+NOIDA+Extn./@28.6195707,77.4242073,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4a96d3aa93:0x5b732594f1fdb078!8m2!3d28.619566!4d77.426396</t>
+  </si>
+  <si>
+    <t>Shop No. 01, 1st Floor, Galaxy Shoppe Complex,, Gaur City 2, opp. Mahagun Mywoods Mall, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204555585</t>
+  </si>
+  <si>
+    <t>09560154423</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.5703749,77.4442792,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef76ec235eaf:0xe4f24fd8fce43553!8m2!3d28.5703702!4d77.4464679</t>
+  </si>
+  <si>
+    <t>https://www.lalpathlabs.com</t>
+  </si>
+  <si>
+    <t>Paramount Emotions, Unit No- FF 15, City Square, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No: FF-02, Paramount Spectrum Market, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09718507535</t>
+  </si>
+  <si>
+    <t>06:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6120047,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3b9377e15d:0x52dfb0c579b9e6af!8m2!3d28.6287646!4d77.4403618</t>
+  </si>
+  <si>
+    <t>Crossing Relublik</t>
+  </si>
+  <si>
+    <t>Shop No G-36,PSC Panchsheel Square Near Axis Bank, Mall, Sain Vihar, Crossings Republik</t>
+  </si>
+  <si>
+    <t>08750139031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6309511,77.4167884,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee304005e309:0x368a73290e49c1f!8m2!3d28.6309511!4d77.4342979</t>
+  </si>
+  <si>
+    <t>LGF-008, Galleria -2, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09971780677</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Niramaya+Pathlabs/@28.6121509,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee37485ddd1b:0x538c22321918fb14!8m2!3d28.626068!4d77.434494</t>
+  </si>
+  <si>
+    <t>Shop N0.-UGF-09 Upper Ground Floor, Galleria-II, Sain Vihar, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09643703006</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.612224,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cef9abf23eb7f:0x4c913a6bd4586207!8m2!3d28.6294093!4d77.4329048</t>
+  </si>
+  <si>
+    <t>Shop No. G-44 Panchsheel Square Mall, In Front Of Police Chowki, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09818639390</t>
+  </si>
+  <si>
+    <t>Village Shahberi, Near Crossing Republik, Shahberi</t>
+  </si>
+  <si>
+    <t>09716787066</t>
+  </si>
+  <si>
+    <t>09:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Life+Care+Pathology+Lab/@28.6125164,77.4050207,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3846d62a93:0xba0766a54e40a3a3!8m2!3d28.623049!4d77.437388</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics Pathology Lab</t>
+  </si>
+  <si>
+    <t>Dr Lal Pathlab Noida Home Collection</t>
+  </si>
+  <si>
+    <t>Dr Lal Path Labs Noida Extension</t>
+  </si>
+  <si>
+    <t>Dr. Lal PathLabs</t>
+  </si>
+  <si>
+    <t>Dr Lal PathLabs</t>
+  </si>
+  <si>
+    <t>Get Well Path Lab</t>
+  </si>
+  <si>
+    <t>Nir Amaya Path Labs NABL Accredited Lab</t>
+  </si>
+  <si>
+    <t>Krishna Diagnostics</t>
+  </si>
+  <si>
+    <t>Niramaya Pathlabs</t>
+  </si>
+  <si>
+    <t>Reliable Health care PathLab</t>
+  </si>
+  <si>
+    <t>Life Care Pathology Lab</t>
+  </si>
+  <si>
+    <t>Dr. Mansha Mishra</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tooth+Angel+Dental+Clinic/@28.5605362,77.4530277,15z/data=!4m5!3m4!1s0x0:0x297e52768da6add9!8m2!3d28.5605362!4d77.4530277</t>
+  </si>
+  <si>
+    <t>07011687947</t>
+  </si>
+  <si>
+    <t>http://toothangel.in/</t>
+  </si>
+  <si>
+    <t>Tooth Angel Dental Clinic, Shop No-105, Ace Square, Ace City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Dentistry Clinic, BDS, Dental Surgeon , Dentist</t>
+  </si>
+  <si>
+    <t>Dr. Shachindra Narayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN dental Clinic, Shop No CH 016, GF, Stellar Jeevan Commercial Block, Plot No GH 03, Sec 1, Greater Noida West (Noida Extension) </t>
+  </si>
+  <si>
+    <t>07503471171</t>
+  </si>
+  <si>
+    <t>09:00AM to 08:00PM | Monday Closed</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SN+dental+Clinic/@28.5660577,77.4473663,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeb8372cbd57:0xaa774043610fc814!8m2!3d28.566053!4d77.449555</t>
+  </si>
+  <si>
+    <t>Dr. Shuchi Sharma</t>
+  </si>
+  <si>
+    <t>Opal Care Clinic, Shop Numbr 24, LGF, Mahagun Mart, Gaur City-2, Landmark: Opposite 11th Avenue Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08130567453</t>
+  </si>
+  <si>
+    <t>10:00 AM to 01:00 PM &amp; 06:00 PM to 09:00 PM (Monday to Saturday) | 10:00 AM - 01:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Shuchi+Sharma.Child+Doctor+in+Gaur+City+2.Child+Specialist+in+Mahagun+Mart,Gaur+City+-2/@28.6185167,77.4240679,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11b2154b7f:0x56f0b50104cf1d81!8m2!3d28.618512!4d77.4262566</t>
+  </si>
+  <si>
+    <t>MBBS, DCH, DNB - Paediatrics, Pediatrician, 9 Years Experience</t>
+  </si>
+  <si>
+    <t>Mahagun Mart, Gaur City</t>
+  </si>
+  <si>
+    <t>City Plaza, Gaur City</t>
+  </si>
+  <si>
+    <t>Galaxy Shoppe, Gaur City</t>
+  </si>
+  <si>
+    <t>Dr. Gaurav Gupta</t>
+  </si>
+  <si>
+    <t>08800737264</t>
+  </si>
+  <si>
+    <t>09:00AM to 12:30PM | Wednesday Closed</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/General+Physician+in+Gaur+City+1+-+Dr.+Gaurav+Gupta/@28.6148027,77.4254575,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceff9e563cc9b:0x705d78b3ed100bfd!8m2!3d28.614798!4d77.4276462</t>
+  </si>
+  <si>
+    <t>Shop No.208, 2nd Floor, City Plaza, Near Char Murti Chowk, Gaur City 1 &amp; 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>General Physician, MD, 9 Years of Experience</t>
+  </si>
+  <si>
+    <t>Dr. K K Gupta</t>
+  </si>
+  <si>
+    <t>MBBS, Diploma in Orthopaedics, DNB - Orthopedics/Orthopedic Surgery, Orthopedist, Joint Replacement Surgeon, Spine Surgeon, 9 Years Experience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Opal+care+Clinic/@28.6192281,77.4233609,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef84b53701e9:0x29aacb6f8f480832!8m2!3d28.6192234!4d77.4255496</t>
+  </si>
+  <si>
+    <t>3:00 PM to 4:00 PM &amp; 7:00 PM to 9:00 PM (Monday to Saturday) | 10:00 AM to 01:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>08527590742</t>
+  </si>
+  <si>
+    <t>Dr. Neetu Singh</t>
+  </si>
+  <si>
+    <t>11:00 AM to 01:30 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>MBBS, MD - Obstetrics &amp; Gynaecology, Fellowship in Minimal Access Surgery, Gynecologist, Obstetrician, Laparoscopic Surgeon, 16 Years Experience</t>
+  </si>
+  <si>
+    <t>Dr. Avnish Gupta</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Prosthodontist &amp; Oral Implantologist, Implantologist, 12 Years Experience</t>
+  </si>
+  <si>
+    <t>Shop No. 25, Ground Floor, City Plaza, Gaur City -1, Sector 4,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09599065099</t>
+  </si>
+  <si>
+    <t>10:00 AM to 01:00 PM (Monday to Saturday) | 05:00 PM to 09:00 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr.+Avnish+Oro+Dental+Clinic+%26+Implant+Centre/@28.6150987,77.4255803,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b85a40d89:0xe17e2ff7c69c384a!8m2!3d28.615094!4d77.427769</t>
+  </si>
+  <si>
+    <t>Dr. Abhijit Kumar</t>
+  </si>
+  <si>
+    <t>08802753906</t>
+  </si>
+  <si>
+    <t>10:00 AM to 12:00 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>MBBS, DNB, General Medicine, General Physician, 8 Years Experience</t>
+  </si>
+  <si>
+    <t>Dr. Rachninder Kaur</t>
+  </si>
+  <si>
+    <t>BDS, MDS, Dentist, 10 Years Experience</t>
+  </si>
+  <si>
+    <t>Opal Care Clinic, Shop Numbr 24, LGF, Mahagun Mart, Gaur City-2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Raghav Dental Care, Shop No 136, First Floor, City Plaza, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09891275884</t>
+  </si>
+  <si>
+    <t>06:00 PM to 09:00 PM (Tuesday to Friday) | 10:00 AM to 02:00 PM &amp; 05:30 PM to 09:00 PM (Saturday) | 10:00 AM to 06:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr.Rachninder+Kaur+(Oral+Medicine+%26+Radiology)+Dentist+at+Raghav+Dental+Care/@28.6149807,77.4254713,17z/data=!4m5!3m4!1s0x390cee4b842fffbf:0xbb7cc251cfd00ba5!8m2!3d28.614976!4d77.42766</t>
+  </si>
+  <si>
+    <t>Dr. Ritika Gulati</t>
+  </si>
+  <si>
+    <t>Smile World, CD 207 (2nd floor), Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09873577568</t>
+  </si>
+  <si>
+    <t>10:00 AM to 01:00PM | 05:00PM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Smile+World+Multispeciality+Dental+and+Orthodontic+center/@28.566052,77.4476326,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef285137ba4b:0x415fca5db716262!8m2!3d28.5660473!4d77.4498213</t>
+  </si>
+  <si>
+    <t>Dr. Raghavendra Singh</t>
+  </si>
+  <si>
+    <t>BDS, MDS - Orthodontics, Orthodontist, Cosmetic/Aesthetic Dentist, 12 Years Experience</t>
+  </si>
+  <si>
+    <t>09560267996</t>
+  </si>
+  <si>
+    <t>10:00 AM to 2:00 PM &amp; 5:30 PM to 9:00 PM (Tuesday to Saturday) | 10:00 AM to 6:00 PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Raghav+Dental+Care+and+Orthodontic+centre/@28.6150737,77.4256263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b8596d673:0xc93d105afddc84dd!8m2!3d28.615069!4d77.427815</t>
+  </si>
+  <si>
+    <t>Dr. Vinay Saini</t>
+  </si>
+  <si>
+    <t>MDS - Oral &amp; Maxillofacial Surgery, Dentist, Oral And MaxilloFacial Surgeon, 10 Years Experience</t>
+  </si>
+  <si>
+    <t>09818578608</t>
+  </si>
+  <si>
+    <t>9:00 AM to 1:00 PM &amp; 5:00 PM to 9:00 PM (Monday to Saturday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/J.D.Dental+Care/@28.6084193,77.4226375,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef6d59a2e92d:0x6cf4e7c3df075fb5!8m2!3d28.6084146!4d77.4248262</t>
+  </si>
+  <si>
+    <t>J.D. Dental Care, LGF-22, Aarza Square-1,7th Avenue, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Aarza Square, Gaur City</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrRitikaGulati.jpeg</t>
+  </si>
+  <si>
+    <t>BDS, MDS Orthodontics, Dentist, 9 Years Experience</t>
+  </si>
+  <si>
+    <t>BDS, Dentist, Dental Surgeon, 7 Years Experience</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrSanjayPohani.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrAliNawaz.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/AVICHAL+HEALTHCARE/@28.6150299,77.4254204,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b846bffb7:0xbcfec233fa98aed1!8m2!3d28.6150252!4d77.4276091</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Rashi+Clinic/@28.6171039,77.4202409,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefdbb0e4332b:0xd3518069a9d6ef!8m2!3d28.6170992!4d77.4224296</t>
+  </si>
+  <si>
+    <t>Rashi Clinic, UGF 45, Mahagun Mart, Opp. Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrDevanshGupta.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrEshaSinghal.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVashima.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVipulVerma.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrAmitabhBanka.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrAbhishekSingh.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVijaySharma.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrKomalPanwar.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrVineshPanwar.jpeg</t>
+  </si>
+  <si>
+    <t>Dr. Shweta Jindal</t>
+  </si>
+  <si>
+    <t>09899683220, 09717163037</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrShwetaJindal.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/16th+Avenue+Apartments/@28.6226597,77.4204089,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef26dda48685:0x7a305a0412d736a4!8m2!3d28.622655!4d77.4225976</t>
+  </si>
+  <si>
+    <t>LGF 41, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09599975791, 09599975792, 07827439297</t>
+  </si>
+  <si>
+    <t>Shop no.23, City plaza, Gaur city 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.Minimart.com </t>
+  </si>
+  <si>
+    <t>08:00AM to 09:30PM</t>
+  </si>
+  <si>
+    <t>Shop Number 45-50, Lower Ground Floor, Galliria Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Galliria Market, Gaur City</t>
+  </si>
+  <si>
+    <t>08800563608</t>
+  </si>
+  <si>
+    <t>07290016382, 07290016383</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_FamilyStore.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MiniMart.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_OneStopMart.jpeg</t>
+  </si>
+  <si>
+    <t>Shop No.25/26, Panchsheel Hynish Market, Plot. no. 8, Sec.1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_DailyNeedsMart.jpeg</t>
+  </si>
+  <si>
+    <t>Shopping Arcade, Cherry County, Ek Murti Chowk, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08860007997</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_PriceSmart.jpeg</t>
+  </si>
+  <si>
+    <t>CH-7-8-9-10, Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08373965488</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_GOneFreshShoppingMart.jpeg</t>
+  </si>
+  <si>
+    <t>Shop No. GF-34, City Plaza, Gaur City-1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09811617199</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MuskanBakery.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shop No-12, Mayfare Residency, Near Ryan International, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09152475360</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MittalsBakery.jpeg</t>
+  </si>
+  <si>
+    <t>Mayfare Residency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meatwale </t>
+  </si>
+  <si>
+    <t>Shop No-GF-1, Gaur City, Galaxy Plaza, Near Gaur-1 City Main Gate, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07290027318</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MEATWALA.COM/@28.590165,77.4122186,13z/data=!4m8!1m2!2m1!1smeatwale+gaur+city!3m4!1s0x390cefb310fdfb1f:0xc9c26b643da0bf27!8m2!3d28.6121!4d77.422349</t>
+  </si>
+  <si>
+    <t>10:00AM to 09:00PM | Tuesday Closed</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_Meatwale.jpeg</t>
+  </si>
+  <si>
+    <t>Galaxy Plaza, Gaur City</t>
+  </si>
+  <si>
+    <t>CH -107, 1st Floor, Stellar Jeevan, Sector - 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>www.meatwale.com</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MeatwaleStellarJeevan.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Meatwale+Stellar+Jeevan/@28.5933785,77.3633419,13z/data=!4m8!1m2!2m1!1sMeatwale+Stellar+Jeevan!3m4!1s0x0:0x575871fa77ccca23!8m2!3d28.6205513!4d77.3467326</t>
+  </si>
+  <si>
+    <t>10:30AM to 12:30PM | 05:30PM to 08:30PM | Prior Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derma× Clinic, C 4020, 16th Avenue, Gaur City 2, Greater Noida West (Noida Extension) </t>
+  </si>
+  <si>
+    <t>MD (AM), MHA, PGDCAM, CSD, D. Tricho (UK), Dermo-Cosmetologist &amp; Skin Expert, Certified in Aesthetic Dermatology &amp; Laser treatments</t>
+  </si>
+  <si>
+    <t>Shri Sai Collection and Footwear</t>
+  </si>
+  <si>
+    <t>CH-106, First floor, Commercial Block, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09205602113</t>
+  </si>
+  <si>
+    <t>10:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/shopping/shopping_ShriSaiCollectionAndFootwear.jpeg</t>
+  </si>
+  <si>
+    <t>Meatwale Stellar Jeevan (Fresh Raw Chicken, Mutton and Fish)</t>
+  </si>
+  <si>
+    <t>Muskan Bakery (Cakes, Cookies, Pastries, Chocolates)</t>
+  </si>
+  <si>
+    <t>CH 005, Ground Floor, Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Muskan Bakery Stellar Jeevan(Cakes, Cookies, Pastries, Chocolates, Birthday Decoration Items)</t>
+  </si>
+  <si>
+    <t>08860656724, 09811666377</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MuskanBakeryStellarJeevan.jpeg</t>
+  </si>
+  <si>
+    <t>LGF 06-07-08, Bhavisha India Tower, Opposite 10th Avenue, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07303625599</t>
+  </si>
+  <si>
+    <t>www.poppinskids.com</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/shopping/shopping_PoppinsKids.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bhavishya+india+tower/@28.6167829,77.4256309,14z/data=!4m8!1m2!2m1!1sBhavisha+India+Tower!3m4!1s0x0:0x2acd25f307edf016!8m2!3d28.6178484!4d77.4278104</t>
+  </si>
+  <si>
+    <t>Poppins Kids (Jeans, T-Shirts, Shorts, Rompers, Ethnic Wear, Tops, Tees, Frocks and Many More)</t>
+  </si>
+  <si>
+    <t>Ncr Wheels Apna Garage</t>
+  </si>
+  <si>
+    <t>Near Gaur Saundaryam</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/thumbnail/playSchoolsThumbnail.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/playSchools/playSchools_RisingToddler.jpeg</t>
+  </si>
+  <si>
+    <t>T 1, UG 05, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09:00AM to 07:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Panchsheel+Hynish,+Panchsheel+Buildtech+Pvt.+Ltd.,+Sector+1,+Bisrakh,+Greater+Noida,+Uttar+Pradesh+203207/@28.5789149,77.4360283,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceee88d2c5851:0x66c594feda72b9c1!8m2!3d28.5789102!4d77.438217</t>
+  </si>
+  <si>
+    <t>Rising Toddler (Play School &amp; Day Care)</t>
+  </si>
+  <si>
+    <t>09971525315</t>
+  </si>
+  <si>
+    <t>Maple Bear Canadian Pre School</t>
+  </si>
+  <si>
+    <t>Plot No. 775, JS Road, Behind Stellar Jeevan GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07217820317</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/playSchools/playSchools_MapleBearCanadianPreSchool.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Maple+Bear+Canadian+Pre-school,+Sector+1,+Noida+Extension/@28.5638165,77.4437793,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceec812f3934d:0x7102b080d0fc86c1!8m2!3d28.5638118!4d77.445968</t>
+  </si>
+  <si>
+    <t>Behind Stellar Jeevan</t>
+  </si>
+  <si>
+    <t>Sanfort Play School</t>
+  </si>
+  <si>
+    <t>Plot No. 780, Behind Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07042038602</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sanfort+Play+School+Noida+Extension/@28.5641371,77.4458509,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceff351d20af9:0x81d71e574adb1273!8m2!3d28.5641324!4d77.4480396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yatharth Super Speciality Hospital </t>
+  </si>
+  <si>
+    <t>HO-01, Sector 1, Noida, Uttar Pradesh 201306</t>
+  </si>
+  <si>
+    <t>08800797909</t>
+  </si>
+  <si>
+    <t>09643958619</t>
+  </si>
+  <si>
+    <t>08130470340</t>
+  </si>
+  <si>
+    <t>01202845880</t>
+  </si>
+  <si>
+    <t>08800254055</t>
+  </si>
+  <si>
+    <t>09650927711</t>
+  </si>
+  <si>
+    <t>09540097282, 09650830011, 09540097282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09910554446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09528865376 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09899623485 </t>
+  </si>
+  <si>
+    <t>Dr. Dharamveer Saini</t>
+  </si>
+  <si>
+    <t>Nilmani Physiotherapy and Occupational Therapy Clinic, CH 404, GH 03, Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08700447937</t>
+  </si>
+  <si>
+    <t>09:00AM to 10:45AM (Mon to Sat) | 07:00PM to 09:00PM (Daily)</t>
+  </si>
+  <si>
+    <t>11:15AM to 01:00PM | 04:30PM to 06:30PM | 12:00AM to 02:00PM (Sunday)</t>
+  </si>
+  <si>
+    <t>10:00AM to 09:00 PM (Mon to Sat) | 02:00PM to 09:00PM (Sunday)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Nilmani+Occupational+And+Physiotherapy+Clinic/@28.566308,77.4470321,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef1d18374011:0xf67faf3cad3ccc72!8m2!3d28.5663033!4d77.4492208</t>
+  </si>
+  <si>
+    <t>Physiotherapy and Occupational Therapy Clinic</t>
+  </si>
+  <si>
+    <t>Bisrakh, Sector  1, Near SBI Bank and Shiv Mandir, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09810305886, 07871732385, 09718502049</t>
+  </si>
+  <si>
+    <t>Angel Taxi Service</t>
+  </si>
+  <si>
+    <t>24 Hours Service</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/taxiService/taxiService_AngelTaxiService.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Angel+Taxi+Service/@28.5688626,77.434872,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef642b06726b:0x22dfb804d37870b0!8m2!3d28.5688579!4d77.4370607</t>
+  </si>
+  <si>
+    <t>Near Bisrakh Post Office</t>
+  </si>
+  <si>
+    <t>Radhe Radhe Taxi Service</t>
+  </si>
+  <si>
+    <t>J 806, ACE City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09555771116, 09540871116, 06395120912</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ace+City+Noida+Extension/@28.5626897,77.4494361,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeb6ea3145c7:0x74fddcde6d2b2cd5!8m2!3d28.562685!4d77.4516248</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/taxiService/taxiService_RadheRadheTaxiService.jpeg</t>
+  </si>
+  <si>
+    <t>R 807, GH 03, Sector 1, Stellar Jeevan, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826688841</t>
+  </si>
+  <si>
+    <t>10:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>RS Fabrics (Ladies Wear, Kids Wear, Home Decor items like Bedsheet etc)</t>
+  </si>
+  <si>
+    <t>B 109, 5th Avenue, Gaur City 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204297390, 09315595290 , (Intercom No. 7107 - for local residents)</t>
+  </si>
+  <si>
+    <t>08860748484, , (Intercom No. 150109 - for local residents)</t>
+  </si>
+  <si>
+    <t>10:00AM to 07:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_FlawlessBeautyStudio.jpeg</t>
+  </si>
+  <si>
+    <t>Flawless Beauty Studio (Only for Ladies and Kids)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/5th+Avenue+Gaur+City,+5th+Avenue,+Gaur+City+1+Road,+Gaur+City+1,+Sector+4,+Greater+Noida,+Uttar+Pradesh+201009/@28.6141753,77.4255252,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4e40b58b59:0x4d94aa5645aca9bf!8m2!3d28.6141753!4d77.4277139</t>
+  </si>
+  <si>
+    <t>Desi Chatkara</t>
+  </si>
+  <si>
+    <t>Dharma Plaza, Sector 1, Bisrakh, Behind Paramount Emotions, Near Stellar Jeevan, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07838986680, 08448812655</t>
+  </si>
+  <si>
+    <t>11:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_DesiChatkara.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Desi+Chatkara/@28.567779,77.4433927,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceec70bf15181:0xa3ae33567e2b2b0b!8m2!3d28.5677743!4d77.4455814</t>
+  </si>
+  <si>
+    <t>Behind Paramount Emotions</t>
+  </si>
+  <si>
+    <t>Vaishnavi Tour and Travels</t>
+  </si>
+  <si>
+    <t>09958053993, 08512035134</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Taj+Highway,+Gaur+City+2,+Ghaziabad,+Uttar+Pradesh+201009/@28.6161381,77.4169398,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefd003fc6209:0x42d923c3ffb2b45c!8m2!3d28.6161334!4d77.4191285</t>
+  </si>
+  <si>
+    <t>New Gaur City</t>
+  </si>
+  <si>
+    <t>Rohan Travels</t>
+  </si>
+  <si>
+    <t>Shop No 2, Jeevan Lok Enclave, Opp. Gaur City 1, Near Crossing Republik, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09350604150, 08588887373, 08506887373</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Gaur+City+1,+Ghaziabad,+Uttar+Pradesh+201009/@28.6108506,77.4176167,15z/data=!3m1!4b1!4m5!3m4!1s0x390cee4d100dab27:0xf26c6a2090a8199a!8m2!3d28.6107386!4d77.4250145</t>
+  </si>
+  <si>
+    <t>Deshraj Automobiles</t>
+  </si>
+  <si>
+    <t>Taj Highway, Dudheshwar Enclave, Chipyana Khurd, New Gaur City 2,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09810671285, 09718119834, 09540046467</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Gaur+City+2,+Ghaziabad,+Uttar+Pradesh+201009/@28.6192091,77.4165527,15z/data=!3m1!4b1!4m5!3m4!1s0x390cee4abb9de49b:0x287a032bd7ff51f1!8m2!3d28.6186956!4d77.4257319</t>
+  </si>
+  <si>
+    <t>Near Gaur City</t>
+  </si>
+  <si>
+    <t>Mohan Travels Solution</t>
+  </si>
+  <si>
+    <t>01206955555, 09990002241, 9999760941</t>
+  </si>
+  <si>
+    <t>Shop No 16, First Floor, Shaberi Pulia Market, Opposite Jaipura Apartment, Crossing Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mohan+Travels+Solution/@28.6225057,77.4353753,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee386a2a976f:0x80c2030a35372587!8m2!3d28.622501!4d77.437564</t>
+  </si>
+  <si>
+    <t>Bhawna Tour and Travels</t>
+  </si>
+  <si>
+    <t>Near CNG Pump, Gol Chakkar, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09810417300, 08800524300</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bhawna+Tour+%26+Travels/@28.629414,77.4307161,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefc02db6190b:0x7493389d3cb98c4b!8m2!3d28.6294093!4d77.4329048</t>
+  </si>
+  <si>
+    <t>Taj Highway Road, Near Gaur City 2, Haibatpur, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>opposite Gaur City</t>
+  </si>
+  <si>
+    <t>New Look Hair Beauty Clinic (For Ladies and Kids)</t>
+  </si>
+  <si>
+    <t>D1, 102, Supertech Eco Village 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09718473715, 0836819743</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_NewLookHairBeautyClinic.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Supertech+Ecovillage+II/@28.6106412,77.4410362,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce8ba9a610f87:0x4ff67ae7d59da086!8m2!3d28.6106365!4d77.4432249</t>
+  </si>
+  <si>
+    <t>Eco Village 2</t>
+  </si>
+  <si>
+    <t>Bharat Travels</t>
+  </si>
+  <si>
+    <t>Galleria Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09582803590, 09953112930</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Galleria+Market/@28.6193196,77.4216635,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe23c9e68f7:0xddc15b823e10e092!8m2!3d28.6193149!4d77.4238522</t>
+  </si>
+  <si>
+    <t>Galleria Market, Gaur City</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/taxiService/taxiService_BharatTravels.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/taxiService/taxiService_BhawnaTourandTravels.jpeg</t>
+  </si>
+  <si>
+    <t>Girish Taxi Club</t>
+  </si>
+  <si>
+    <t>09990051167, 09355154141</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/taxiService/taxiService_GirishTaxiClub.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Galleria+Market/@28.6193196,77.4216635,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe23c9e68f7:0xddc15b823e10e092!8m2!3d28.6193149!4d77.4238523</t>
+  </si>
+  <si>
+    <t>Dr. Renu Singh</t>
+  </si>
+  <si>
+    <t>08826138787</t>
+  </si>
+  <si>
+    <t>10:00AM to 01:00PM | 05:00PM to 07:30PM | Saturday Closed</t>
+  </si>
+  <si>
+    <t>Aarogya Homoeopathic Clinic, Shop No. 3, Ch. Nathey Singh Market, Sector 1, Near Hawelia Valencia, Bisrakh Thana Road, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Aarogya+Homoeopathic+Clinic/@28.5743537,77.4404953,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef2a77b685fb:0xbaa3a2fc7e789d56!8m2!3d28.574349!4d77.442684</t>
+  </si>
+  <si>
+    <t>BHMS, MD, Specialist in: Gynaecological Problems, Skin Disease, Joint Pain, Alopecia, Chronic Constipation, Dipression, Kidney &amp; Gallbladder Stones, Asthma, Migraine, Children Disease.</t>
+  </si>
+  <si>
+    <t>Near Hawelia Valencia</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrRenuSingh.jpeg</t>
+  </si>
+  <si>
+    <t>Step Up School</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Step+Up+School/@28.6333923,77.4497624,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee1743c5c715:0xe20057157a9245cb!8m2!3d28.6333876!4d77.4519511</t>
+  </si>
+  <si>
+    <t>Campus 4, 19th KM. Stone, NH24, Near Crossing Republik</t>
+  </si>
+  <si>
+    <t>www.stepupschool.in</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/school/school_StepUpSchool.jpeg</t>
+  </si>
+  <si>
+    <t>Techzone 4</t>
+  </si>
+  <si>
+    <t>www.sarvottamnoida.com</t>
+  </si>
+  <si>
+    <t>www.ryaninternational.org/site/risnoidaextn</t>
+  </si>
+  <si>
+    <t>www.dwpsnoidaex.com</t>
+  </si>
+  <si>
+    <t>www.asterinstitutions.com/greater-noida/</t>
+  </si>
+  <si>
+    <t>www.gaursinternationalschool.com</t>
+  </si>
+  <si>
+    <t>www.bloominternationalschool.com</t>
+  </si>
+  <si>
+    <t>www.stjohnsschools.org/home.aspx</t>
+  </si>
+  <si>
+    <t>www.sksworldschool.com</t>
+  </si>
+  <si>
+    <t>www.indirapuramschoolcr.com</t>
+  </si>
+  <si>
+    <t>09711060916, 09711060917, 08448583380, 08448583381, info@stepupschool.in</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sks+World+School/@28.6120471,77.4511275,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef5c5fafd265:0xbb5f2926c0de47fc!8m2!3d28.6120424!4d77.4533162</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/St.+John's+Senior+Secondary+School/@28.5810833,77.4415575,17z/data=!3m1!4b1!4m5!3m4!1s0x390cea709a5e4597:0xbd15c243b25ea436!8m2!3d28.5810786!4d77.4437462</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bloom+International+School/@28.594853,77.4654456,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee817035d41f:0xd2e605c9b999db42!8m2!3d28.5948483!4d77.4676343</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Gaurs+International+School/@28.6215897,77.4224112,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefcacd18395d:0xcda3f2b8ac550f1!8m2!3d28.621585!4d77.4245999</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Aster+Public+School/@28.5736728,77.4508775,16z/data=!4m5!3m4!1s0x390ceec454f3d13d:0x2ee306c6d07482e0!8m2!3d28.5772107!4d77.4593747</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/DELHI+WORLD+PUBLIC+SCHOOL+NOIDA+EXTENSION/@28.5507753,77.4576452,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce95268c82d83:0x74a12ebace97d392!8m2!3d28.5507706!4d77.4598339</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ryan+International+School/@28.5947953,77.4419187,17z/data=!4m5!3m4!1s0x390cee93057563eb:0xc7d8c54362a92ff0!8m2!3d28.595516!4d77.444322</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sarvottam+International+School/@28.5885963,77.4443885,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee8d69d79f23:0xa3d01cc4a2f88138!8m2!3d28.5885916!4d77.4465772</t>
+  </si>
+  <si>
+    <t>Knowledge Park 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaur City- 2, Plot No-GH 03, Sector-16C, G-Noida (West), India </t>
+  </si>
+  <si>
+    <t>08:00AM to 05:00PM | Sunday Closed</t>
+  </si>
+  <si>
+    <t>A.G Food Mart, Shop No 7-8-9, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_EmpireMart.jpeg</t>
+  </si>
+  <si>
+    <t>07827864042</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Panchsheel+Hynish/@28.5788182,77.4348237,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe3ac25bb0d:0x597d621e8aa15ddc!8m2!3d28.5788135!4d77.4370124</t>
+  </si>
+  <si>
+    <t>GF 11, Arihant Arden, Sector 1, Village Bisrakh, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09582668266</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_NDBConvenio.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Arihant+Arden/@28.5787008,77.4407464,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeea1be761a1:0x941bbc9735af140a!8m2!3d28.5786961!4d77.4429351</t>
+  </si>
+  <si>
+    <t>Family Store (Grocery)</t>
+  </si>
+  <si>
+    <t>Mini Mart  (Grocery)</t>
+  </si>
+  <si>
+    <t>One Stop Mart  (Grocery)</t>
+  </si>
+  <si>
+    <t>Price Smart  (Grocery)</t>
+  </si>
+  <si>
+    <t>G One Fresh Shopping Mart  (Grocery)</t>
+  </si>
+  <si>
+    <t>MittalsBakery (Cakes, Cookies, Pastries, Chocolates)</t>
+  </si>
+  <si>
+    <t>Empire Mart (Grocery)</t>
+  </si>
+  <si>
+    <t>NDB Convenio (Grocery)</t>
+  </si>
+  <si>
+    <t>Savers Stop (Gifts, Stationary, Photo Copy, Scanning, Courier Services)</t>
+  </si>
+  <si>
+    <t>Shop No 13B, LGF, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08766318597, 08130113060</t>
+  </si>
+  <si>
+    <t>12:00PM to 09:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_SaversStop.jpeg</t>
+  </si>
+  <si>
+    <t>Daily Needs Mart  (Grocery &amp; Foods Vegetables Store)</t>
+  </si>
+  <si>
+    <t>09643286211</t>
+  </si>
+  <si>
+    <t>06:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mayfair+Residency/@28.589293,77.4437009,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceef2c1c1db4f:0x886ac9403280fe2b!8m2!3d28.5892883!4d77.4458896</t>
+  </si>
+  <si>
+    <t>Shop No 5, Ground Floor, Arihant Arden, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01207189539, 08826188947</t>
+  </si>
+  <si>
+    <t>Shop No 10, Nambardar Market, Near Yarharth Hospital, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08800226099, 09968495034</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/pharmacy/pharmacy_JeevandharaPharmacy.jpeg</t>
+  </si>
+  <si>
+    <t>Jeevandhara Pharmacy Panchsheel Hynish</t>
+  </si>
+  <si>
+    <t>Shop No 27, Plot No 8, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
     <t>09643070378</t>
   </si>
   <si>
-    <t>08826188843</t>
-  </si>
-  <si>
-    <t>07:00AM to 11:00PM</t>
-  </si>
-  <si>
-    <t>Ace City</t>
-  </si>
-  <si>
-    <t>Shop No 5, Arihant Arden, Sector 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08826188947</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:10349756106590348779,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:4418323368998451121,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13049693698735333918,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,leTn9T67qms;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Delhi Pharmacy</t>
-  </si>
-  <si>
-    <t>Shop No. 21 , Panchsheel Hynish , Sector -1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>096432 87905</t>
-  </si>
-  <si>
-    <t>09:00AM to 09:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14359274305205865275,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,ArqHtiY6Qpg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Panchsheel Hynish</t>
-  </si>
-  <si>
-    <t>Healthskool Pharmacy</t>
-  </si>
-  <si>
-    <t>GH-5B, Tech Zone-4, Cherry County Shopping Arcade, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08010330000</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14869185767094825019,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,dZjUhUnIN64;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Cherry County</t>
-  </si>
-  <si>
-    <t>Apple Pharmacy</t>
-  </si>
-  <si>
-    <t>09873586019</t>
-  </si>
-  <si>
-    <t>08:30AM to 10:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:3581348286001509698,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k,y,Gfur7AZXo_o;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Shop No. 20, Plot No. 07B, Mayfair Residency, Techzone 04, Sector-04, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Mayfair Residency</t>
-  </si>
-  <si>
-    <t>09643292599</t>
-  </si>
-  <si>
-    <t>07:30AM to 10:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:65055310229345402,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,MKu2Pi-slNU;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Icon Lesuire Valley</t>
-  </si>
-  <si>
-    <t>Shop No 28, La Residentia, GH 06, Techzone 4, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08826033316</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13995724106049859435,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>La Residentia</t>
-  </si>
-  <si>
-    <t>Shop No 16, Cherry County, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:12066837091246884421,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>08826922877</t>
-  </si>
-  <si>
-    <t>08826190059</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:586385303671793973,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,seJOHBo_Od8;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Shop No 8, Ace Aspire, Tech Zone 4, Sector 16B, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Ace Aspire</t>
-  </si>
-  <si>
-    <t>Greno Pharmacy</t>
-  </si>
-  <si>
-    <t>Upper Ground Shop 32, Icon Lesuire Valley, Tech Zone IV, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Shop No. LG-15, Icon Leisure Valley, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>01207183948</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:579690272533299021,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,Anyzn_SpaLg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Manya Pharmacy</t>
-  </si>
-  <si>
-    <t>07906366860</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:8528886757645228722,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,76DONwFsuwk;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
-  </si>
-  <si>
-    <t>Shop.No.18,19,Opp.La Residency, MyFair Residency, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>MyFair Residency</t>
-  </si>
-  <si>
-    <t>Swasthyarekha Medicos</t>
-  </si>
-  <si>
-    <t>Shop number 45,City Plaza, Gaur City 1, GH-01, 4, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09999226845</t>
-  </si>
-  <si>
-    <t>08:30AM to 11:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:4546087768302462445;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Way 2 Wellness</t>
-  </si>
-  <si>
-    <t>08800293080</t>
-  </si>
-  <si>
-    <t>08:00AM to 10:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:16818375781778124752;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Block-A, 6th Ave Rd, Gaur City 1, Sector 4, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>1420, 10th Ave, Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09:00AM to 10:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11019748506156613034;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>City Chemist</t>
-  </si>
-  <si>
-    <t>Shop No.GF-35, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08265957909</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:6340808028203742228;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Medspree Pharmacy</t>
-  </si>
-  <si>
-    <t>GF, Shop No. 36-37, City Plaza, Gaur City-I, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08587097146</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:12583373738340564582;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Himgiri Pharmacy</t>
-  </si>
-  <si>
-    <t>SHOP.NO.K-4 , 1ST FLOOR, GALAXY PLAZA,GAUR CITY -1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07840071432</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:10977514920862728949;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Galaxy Pharmacy</t>
-  </si>
-  <si>
-    <t>SHOP.NO.7,GALAXY SHOPEE, GAUR CITY 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08130848228</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:5574040361941938758;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Dr Plus Pharmacy</t>
-  </si>
-  <si>
-    <t>Exotica Dreamville Arcade, Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09667179482</t>
-  </si>
-  <si>
-    <t>Open 24 Hrs.</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11692176277654813132;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Shop. No.G.18,City Galleria, Gaur City -2,Sec - 16C, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08826995604</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:13195625745323585788;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>SR Pharmacy</t>
-  </si>
-  <si>
-    <t>8A, GF, Galaxy Plaza, Gaur City-1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09971803252</t>
-  </si>
-  <si>
-    <t>08:00AM to 10:30PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:8564378462515421124;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>Family Homeopathic Pharmacy</t>
-  </si>
-  <si>
-    <t>FF 153, First Floor,Gaur City Plaza, Above ICICI Bank ATM, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08178500332</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:7816679870845769774;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
-  </si>
-  <si>
-    <t>JD Pharmacy</t>
-  </si>
-  <si>
-    <t>Soul Pharmacy</t>
-  </si>
-  <si>
-    <t>09971898996</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/soul+pharmacy/@28.629409,77.4307163,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30ffffffe7:0x49ce98d0e191b7c2!8m2!3d28.629409!4d77.432905</t>
-  </si>
-  <si>
-    <t>S.G. Medicose</t>
-  </si>
-  <si>
-    <t>Shop No-18, Paramount Symphony, Ground Floor, Crossing Republik</t>
-  </si>
-  <si>
-    <t>Shop no-30,Well Bazar, Crossing Republik</t>
-  </si>
-  <si>
-    <t>09540908908</t>
-  </si>
-  <si>
-    <t>09:30AM to 10:30PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/S.G.+Medicose/@28.6287446,77.4383887,18z/data=!4m5!3m4!1s0x390cee3bb84ef78b:0xafd5bf4fafb7916!8m2!3d28.62874!4d77.439483</t>
-  </si>
-  <si>
-    <t>Manya Medical Hall</t>
-  </si>
-  <si>
-    <t>09971521003</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.628683,77.4383213,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b933fbe11:0x61dd4690d5d68906!8m2!3d28.6286783!4d77.44051</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.6150947,77.4350263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee45ddff376b:0xeabd7343aa6f2b78!8m2!3d28.61509!4d77.437215</t>
-  </si>
-  <si>
-    <t>Shop No-Gf- Paramount, 17, Crossings Republik</t>
-  </si>
-  <si>
-    <t>Orbit, Paramount Market, Near KFC, Crossings Republik</t>
-  </si>
-  <si>
-    <t>09971521004</t>
-  </si>
-  <si>
-    <t>Shop.No.6, Proview Laboni, Near Hari Mandir, Crossings Republik</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/SWASTHYA+PHARMACY/@28.6234397,77.4323633,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee37992eff49:0xab4449222d4d9bf1!8m2!3d28.623435!4d77.434552</t>
-  </si>
-  <si>
-    <t>Swasthya Pharmacy</t>
-  </si>
-  <si>
-    <t>Shri Ram Medical Store</t>
-  </si>
-  <si>
-    <t>Shop No-Ugf-1&amp;2, Crossing Plaza, Crossing Republik</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shri+Ram+Medical+Store/@28.6261997,77.4322853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3749a5552f:0x20dcf559f90f6240!8m2!3d28.626195!4d77.434474</t>
-  </si>
-  <si>
-    <t>Shivam Medical Store &amp; Poly Clinic</t>
-  </si>
-  <si>
-    <t>Shop No. 217, Second Floor, Panchsheel Sqaure, Crossing Republik</t>
-  </si>
-  <si>
-    <t>07011563138</t>
-  </si>
-  <si>
-    <t>09811845369</t>
-  </si>
-  <si>
-    <t>09582905131</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shivam+Medical+Store+%26+Poly+Clinic/@28.6308497,77.4323853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee306b0f2975:0x37dbd05d8ce818da!8m2!3d28.630845!4d77.434574</t>
-  </si>
-  <si>
-    <t>Shristi Medicos</t>
-  </si>
-  <si>
-    <t>Shop No. GF-26, Gallaria Market, Plot No. 6, Crossing Republik</t>
-  </si>
-  <si>
-    <t>09654085328</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shristi+Medicos/@28.6257287,77.4326593,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30a8badd3f:0x85455e067c541fd6!8m2!3d28.625724!4d77.434848</t>
-  </si>
-  <si>
-    <t>My Chemists</t>
-  </si>
-  <si>
-    <t>Shop No. 8, Mahagun Mascot Mart, Crossing Republik</t>
-  </si>
-  <si>
-    <t>08750603007</t>
-  </si>
-  <si>
-    <t>09:30AM to 10:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/My+Chemists/@28.6293267,77.4386903,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b8fc74017:0x2cd3a0f82de27bdc!8m2!3d28.629322!4d77.440879</t>
-  </si>
-  <si>
-    <t>Jan Aushadhi Store</t>
-  </si>
-  <si>
-    <t>Shop. No. 141, 1st Floor, Panchsheel Square Mall, Crossing Republik</t>
-  </si>
-  <si>
-    <t>09773694859</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Jan+Aushadhi+Store/@28.6310937,77.4323223,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30151f9653:0xb36c94aa0d1e5f1!8m2!3d28.631089!4d77.434511</t>
-  </si>
-  <si>
-    <t>MedMe Pharmacy</t>
-  </si>
-  <si>
-    <t>UGF-28, Ajnara Arcade, Crossing Republik</t>
-  </si>
-  <si>
-    <t>09718884488</t>
-  </si>
-  <si>
-    <t>06:00AM to 11:59PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/MedMe+Pharmacy/@28.6295027,77.4332683,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3080d09775:0xc7647f60b622f133!8m2!3d28.629498!4d77.435457</t>
-  </si>
-  <si>
-    <t>Mac Pharmacy</t>
-  </si>
-  <si>
-    <t>FF-34, Orbit Plaza, Crossing Republik</t>
-  </si>
-  <si>
-    <t>08447739709</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/MAC+PHARMACY/@28.6308857,77.4329273,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee307289a5bb:0xa74c2b544ad68dcf!8m2!3d28.630881!4d77.435116</t>
-  </si>
-  <si>
-    <t>Shivay Medical Store</t>
-  </si>
-  <si>
-    <t>Panchsheel Square, shop no 110, first flor, Mall, Crossings Republik</t>
-  </si>
-  <si>
-    <t>07042153157</t>
-  </si>
-  <si>
-    <t>09:00AM to 11:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shivay+Medical+Store/@28.6309558,77.4321091,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefa2026ab3a7:0xc983afb14bd1448e!8m2!3d28.6309511!4d77.4342978</t>
-  </si>
-  <si>
-    <t>SRL Diagnostics in Noida, Shop no 146, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09958552232</t>
-  </si>
-  <si>
-    <t>08:30AM to 09:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/SRL+Diagnostics:+Pathology+Lab+%7C+Diagnostic+Center+For+Blood+Test/@28.5353045,77.3898243,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce8ba85555525:0xe33f56b39af9eed6!8m2!3d28.5352998!4d77.392013</t>
-  </si>
-  <si>
-    <t>Home Collection, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07:30AM to 09:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+Pathlab+Noida+Home+Collection/@28.5797068,77.4350533,17z/data=!4m5!3m4!1s0x390ce8c6cc1a33eb:0x81a5f63cc5ffefe2!8m2!3d28.5796023!4d77.4370796</t>
-  </si>
-  <si>
-    <t>Techzone 4, Amrapali Leisure Valley, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09971064820</t>
-  </si>
-  <si>
-    <t>07:30AM to 08:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+Path+Labs+Noida+Extension/@28.5865291,77.4356268,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe853c36379:0x24f0693835fbabae!8m2!3d28.5865244!4d77.4378155</t>
-  </si>
-  <si>
-    <t>Amrapali Leisure Valley</t>
-  </si>
-  <si>
-    <t>Shop No.- 11, Galaxy Shoppe Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6195097,77.4236874,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef4591b82e7d:0x39de993fda55995d!8m2!3d28.619505!4d77.4258761</t>
-  </si>
-  <si>
-    <t>07065397983, 085859 51546</t>
-  </si>
-  <si>
-    <t>Shop No.- FF- 117, Gaur City, City Plaza Mall, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07:00AM to 07:30PM</t>
-  </si>
-  <si>
-    <t>01203988505</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6168436,77.4181418,16z/data=!4m8!1m2!2m1!1sDr.+Lal+PathLabs+Shop+No.-+FF-+117,+Gaur+City,!3m4!1s0x390ce8babc160291:0x8b8feab84a3252fc!8m2!3d28.6148904!4d77.4277505</t>
-  </si>
-  <si>
-    <t>Max Lab (A unit of MAX Hospital)</t>
-  </si>
-  <si>
-    <t>FF8, First Floor, Galaxy Plaza, Gaur City 1, Sector 4, L block, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09417186080</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Max+Lab+(A+UNIT+of+MAX+HOSPITAL)+Pathology+Lab%2F+Blood+Tests+in+Gaur+City+(Noida+Extension)/@28.6119635,77.4203418,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11ae6a6f8d:0x858dc63b30d0bbdf!8m2!3d28.6119588!4d77.4225305</t>
-  </si>
-  <si>
-    <t>08010776944</t>
-  </si>
-  <si>
-    <t>City Plaza, FF, Shop No 152, Gaur City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>098994 43272</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.6151437,77.4255742,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef990cd4694f:0xd3317d85782ab8bf!8m2!3d28.615139!4d77.4277629</t>
-  </si>
-  <si>
-    <t>07:00AM to 09:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.5609266,77.4509117,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefcd73e94417:0xbe1d86502f07fd8b!8m2!3d28.5609219!4d77.4531004</t>
-  </si>
-  <si>
-    <t>08:00AM to 08:00PM</t>
-  </si>
-  <si>
-    <t>09350075758</t>
-  </si>
-  <si>
-    <t>FF 105, Tooth Angel Dental Clinic, Ace City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Shop. No. LGF-16, Galaxy Plaza, Gaur City1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07827985965</t>
-  </si>
-  <si>
-    <t>07:00AM to 09:30PM</t>
-  </si>
-  <si>
-    <t>http://www.niramayahealthcare.com/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Nir+Amaya+Path+Labs+NABL+Accredited+Lab/@28.6117447,77.4202203,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb31bb57315:0x5c06bceb189e1b4a!8m2!3d28.61174!4d77.422409</t>
-  </si>
-  <si>
-    <t>09:30AM to 07:45PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/KRISHNA+DIAGNOSTICS,+NOIDA+Extn./@28.6195707,77.4242073,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4a96d3aa93:0x5b732594f1fdb078!8m2!3d28.619566!4d77.426396</t>
-  </si>
-  <si>
-    <t>Shop No. 01, 1st Floor, Galaxy Shoppe Complex,, Gaur City 2, opp. Mahagun Mywoods Mall, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>01204555585</t>
-  </si>
-  <si>
-    <t>09560154423</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.5703749,77.4442792,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef76ec235eaf:0xe4f24fd8fce43553!8m2!3d28.5703702!4d77.4464679</t>
-  </si>
-  <si>
-    <t>https://www.lalpathlabs.com</t>
-  </si>
-  <si>
-    <t>Paramount Emotions, Unit No- FF 15, City Square, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Shop No: FF-02, Paramount Spectrum Market, Crossings Republik</t>
-  </si>
-  <si>
-    <t>09718507535</t>
-  </si>
-  <si>
-    <t>06:30AM to 09:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6120047,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3b9377e15d:0x52dfb0c579b9e6af!8m2!3d28.6287646!4d77.4403618</t>
-  </si>
-  <si>
-    <t>Crossing Relublik</t>
-  </si>
-  <si>
-    <t>Shop No G-36,PSC Panchsheel Square Near Axis Bank, Mall, Sain Vihar, Crossings Republik</t>
-  </si>
-  <si>
-    <t>08750139031</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6309511,77.4167884,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee304005e309:0x368a73290e49c1f!8m2!3d28.6309511!4d77.4342979</t>
-  </si>
-  <si>
-    <t>LGF-008, Galleria -2, Crossing Republik</t>
-  </si>
-  <si>
-    <t>09971780677</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Niramaya+Pathlabs/@28.6121509,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee37485ddd1b:0x538c22321918fb14!8m2!3d28.626068!4d77.434494</t>
-  </si>
-  <si>
-    <t>Shop N0.-UGF-09 Upper Ground Floor, Galleria-II, Sain Vihar, Crossings Republik</t>
-  </si>
-  <si>
-    <t>09643703006</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.612224,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cef9abf23eb7f:0x4c913a6bd4586207!8m2!3d28.6294093!4d77.4329048</t>
-  </si>
-  <si>
-    <t>Shop No. G-44 Panchsheel Square Mall, In Front Of Police Chowki, Crossings Republik</t>
-  </si>
-  <si>
-    <t>09818639390</t>
-  </si>
-  <si>
-    <t>Village Shahberi, Near Crossing Republik, Shahberi</t>
-  </si>
-  <si>
-    <t>09716787066</t>
-  </si>
-  <si>
-    <t>09:00AM to 08:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Life+Care+Pathology+Lab/@28.6125164,77.4050207,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3846d62a93:0xba0766a54e40a3a3!8m2!3d28.623049!4d77.437388</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>SRL Diagnostics Pathology Lab</t>
-  </si>
-  <si>
-    <t>Dr Lal Pathlab Noida Home Collection</t>
-  </si>
-  <si>
-    <t>Dr Lal Path Labs Noida Extension</t>
-  </si>
-  <si>
-    <t>Dr. Lal PathLabs</t>
-  </si>
-  <si>
-    <t>Dr Lal PathLabs</t>
-  </si>
-  <si>
-    <t>Get Well Path Lab</t>
-  </si>
-  <si>
-    <t>Nir Amaya Path Labs NABL Accredited Lab</t>
-  </si>
-  <si>
-    <t>Krishna Diagnostics</t>
-  </si>
-  <si>
-    <t>Niramaya Pathlabs</t>
-  </si>
-  <si>
-    <t>Reliable Health care PathLab</t>
-  </si>
-  <si>
-    <t>Life Care Pathology Lab</t>
-  </si>
-  <si>
-    <t>Dr. Mansha Mishra</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Tooth+Angel+Dental+Clinic/@28.5605362,77.4530277,15z/data=!4m5!3m4!1s0x0:0x297e52768da6add9!8m2!3d28.5605362!4d77.4530277</t>
-  </si>
-  <si>
-    <t>07011687947</t>
-  </si>
-  <si>
-    <t>http://toothangel.in/</t>
-  </si>
-  <si>
-    <t>Tooth Angel Dental Clinic, Shop No-105, Ace Square, Ace City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Dentistry Clinic, BDS, Dental Surgeon , Dentist</t>
-  </si>
-  <si>
-    <t>Dr. Shachindra Narayan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN dental Clinic, Shop No CH 016, GF, Stellar Jeevan Commercial Block, Plot No GH 03, Sec 1, Greater Noida West (Noida Extension) </t>
-  </si>
-  <si>
-    <t>07503471171</t>
-  </si>
-  <si>
-    <t>09:00AM to 08:00PM | Monday Closed</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/SN+dental+Clinic/@28.5660577,77.4473663,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeb8372cbd57:0xaa774043610fc814!8m2!3d28.566053!4d77.449555</t>
-  </si>
-  <si>
-    <t>Dr. Shuchi Sharma</t>
-  </si>
-  <si>
-    <t>Opal Care Clinic, Shop Numbr 24, LGF, Mahagun Mart, Gaur City-2, Landmark: Opposite 11th Avenue Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08130567453</t>
-  </si>
-  <si>
-    <t>10:00 AM to 01:00 PM &amp; 06:00 PM to 09:00 PM (Monday to Saturday) | 10:00 AM - 01:00 PM (Sunday)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr+Shuchi+Sharma.Child+Doctor+in+Gaur+City+2.Child+Specialist+in+Mahagun+Mart,Gaur+City+-2/@28.6185167,77.4240679,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11b2154b7f:0x56f0b50104cf1d81!8m2!3d28.618512!4d77.4262566</t>
-  </si>
-  <si>
-    <t>MBBS, DCH, DNB - Paediatrics, Pediatrician, 9 Years Experience</t>
-  </si>
-  <si>
-    <t>Mahagun Mart, Gaur City</t>
-  </si>
-  <si>
-    <t>City Plaza, Gaur City</t>
-  </si>
-  <si>
-    <t>Galaxy Shoppe, Gaur City</t>
-  </si>
-  <si>
-    <t>Dr. Gaurav Gupta</t>
-  </si>
-  <si>
-    <t>08800737264</t>
-  </si>
-  <si>
-    <t>09:00AM to 12:30PM | Wednesday Closed</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/General+Physician+in+Gaur+City+1+-+Dr.+Gaurav+Gupta/@28.6148027,77.4254575,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceff9e563cc9b:0x705d78b3ed100bfd!8m2!3d28.614798!4d77.4276462</t>
-  </si>
-  <si>
-    <t>Shop No.208, 2nd Floor, City Plaza, Near Char Murti Chowk, Gaur City 1 &amp; 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>General Physician, MD, 9 Years of Experience</t>
-  </si>
-  <si>
-    <t>Dr. K K Gupta</t>
-  </si>
-  <si>
-    <t>MBBS, Diploma in Orthopaedics, DNB - Orthopedics/Orthopedic Surgery, Orthopedist, Joint Replacement Surgeon, Spine Surgeon, 9 Years Experience</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Opal+care+Clinic/@28.6192281,77.4233609,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef84b53701e9:0x29aacb6f8f480832!8m2!3d28.6192234!4d77.4255496</t>
-  </si>
-  <si>
-    <t>3:00 PM to 4:00 PM &amp; 7:00 PM to 9:00 PM (Monday to Saturday) | 10:00 AM to 01:00 PM (Sunday)</t>
-  </si>
-  <si>
-    <t>08527590742</t>
-  </si>
-  <si>
-    <t>Dr. Neetu Singh</t>
-  </si>
-  <si>
-    <t>11:00 AM to 01:30 PM (Monday to Saturday)</t>
-  </si>
-  <si>
-    <t>MBBS, MD - Obstetrics &amp; Gynaecology, Fellowship in Minimal Access Surgery, Gynecologist, Obstetrician, Laparoscopic Surgeon, 16 Years Experience</t>
-  </si>
-  <si>
-    <t>Dr. Avnish Gupta</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Prosthodontist &amp; Oral Implantologist, Implantologist, 12 Years Experience</t>
-  </si>
-  <si>
-    <t>Shop No. 25, Ground Floor, City Plaza, Gaur City -1, Sector 4,  Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09599065099</t>
-  </si>
-  <si>
-    <t>10:00 AM to 01:00 PM (Monday to Saturday) | 05:00 PM to 09:00 PM (Monday to Saturday)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr.+Avnish+Oro+Dental+Clinic+%26+Implant+Centre/@28.6150987,77.4255803,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b85a40d89:0xe17e2ff7c69c384a!8m2!3d28.615094!4d77.427769</t>
-  </si>
-  <si>
-    <t>Dr. Abhijit Kumar</t>
-  </si>
-  <si>
-    <t>08802753906</t>
-  </si>
-  <si>
-    <t>10:00 AM to 12:00 PM (Monday to Saturday)</t>
-  </si>
-  <si>
-    <t>MBBS, DNB, General Medicine, General Physician, 8 Years Experience</t>
-  </si>
-  <si>
-    <t>Dr. Rachninder Kaur</t>
-  </si>
-  <si>
-    <t>BDS, MDS, Dentist, 10 Years Experience</t>
-  </si>
-  <si>
-    <t>Opal Care Clinic, Shop Numbr 24, LGF, Mahagun Mart, Gaur City-2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Raghav Dental Care, Shop No 136, First Floor, City Plaza, Gaur City 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09891275884</t>
-  </si>
-  <si>
-    <t>06:00 PM to 09:00 PM (Tuesday to Friday) | 10:00 AM to 02:00 PM &amp; 05:30 PM to 09:00 PM (Saturday) | 10:00 AM to 06:00 PM (Sunday)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dr.Rachninder+Kaur+(Oral+Medicine+%26+Radiology)+Dentist+at+Raghav+Dental+Care/@28.6149807,77.4254713,17z/data=!4m5!3m4!1s0x390cee4b842fffbf:0xbb7cc251cfd00ba5!8m2!3d28.614976!4d77.42766</t>
-  </si>
-  <si>
-    <t>Dr. Ritika Gulati</t>
-  </si>
-  <si>
-    <t>Smile World, CD 207 (2nd floor), Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09873577568</t>
-  </si>
-  <si>
-    <t>10:00 AM to 01:00PM | 05:00PM to 08:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Smile+World+Multispeciality+Dental+and+Orthodontic+center/@28.566052,77.4476326,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef285137ba4b:0x415fca5db716262!8m2!3d28.5660473!4d77.4498213</t>
-  </si>
-  <si>
-    <t>Dr. Raghavendra Singh</t>
-  </si>
-  <si>
-    <t>BDS, MDS - Orthodontics, Orthodontist, Cosmetic/Aesthetic Dentist, 12 Years Experience</t>
-  </si>
-  <si>
-    <t>09560267996</t>
-  </si>
-  <si>
-    <t>10:00 AM to 2:00 PM &amp; 5:30 PM to 9:00 PM (Tuesday to Saturday) | 10:00 AM to 6:00 PM (Sunday)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Raghav+Dental+Care+and+Orthodontic+centre/@28.6150737,77.4256263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b8596d673:0xc93d105afddc84dd!8m2!3d28.615069!4d77.427815</t>
-  </si>
-  <si>
-    <t>Dr. Vinay Saini</t>
-  </si>
-  <si>
-    <t>MDS - Oral &amp; Maxillofacial Surgery, Dentist, Oral And MaxilloFacial Surgeon, 10 Years Experience</t>
-  </si>
-  <si>
-    <t>09818578608</t>
-  </si>
-  <si>
-    <t>9:00 AM to 1:00 PM &amp; 5:00 PM to 9:00 PM (Monday to Saturday)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/J.D.Dental+Care/@28.6084193,77.4226375,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef6d59a2e92d:0x6cf4e7c3df075fb5!8m2!3d28.6084146!4d77.4248262</t>
-  </si>
-  <si>
-    <t>J.D. Dental Care, LGF-22, Aarza Square-1,7th Avenue, Gaur City 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Aarza Square, Gaur City</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrRitikaGulati.jpeg</t>
-  </si>
-  <si>
-    <t>BDS, MDS Orthodontics, Dentist, 9 Years Experience</t>
-  </si>
-  <si>
-    <t>BDS, Dentist, Dental Surgeon, 7 Years Experience</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrSanjayPohani.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrAliNawaz.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/AVICHAL+HEALTHCARE/@28.6150299,77.4254204,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b846bffb7:0xbcfec233fa98aed1!8m2!3d28.6150252!4d77.4276091</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Rashi+Clinic/@28.6171039,77.4202409,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefdbb0e4332b:0xd3518069a9d6ef!8m2!3d28.6170992!4d77.4224296</t>
-  </si>
-  <si>
-    <t>Rashi Clinic, UGF 45, Mahagun Mart, Opp. Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrDevanshGupta.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrEshaSinghal.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrVashima.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrVipulVerma.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrAmitabhBanka.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrAbhishekSingh.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrVijaySharma.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrKomalPanwar.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrVineshPanwar.jpeg</t>
-  </si>
-  <si>
-    <t>Dr. Shweta Jindal</t>
-  </si>
-  <si>
-    <t>09899683220, 09717163037</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrShwetaJindal.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/16th+Avenue+Apartments/@28.6226597,77.4204089,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef26dda48685:0x7a305a0412d736a4!8m2!3d28.622655!4d77.4225976</t>
-  </si>
-  <si>
-    <t>Family Store</t>
-  </si>
-  <si>
-    <t>LGF 41, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09599975791, 09599975792, 07827439297</t>
-  </si>
-  <si>
-    <t>Mini Mart</t>
-  </si>
-  <si>
-    <t>Shop no.23, City plaza, Gaur city 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.Minimart.com </t>
-  </si>
-  <si>
-    <t>08:00AM to 09:30PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Family+Store/@28.6146087,77.4255353,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b8783e553:0x652d6c4956ab52f6!8m2!3d28.614604!4d77.427724</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mini+Mart/@28.6150307,77.4255613,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b85c7e24d:0x984467dc816981a0!8m2!3d28.615026!4d77.42775</t>
-  </si>
-  <si>
-    <t>One Stop Mart</t>
-  </si>
-  <si>
-    <t>Shop Number 45-50, Lower Ground Floor, Galliria Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Galliria Market, Gaur City</t>
-  </si>
-  <si>
-    <t>08800563608</t>
-  </si>
-  <si>
-    <t>07290016382, 07290016383</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/One+Stop+Mart/@28.619435,77.4210851,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb559f85485:0x6e99725b0e217cc2!8m2!3d28.6194303!4d77.4232738</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_FamilyStore.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MiniMart.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_OneStopMart.jpeg</t>
-  </si>
-  <si>
-    <t>Daily Needs Mart</t>
-  </si>
-  <si>
-    <t>Shop No.25/26, Panchsheel Hynish Market, Plot. no. 8, Sec.1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09911703520</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Daily+Needs+Mart/@28.5795267,77.4348023,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceee8959a5c61:0x6ba0cadac16e743c!8m2!3d28.579522!4d77.436991</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_DailyNeedsMart.jpeg</t>
+    <t>/nxdial-1/img/pharmacy/pharmacy_JeevandharaPharmacyPanchsheelHynish.jpeg</t>
+  </si>
+  <si>
+    <t>Dr. Rajan Jaiswal</t>
+  </si>
+  <si>
+    <t>Shop No 10, Swasthya Rekha Medicos, Arihant Arden, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09821784201, 09911013511</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrRajan_Jaiswal.jpeg</t>
+  </si>
+  <si>
+    <t>MBBS, PAGE, CCEBDM, Gerneral Physician and Diabetologist</t>
+  </si>
+  <si>
+    <t>06:00PM to 07:00PM (On Appointment)</t>
+  </si>
+  <si>
+    <t>Shop No 18-19, Manya Pharmacy, My Fair Residency, Opp La Residency, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Swasthyarekha Medicos Arihant Arden</t>
+  </si>
+  <si>
+    <t>Shop No 10, Arihant Arden, Sector 1,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09999091768, 09999091728</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/pharmacy/pharmacy_SwasthyarekhaMedicosArihantArden.jpeg</t>
+  </si>
+  <si>
+    <t>Dr. Naveen Kumar</t>
+  </si>
+  <si>
+    <t>Sai Sheel Dental Clinic, Shop No 3, First Floor, Arihant Arden, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09871812669, 09968635205</t>
+  </si>
+  <si>
+    <t>06:00PM to 09:00PM (Monday to Friday) | 04:00PM to 09:00PM (Saturday) | 10:00AM to 09:00PM (Sunday)</t>
+  </si>
+  <si>
+    <t>BDS, MHA, Dentist</t>
+  </si>
+  <si>
+    <t>BDS, Dentist</t>
+  </si>
+  <si>
+    <t>Dr. Neha Singh</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrNaveenKumar.jpeg</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/doctor/doctor_DrNehaSingh.jpeg</t>
+  </si>
+  <si>
+    <t>Uttranchal Gallery (Stationary, Gift Items, Cosmetics, Sports Items, Toys)</t>
+  </si>
+  <si>
+    <t>09599109559, 09818217348</t>
+  </si>
+  <si>
+    <t>10:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_UttranchalGallery.jpeg</t>
+  </si>
+  <si>
+    <t>Shop No 18, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics Paramount Emotions</t>
+  </si>
+  <si>
+    <t>Shop No LG-8A, Paramount City Square, Paramount Emotions, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07303312945, 09319450620</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/pathLabs/pathLabs_SRLDiagnosticsParamountEmotions.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Paramount+Emotions/@28.5709524,77.4453752,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceec74d45c4cb:0xea1640acdc1ca1db!8m2!3d28.5709477!4d77.4475639</t>
+  </si>
+  <si>
+    <t>07:30AM to 06:00PM</t>
+  </si>
+  <si>
+    <t>Punjabi Tadka Restaurant (Also takes orders for Kitty Party, Birthday Party, Griha Pravesh, Indoor and Ourdoor Caterings)</t>
+  </si>
+  <si>
+    <t>Shop No 22, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07292079455</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_PunjabiTadkaRestaurant.jpeg</t>
+  </si>
+  <si>
+    <t>Shop No 17, Ground Floor, Stellar Jeevan, Gh 03, Sector 1,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08377819769, 08800411214, 09968820758 (Ext No. 717) </t>
+  </si>
+  <si>
+    <t>Shop No 1, Ground Floor, Arihant Arden, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08586874953, 08586874913, 09968820758</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_ArorasDhabaArihantArden.jpeg</t>
+  </si>
+  <si>
+    <t>Arora's Dhaba Arihant Arden (Veg, Non-Veg, Chinese Food)</t>
+  </si>
+  <si>
+    <t>Arora's Dhaba (Veg, Non-Veg, Chinese Food)</t>
+  </si>
+  <si>
+    <t>Divisha Mart (Grocery)</t>
   </si>
   <si>
     <t>www.nbmshopping.com</t>
   </si>
   <si>
-    <t>Price Smart</t>
-  </si>
-  <si>
-    <t>Shopping Arcade, Cherry County, Ek Murti Chowk, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08860007997</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_PriceSmart.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Price+Smart/@28.6019387,77.4453433,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee607d008025:0x1fcb50d6ab0962ac!8m2!3d28.601934!4d77.447532</t>
-  </si>
-  <si>
-    <t>CH-7-8-9-10, Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08373965488</t>
-  </si>
-  <si>
-    <t>G One Fresh Shopping Mart</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_GOneFreshShoppingMart.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/G+one+Fresh+Shopping+Mart/@28.5661029,77.4498008,17z/data=!4m12!1m6!3m5!1s0x390ceeb832e1e007:0xc8ea1d3ef0523d09!2sG+one+Fresh+Shopping+Mart!8m2!3d28.565992!4d77.449882!3m4!1s0x390ceeb832e1e007:0xc8ea1d3ef0523d09!8m2!3d28.565992!4d77.449882</t>
-  </si>
-  <si>
-    <t>Shop No. GF-34, City Plaza, Gaur City-1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09811617199</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Muskan+Bakery/@28.6151467,77.4255473,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b9050fa35:0x3524a8d4131781be!8m2!3d28.615142!4d77.427736</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MuskanBakery.jpeg</t>
-  </si>
-  <si>
-    <t>MittalsBakery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shop No-12, Mayfare Residency, Near Ryan International, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09152475360</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MittalsBakery.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mittal's+Bakery/@28.5900894,77.4450497,17z/data=!4m12!1m6!3m5!1s0x390ceef2fce9ac79:0x51ab0570bcd5ea34!2sMittal's+Bakery!8m2!3d28.5900312!4d77.4450916!3m4!1s0x390ceef2fce9ac79:0x51ab0570bcd5ea34!8m2!3d28.5900312!4d77.4450916</t>
-  </si>
-  <si>
-    <t>Mayfare Residency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meatwale </t>
-  </si>
-  <si>
-    <t>Shop No-GF-1, Gaur City, Galaxy Plaza, Near Gaur-1 City Main Gate, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07290027318</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/MEATWALA.COM/@28.590165,77.4122186,13z/data=!4m8!1m2!2m1!1smeatwale+gaur+city!3m4!1s0x390cefb310fdfb1f:0xc9c26b643da0bf27!8m2!3d28.6121!4d77.422349</t>
-  </si>
-  <si>
-    <t>10:00AM to 09:00PM | Tuesday Closed</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_Meatwale.jpeg</t>
-  </si>
-  <si>
-    <t>Galaxy Plaza, Gaur City</t>
-  </si>
-  <si>
-    <t>CH -107, 1st Floor, Stellar Jeevan, Sector - 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>www.meatwale.com</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MeatwaleStellarJeevan.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Meatwale+Stellar+Jeevan/@28.5933785,77.3633419,13z/data=!4m8!1m2!2m1!1sMeatwale+Stellar+Jeevan!3m4!1s0x0:0x575871fa77ccca23!8m2!3d28.6205513!4d77.3467326</t>
-  </si>
-  <si>
-    <t>10:30AM to 12:30PM | 05:30PM to 08:30PM | Prior Appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derma× Clinic, C 4020, 16th Avenue, Gaur City 2, Greater Noida West (Noida Extension) </t>
-  </si>
-  <si>
-    <t>MD (AM), MHA, PGDCAM, CSD, D. Tricho (UK), Dermo-Cosmetologist &amp; Skin Expert, Certified in Aesthetic Dermatology &amp; Laser treatments</t>
-  </si>
-  <si>
-    <t>Shri Sai Collection and Footwear</t>
-  </si>
-  <si>
-    <t>CH-106, First floor, Commercial Block, GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09205602113</t>
-  </si>
-  <si>
-    <t>10:00AM to 09:00PM</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/shopping/shopping_ShriSaiCollectionAndFootwear.jpeg</t>
-  </si>
-  <si>
-    <t>Meatwale Stellar Jeevan (Fresh Raw Chicken, Mutton and Fish)</t>
-  </si>
-  <si>
-    <t>Muskan Bakery (Cakes, Cookies, Pastries, Chocolates)</t>
-  </si>
-  <si>
-    <t>CH 005, Ground Floor, Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>Muskan Bakery Stellar Jeevan(Cakes, Cookies, Pastries, Chocolates, Birthday Decoration Items)</t>
-  </si>
-  <si>
-    <t>08860656724, 09811666377</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_MuskanBakeryStellarJeevan.jpeg</t>
-  </si>
-  <si>
-    <t>LGF 06-07-08, Bhavisha India Tower, Opposite 10th Avenue, Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07303625599</t>
-  </si>
-  <si>
-    <t>www.poppinskids.com</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/shopping/shopping_PoppinsKids.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bhavishya+india+tower/@28.6167829,77.4256309,14z/data=!4m8!1m2!2m1!1sBhavisha+India+Tower!3m4!1s0x0:0x2acd25f307edf016!8m2!3d28.6178484!4d77.4278104</t>
-  </si>
-  <si>
-    <t>Poppins Kids (Jeans, T-Shirts, Shorts, Rompers, Ethnic Wear, Tops, Tees, Frocks and Many More)</t>
-  </si>
-  <si>
-    <t>Ncr Wheels Apna Garage</t>
-  </si>
-  <si>
-    <t>Near Gaur Saundaryam</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/thumbnail/playSchoolsThumbnail.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/playSchools/playSchools_RisingToddler.jpeg</t>
-  </si>
-  <si>
-    <t>T 1, UG 05, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09:00AM to 07:00PM</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Panchsheel+Hynish,+Panchsheel+Buildtech+Pvt.+Ltd.,+Sector+1,+Bisrakh,+Greater+Noida,+Uttar+Pradesh+203207/@28.5789149,77.4360283,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceee88d2c5851:0x66c594feda72b9c1!8m2!3d28.5789102!4d77.438217</t>
-  </si>
-  <si>
-    <t>Rising Toddler (Play School &amp; Day Care)</t>
-  </si>
-  <si>
-    <t>09971525315</t>
-  </si>
-  <si>
-    <t>Maple Bear Canadian Pre School</t>
-  </si>
-  <si>
-    <t>Plot No. 775, JS Road, Behind Stellar Jeevan GH 03, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07217820317</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/playSchools/playSchools_MapleBearCanadianPreSchool.jpg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Maple+Bear+Canadian+Pre-school,+Sector+1,+Noida+Extension/@28.5638165,77.4437793,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceec812f3934d:0x7102b080d0fc86c1!8m2!3d28.5638118!4d77.445968</t>
-  </si>
-  <si>
-    <t>Behind Stellar Jeevan</t>
-  </si>
-  <si>
-    <t>Sanfort Play School</t>
-  </si>
-  <si>
-    <t>Plot No. 780, Behind Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07042038602</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sanfort+Play+School+Noida+Extension/@28.5641371,77.4458509,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceff351d20af9:0x81d71e574adb1273!8m2!3d28.5641324!4d77.4480396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yatharth Super Speciality Hospital </t>
-  </si>
-  <si>
-    <t>HO-01, Sector 1, Noida, Uttar Pradesh 201306</t>
-  </si>
-  <si>
-    <t>08800797909</t>
-  </si>
-  <si>
-    <t>09643958619</t>
-  </si>
-  <si>
-    <t>08130470340</t>
-  </si>
-  <si>
-    <t>01202845880</t>
-  </si>
-  <si>
-    <t>08800254055</t>
-  </si>
-  <si>
-    <t>09650927711</t>
-  </si>
-  <si>
-    <t>09540097282, 09650830011, 09540097282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09910554446 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09528865376 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09899623485 </t>
-  </si>
-  <si>
-    <t>Dr. Dharamveer Saini</t>
-  </si>
-  <si>
-    <t>Nilmani Physiotherapy and Occupational Therapy Clinic, CH 404, GH 03, Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08700447937</t>
-  </si>
-  <si>
-    <t>09:00AM to 10:45AM (Mon to Sat) | 07:00PM to 09:00PM (Daily)</t>
-  </si>
-  <si>
-    <t>11:15AM to 01:00PM | 04:30PM to 06:30PM | 12:00AM to 02:00PM (Sunday)</t>
-  </si>
-  <si>
-    <t>10:00AM to 09:00 PM (Mon to Sat) | 02:00PM to 09:00PM (Sunday)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Nilmani+Occupational+And+Physiotherapy+Clinic/@28.566308,77.4470321,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef1d18374011:0xf67faf3cad3ccc72!8m2!3d28.5663033!4d77.4492208</t>
-  </si>
-  <si>
-    <t>Physiotherapy and Occupational Therapy Clinic</t>
-  </si>
-  <si>
-    <t>Bisrakh, Sector  1, Near SBI Bank and Shiv Mandir, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09810305886, 07871732385, 09718502049</t>
-  </si>
-  <si>
-    <t>Angel Taxi Service</t>
-  </si>
-  <si>
-    <t>24 Hours Service</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/taxiService/taxiService_AngelTaxiService.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Angel+Taxi+Service/@28.5688626,77.434872,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef642b06726b:0x22dfb804d37870b0!8m2!3d28.5688579!4d77.4370607</t>
-  </si>
-  <si>
-    <t>Near Bisrakh Post Office</t>
-  </si>
-  <si>
-    <t>Radhe Radhe Taxi Service</t>
-  </si>
-  <si>
-    <t>J 806, ACE City, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09555771116, 09540871116, 06395120912</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ace+City+Noida+Extension/@28.5626897,77.4494361,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeb6ea3145c7:0x74fddcde6d2b2cd5!8m2!3d28.562685!4d77.4516248</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/taxiService/taxiService_RadheRadheTaxiService.jpeg</t>
-  </si>
-  <si>
-    <t>R 807, GH 03, Sector 1, Stellar Jeevan, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>08826688841</t>
-  </si>
-  <si>
-    <t>10:00AM to 08:00PM</t>
-  </si>
-  <si>
-    <t>RS Fabrics (Ladies Wear, Kids Wear, Home Decor items like Bedsheet etc)</t>
-  </si>
-  <si>
-    <t>B 109, 5th Avenue, Gaur City 1, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>01204297390, 09315595290 , (Intercom No. 7107 - for local residents)</t>
-  </si>
-  <si>
-    <t>08860748484, , (Intercom No. 150109 - for local residents)</t>
-  </si>
-  <si>
-    <t>10:00AM to 07:00PM</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/personalCare/personalCare_FlawlessBeautyStudio.jpeg</t>
-  </si>
-  <si>
-    <t>Flawless Beauty Studio (Only for Ladies and Kids)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/5th+Avenue+Gaur+City,+5th+Avenue,+Gaur+City+1+Road,+Gaur+City+1,+Sector+4,+Greater+Noida,+Uttar+Pradesh+201009/@28.6141753,77.4255252,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4e40b58b59:0x4d94aa5645aca9bf!8m2!3d28.6141753!4d77.4277139</t>
-  </si>
-  <si>
-    <t>Desi Chatkara</t>
-  </si>
-  <si>
-    <t>Dharma Plaza, Sector 1, Bisrakh, Behind Paramount Emotions, Near Stellar Jeevan, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>07838986680, 08448812655</t>
-  </si>
-  <si>
-    <t>11:00AM to 10:00PM</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/restaurant/restaurant_DesiChatkara.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Desi+Chatkara/@28.567779,77.4433927,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceec70bf15181:0xa3ae33567e2b2b0b!8m2!3d28.5677743!4d77.4455814</t>
-  </si>
-  <si>
-    <t>Behind Paramount Emotions</t>
-  </si>
-  <si>
-    <t>Vaishnavi Tour and Travels</t>
-  </si>
-  <si>
-    <t>09958053993, 08512035134</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Taj+Highway,+Gaur+City+2,+Ghaziabad,+Uttar+Pradesh+201009/@28.6161381,77.4169398,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefd003fc6209:0x42d923c3ffb2b45c!8m2!3d28.6161334!4d77.4191285</t>
-  </si>
-  <si>
-    <t>New Gaur City</t>
-  </si>
-  <si>
-    <t>Rohan Travels</t>
-  </si>
-  <si>
-    <t>Shop No 2, Jeevan Lok Enclave, Opp. Gaur City 1, Near Crossing Republik, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09350604150, 08588887373, 08506887373</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gaur+City+1,+Ghaziabad,+Uttar+Pradesh+201009/@28.6108506,77.4176167,15z/data=!3m1!4b1!4m5!3m4!1s0x390cee4d100dab27:0xf26c6a2090a8199a!8m2!3d28.6107386!4d77.4250145</t>
-  </si>
-  <si>
-    <t>Deshraj Automobiles</t>
-  </si>
-  <si>
-    <t>Taj Highway, Dudheshwar Enclave, Chipyana Khurd, New Gaur City 2,  Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09810671285, 09718119834, 09540046467</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gaur+City+2,+Ghaziabad,+Uttar+Pradesh+201009/@28.6192091,77.4165527,15z/data=!3m1!4b1!4m5!3m4!1s0x390cee4abb9de49b:0x287a032bd7ff51f1!8m2!3d28.6186956!4d77.4257319</t>
-  </si>
-  <si>
-    <t>Near Gaur City</t>
-  </si>
-  <si>
-    <t>Mohan Travels Solution</t>
-  </si>
-  <si>
-    <t>01206955555, 09990002241, 9999760941</t>
-  </si>
-  <si>
-    <t>Shop No 16, First Floor, Shaberi Pulia Market, Opposite Jaipura Apartment, Crossing Republik</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mohan+Travels+Solution/@28.6225057,77.4353753,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee386a2a976f:0x80c2030a35372587!8m2!3d28.622501!4d77.437564</t>
-  </si>
-  <si>
-    <t>Bhawna Tour and Travels</t>
-  </si>
-  <si>
-    <t>Near CNG Pump, Gol Chakkar, Crossing Republik</t>
-  </si>
-  <si>
-    <t>09810417300, 08800524300</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bhawna+Tour+%26+Travels/@28.629414,77.4307161,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefc02db6190b:0x7493389d3cb98c4b!8m2!3d28.6294093!4d77.4329048</t>
-  </si>
-  <si>
-    <t>Taj Highway Road, Near Gaur City 2, Haibatpur, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>opposite Gaur City</t>
-  </si>
-  <si>
-    <t>New Look Hair Beauty Clinic (For Ladies and Kids)</t>
-  </si>
-  <si>
-    <t>D1, 102, Supertech Eco Village 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09718473715, 0836819743</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/personalCare/personalCare_NewLookHairBeautyClinic.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Supertech+Ecovillage+II/@28.6106412,77.4410362,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce8ba9a610f87:0x4ff67ae7d59da086!8m2!3d28.6106365!4d77.4432249</t>
-  </si>
-  <si>
-    <t>Eco Village 2</t>
-  </si>
-  <si>
-    <t>Bharat Travels</t>
-  </si>
-  <si>
-    <t>Galleria Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>09582803590, 09953112930</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Galleria+Market/@28.6193196,77.4216635,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe23c9e68f7:0xddc15b823e10e092!8m2!3d28.6193149!4d77.4238522</t>
-  </si>
-  <si>
-    <t>Galleria Market, Gaur City</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/taxiService/taxiService_BharatTravels.jpeg</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/taxiService/taxiService_BhawnaTourandTravels.jpeg</t>
-  </si>
-  <si>
-    <t>Girish Taxi Club</t>
-  </si>
-  <si>
-    <t>09990051167, 09355154141</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/taxiService/taxiService_GirishTaxiClub.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Galleria+Market/@28.6193196,77.4216635,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe23c9e68f7:0xddc15b823e10e092!8m2!3d28.6193149!4d77.4238523</t>
-  </si>
-  <si>
-    <t>Dr. Renu Singh</t>
-  </si>
-  <si>
-    <t>08826138787</t>
-  </si>
-  <si>
-    <t>10:00AM to 01:00PM | 05:00PM to 07:30PM | Saturday Closed</t>
-  </si>
-  <si>
-    <t>Aarogya Homoeopathic Clinic, Shop No. 3, Ch. Nathey Singh Market, Sector 1, Near Hawelia Valencia, Bisrakh Thana Road, Greater Noida West (Noida Extension)</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Aarogya+Homoeopathic+Clinic/@28.5743537,77.4404953,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef2a77b685fb:0xbaa3a2fc7e789d56!8m2!3d28.574349!4d77.442684</t>
-  </si>
-  <si>
-    <t>BHMS, MD, Specialist in: Gynaecological Problems, Skin Disease, Joint Pain, Alopecia, Chronic Constipation, Dipression, Kidney &amp; Gallbladder Stones, Asthma, Migraine, Children Disease.</t>
-  </si>
-  <si>
-    <t>Near Hawelia Valencia</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/doctor/doctor_DrRenuSingh.jpeg</t>
-  </si>
-  <si>
-    <t>Step Up School</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Step+Up+School/@28.6333923,77.4497624,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee1743c5c715:0xe20057157a9245cb!8m2!3d28.6333876!4d77.4519511</t>
-  </si>
-  <si>
-    <t>Campus 4, 19th KM. Stone, NH24, Near Crossing Republik</t>
-  </si>
-  <si>
-    <t>www.stepupschool.in</t>
-  </si>
-  <si>
-    <t>/nxdial-1/img/school/school_StepUpSchool.jpeg</t>
-  </si>
-  <si>
-    <t>Techzone 4</t>
-  </si>
-  <si>
-    <t>www.sarvottamnoida.com</t>
-  </si>
-  <si>
-    <t>www.ryaninternational.org/site/risnoidaextn</t>
-  </si>
-  <si>
-    <t>www.dwpsnoidaex.com</t>
-  </si>
-  <si>
-    <t>www.asterinstitutions.com/greater-noida/</t>
-  </si>
-  <si>
-    <t>www.gaursinternationalschool.com</t>
-  </si>
-  <si>
-    <t>www.bloominternationalschool.com</t>
-  </si>
-  <si>
-    <t>www.stjohnsschools.org/home.aspx</t>
-  </si>
-  <si>
-    <t>www.sksworldschool.com</t>
-  </si>
-  <si>
-    <t>www.indirapuramschoolcr.com</t>
-  </si>
-  <si>
-    <t>09711060916, 09711060917, 08448583380, 08448583381, info@stepupschool.in</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sks+World+School/@28.6120471,77.4511275,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef5c5fafd265:0xbb5f2926c0de47fc!8m2!3d28.6120424!4d77.4533162</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/St.+John's+Senior+Secondary+School/@28.5810833,77.4415575,17z/data=!3m1!4b1!4m5!3m4!1s0x390cea709a5e4597:0xbd15c243b25ea436!8m2!3d28.5810786!4d77.4437462</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bloom+International+School/@28.594853,77.4654456,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee817035d41f:0xd2e605c9b999db42!8m2!3d28.5948483!4d77.4676343</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gaurs+International+School/@28.6215897,77.4224112,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefcacd18395d:0xcda3f2b8ac550f1!8m2!3d28.621585!4d77.4245999</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Aster+Public+School/@28.5736728,77.4508775,16z/data=!4m5!3m4!1s0x390ceec454f3d13d:0x2ee306c6d07482e0!8m2!3d28.5772107!4d77.4593747</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/DELHI+WORLD+PUBLIC+SCHOOL+NOIDA+EXTENSION/@28.5507753,77.4576452,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce95268c82d83:0x74a12ebace97d392!8m2!3d28.5507706!4d77.4598339</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ryan+International+School/@28.5947953,77.4419187,17z/data=!4m5!3m4!1s0x390cee93057563eb:0xc7d8c54362a92ff0!8m2!3d28.595516!4d77.444322</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sarvottam+International+School/@28.5885963,77.4443885,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee8d69d79f23:0xa3d01cc4a2f88138!8m2!3d28.5885916!4d77.4465772</t>
-  </si>
-  <si>
-    <t>Knowledge Park 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaur City- 2, Plot No-GH 03, Sector-16C, G-Noida (West), India </t>
-  </si>
-  <si>
-    <t>08:00AM to 05:00PM | Sunday Closed</t>
+    <t>Shop No 7, Arihant Arden, Sector 1,  Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204333520, 09811706452, 09968343520</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_DivishaMart.jpeg</t>
+  </si>
+  <si>
+    <t>Chill Bite</t>
+  </si>
+  <si>
+    <t>Shop No 6, First Floor, Arihant Arden, Sector 1, , Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08527790904, 07379437502</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_ChillBite.jpeg</t>
+  </si>
+  <si>
+    <t>Prachi Departmental Store (The Grocery Store)</t>
+  </si>
+  <si>
+    <t>Shop No CH11-12, Stellar Jeevan, GH03, Sctor 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204531745, (Intercom No. 711 - for local residents)</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_PrachiDepartmentalStore.jpeg</t>
+  </si>
+  <si>
+    <t>Kashvi Beauty Care (Only for Ladies)</t>
+  </si>
+  <si>
+    <t>Shop No 2, First Floor, Arihant Arden, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09560979608, 07011988531</t>
+  </si>
+  <si>
+    <t>10:30AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_KashviBeautyCare.jpeg</t>
+  </si>
+  <si>
+    <t>Shop No 4, First Floor, Arihant Arden, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09560845964, 09560981621</t>
+  </si>
+  <si>
+    <t>10:00AM to 08:30PM</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_V3UnisexSaloon.jpeg</t>
+  </si>
+  <si>
+    <t>Shop No 2, Basement, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>10:30AM to 08:30PM</t>
+  </si>
+  <si>
+    <t>09717755115, 09953888360</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_GlamourBeautyParlour.jpeg</t>
+  </si>
+  <si>
+    <t>Glamour Beauty Parlour</t>
+  </si>
+  <si>
+    <t>Lavish Hair Studio (Unisex Salon)</t>
+  </si>
+  <si>
+    <t>V3 Unisex Salon</t>
+  </si>
+  <si>
+    <t>Shop No 28-29, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08447414690, 09654908854</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_LavishHairStudio.jpeg</t>
+  </si>
+  <si>
+    <t>Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08745040564</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/personalCare/personalCare_KKLooksUnisexSalon.jpeg</t>
+  </si>
+  <si>
+    <t>K K Looks Unisex Salon</t>
+  </si>
+  <si>
+    <t>09643287905, 08860255715</t>
   </si>
 </sst>
 </file>
@@ -2880,7 +3156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2944,6 +3220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3320,7 +3600,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -3358,19 +3638,19 @@
         <v>21</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="I2" t="s">
         <v>151</v>
@@ -3393,25 +3673,25 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>270</v>
@@ -3428,22 +3708,22 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>137</v>
@@ -3561,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B262F6-3615-4EEE-B3B0-4C0BE8A1198A}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3589,7 +3869,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -3665,10 +3945,10 @@
         <v>387</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>391</v>
+        <v>937</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>393</v>
+        <v>938</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -3677,10 +3957,10 @@
         <v>389</v>
       </c>
       <c r="I3" t="s">
-        <v>382</v>
+        <v>939</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>374</v>
@@ -3700,25 +3980,25 @@
         <v>390</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>394</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I4" t="s">
         <v>382</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3735,22 +4015,22 @@
         <v>390</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>397</v>
+        <v>935</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>398</v>
+        <v>936</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="I5" t="s">
         <v>382</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>325</v>
@@ -3767,28 +4047,28 @@
         <v>380</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>404</v>
+        <v>1022</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I6" t="s">
         <v>382</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3802,28 +4082,28 @@
         <v>380</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I7" t="s">
         <v>382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3837,28 +4117,28 @@
         <v>380</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I8" t="s">
         <v>382</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3875,25 +4155,25 @@
         <v>387</v>
       </c>
       <c r="E9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I9" t="s">
         <v>382</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3910,25 +4190,25 @@
         <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I10" t="s">
         <v>382</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3945,25 +4225,25 @@
         <v>390</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I11" t="s">
         <v>382</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3980,25 +4260,25 @@
         <v>390</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I12" t="s">
         <v>382</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -4012,13 +4292,13 @@
         <v>380</v>
       </c>
       <c r="D13" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>27</v>
@@ -4030,10 +4310,10 @@
         <v>382</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -4047,13 +4327,13 @@
         <v>380</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
@@ -4065,10 +4345,10 @@
         <v>382</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -4082,25 +4362,25 @@
         <v>380</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I15" t="s">
         <v>382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>270</v>
@@ -4117,25 +4397,25 @@
         <v>380</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I16" t="s">
         <v>382</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>270</v>
@@ -4152,22 +4432,22 @@
         <v>380</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I17" t="s">
         <v>382</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>270</v>
@@ -4184,13 +4464,13 @@
         <v>380</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
@@ -4202,7 +4482,7 @@
         <v>382</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>270</v>
@@ -4219,25 +4499,25 @@
         <v>380</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I19" t="s">
         <v>382</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>270</v>
@@ -4254,25 +4534,25 @@
         <v>380</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I20" t="s">
         <v>382</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>270</v>
@@ -4289,25 +4569,25 @@
         <v>380</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I21" t="s">
         <v>382</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>270</v>
@@ -4324,25 +4604,25 @@
         <v>380</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E22" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I22" t="s">
         <v>382</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>270</v>
@@ -4362,10 +4642,10 @@
         <v>390</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>27</v>
@@ -4377,7 +4657,7 @@
         <v>382</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>270</v>
@@ -4394,25 +4674,25 @@
         <v>380</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I24" t="s">
         <v>382</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>270</v>
@@ -4429,25 +4709,25 @@
         <v>380</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I25" t="s">
         <v>382</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>270</v>
@@ -4464,25 +4744,25 @@
         <v>380</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E26" t="s">
         <v>491</v>
       </c>
-      <c r="E26" t="s">
-        <v>496</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I26" t="s">
         <v>382</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>341</v>
@@ -4499,25 +4779,25 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I27" t="s">
         <v>382</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>341</v>
@@ -4534,13 +4814,13 @@
         <v>380</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="F28" s="12" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>27</v>
@@ -4552,7 +4832,7 @@
         <v>382</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>341</v>
@@ -4569,25 +4849,25 @@
         <v>380</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E29" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I29" t="s">
         <v>382</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>341</v>
@@ -4604,25 +4884,25 @@
         <v>380</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E30" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I30" t="s">
         <v>382</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>341</v>
@@ -4639,25 +4919,25 @@
         <v>380</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>516</v>
-      </c>
       <c r="G31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I31" t="s">
         <v>382</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>341</v>
@@ -4674,25 +4954,25 @@
         <v>380</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E32" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I32" t="s">
         <v>382</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>341</v>
@@ -4709,25 +4989,25 @@
         <v>380</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I33" t="s">
         <v>382</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>341</v>
@@ -4744,25 +5024,25 @@
         <v>380</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E34" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I34" t="s">
         <v>382</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>341</v>
@@ -4779,25 +5059,25 @@
         <v>380</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I35" t="s">
         <v>382</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>341</v>
@@ -4814,25 +5094,25 @@
         <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E36" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I36" t="s">
         <v>382</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>341</v>
@@ -4849,25 +5129,25 @@
         <v>380</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I37" t="s">
         <v>382</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>341</v>
@@ -4884,28 +5164,98 @@
         <v>380</v>
       </c>
       <c r="D38" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E38" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I38" t="s">
         <v>382</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I39" t="s">
+        <v>943</v>
+      </c>
+      <c r="J39" t="s">
+        <v>913</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="I40" t="s">
+        <v>954</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4918,8 +5268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7299E0-EDDE-4C29-B4A5-17E466E21EB2}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4944,7 +5294,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -4982,25 +5332,25 @@
         <v>23</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>270</v>
@@ -5017,28 +5367,28 @@
         <v>23</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -5052,28 +5402,28 @@
         <v>23</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5087,25 +5437,25 @@
         <v>23</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>270</v>
@@ -5122,25 +5472,25 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>270</v>
@@ -5157,25 +5507,25 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>270</v>
@@ -5192,25 +5542,25 @@
         <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>270</v>
@@ -5227,28 +5577,28 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5262,25 +5612,25 @@
         <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>270</v>
@@ -5297,25 +5647,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>270</v>
@@ -5332,25 +5682,25 @@
         <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>340</v>
@@ -5367,28 +5717,28 @@
         <v>23</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E13" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5402,28 +5752,28 @@
         <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E14" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5437,25 +5787,25 @@
         <v>23</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E15" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G15" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -5469,25 +5819,25 @@
         <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E16" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -5501,19 +5851,19 @@
         <v>23</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E17" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>147</v>
@@ -5522,7 +5872,7 @@
         <v>147</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -5536,32 +5886,64 @@
         <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E18" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="E19" t="s">
+        <v>970</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="J19" t="s">
+        <v>973</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
@@ -5583,10 +5965,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED1DB0C-0CF3-43D6-9188-8D0D89B0D236}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5596,7 +5978,7 @@
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
     <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.54296875" bestFit="1" customWidth="1"/>
@@ -5612,7 +5994,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -5650,28 +6032,28 @@
         <v>25</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>712</v>
+        <v>918</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>719</v>
+        <v>332</v>
       </c>
       <c r="K2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -5685,28 +6067,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>715</v>
+        <v>919</v>
       </c>
       <c r="E3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>728</v>
-      </c>
       <c r="J3" t="s">
-        <v>720</v>
+        <v>332</v>
       </c>
       <c r="K3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -5720,13 +6102,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>721</v>
+        <v>920</v>
       </c>
       <c r="E4" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5735,13 +6117,13 @@
         <v>389</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="J4" t="s">
-        <v>726</v>
+        <v>866</v>
       </c>
       <c r="K4" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5755,28 +6137,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>730</v>
+        <v>931</v>
       </c>
       <c r="E5" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>732</v>
+        <v>932</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>735</v>
+        <v>27</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>395</v>
+        <v>933</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="J5" t="s">
-        <v>733</v>
+        <v>913</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5790,28 +6172,28 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>736</v>
+        <v>921</v>
       </c>
       <c r="E6" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="J6" t="s">
-        <v>740</v>
+        <v>332</v>
       </c>
       <c r="K6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5825,25 +6207,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>743</v>
+        <v>922</v>
       </c>
       <c r="E7" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="J7" t="s">
-        <v>745</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
         <v>273</v>
@@ -5860,13 +6242,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E8" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>27</v>
@@ -5875,13 +6257,13 @@
         <v>388</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="J8" t="s">
-        <v>748</v>
+        <v>332</v>
       </c>
       <c r="K8" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5895,13 +6277,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>750</v>
+        <v>923</v>
       </c>
       <c r="E9" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>27</v>
@@ -5910,13 +6292,13 @@
         <v>388</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="J9" t="s">
-        <v>754</v>
+        <v>934</v>
       </c>
       <c r="K9" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5930,28 +6312,28 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="E10" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="J10" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="K10" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5965,25 +6347,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E11" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="J11" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="K11" t="s">
         <v>273</v>
@@ -6000,13 +6382,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="E12" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>27</v>
@@ -6015,12 +6397,222 @@
         <v>388</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="J12" t="s">
         <v>137</v>
       </c>
       <c r="K12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>924</v>
+      </c>
+      <c r="E13" t="s">
+        <v>909</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="J13" t="s">
+        <v>913</v>
+      </c>
+      <c r="K13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>925</v>
+      </c>
+      <c r="E14" t="s">
+        <v>914</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" t="s">
+        <v>927</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="J15" t="s">
+        <v>913</v>
+      </c>
+      <c r="K15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>964</v>
+      </c>
+      <c r="E16" t="s">
+        <v>968</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="J16" t="s">
+        <v>913</v>
+      </c>
+      <c r="K16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>986</v>
+      </c>
+      <c r="E17" t="s">
+        <v>988</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>995</v>
+      </c>
+      <c r="E18" t="s">
+        <v>996</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="J18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6061,7 +6653,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -6099,28 +6691,28 @@
         <v>24</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="K2" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -6134,28 +6726,28 @@
         <v>24</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -6169,28 +6761,28 @@
         <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -6204,28 +6796,28 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="E5" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="J5" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="K5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -6239,28 +6831,28 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="E6" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I6" t="s">
         <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="K6" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -6274,28 +6866,28 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="E7" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I7" t="s">
         <v>148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="K7" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -6309,25 +6901,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="E8" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="K8" t="s">
         <v>341</v>
@@ -6344,25 +6936,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="E9" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="I9" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="K9" t="s">
         <v>341</v>
@@ -6382,7 +6974,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6408,7 +7000,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -6446,25 +7038,25 @@
         <v>17</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="K2" t="s">
         <v>270</v>
@@ -6481,44 +7073,204 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="E3" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="J3" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="K3" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F4" s="19"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F5" s="19"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F6" s="19"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J6" t="s">
+        <v>913</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F7" s="19"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J7" t="s">
+        <v>913</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F8" s="19"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J8" t="s">
+        <v>913</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>402</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6728,7 +7480,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6830,7 +7582,7 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="C9" t="s">
         <v>377</v>
@@ -6910,10 +7662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6937,7 +7689,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>68</v>
@@ -6968,20 +7720,20 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>371</v>
+        <v>985</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>372</v>
+        <v>979</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>980</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>27</v>
@@ -6989,18 +7741,18 @@
       <c r="H2" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>376</v>
+      <c r="I2" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -7009,28 +7761,30 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>318</v>
+      <c r="D3" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -7043,29 +7797,27 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -7078,28 +7830,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>849</v>
+        <v>321</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>850</v>
+        <v>322</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>851</v>
+        <v>323</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>852</v>
+      <c r="H5" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>854</v>
+        <v>326</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>855</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -7113,28 +7865,28 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>827</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>195</v>
+        <v>828</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>365</v>
+      <c r="H6" s="16" t="s">
+        <v>830</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>104</v>
+        <v>831</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>832</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>270</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -7148,28 +7900,28 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>975</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>976</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>196</v>
+        <v>977</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="16" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>105</v>
+        <v>978</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>913</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -7182,29 +7934,29 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
+      <c r="D8" s="16" t="s">
+        <v>984</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>212</v>
+        <v>981</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>982</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>366</v>
+      <c r="H8" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>106</v>
+        <v>983</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -7217,61 +7969,61 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
+      <c r="D9" s="16" t="s">
+        <v>991</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>213</v>
+        <v>992</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>993</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>107</v>
+        <v>994</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>368</v>
+      <c r="B10" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>365</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>270</v>
@@ -7281,32 +8033,32 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>368</v>
+      <c r="B11" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>270</v>
@@ -7316,70 +8068,70 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>368</v>
+      <c r="B12" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>368</v>
+      <c r="B13" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -7387,34 +8139,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -7422,34 +8174,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -7457,31 +8209,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>270</v>
@@ -7492,34 +8244,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -7533,28 +8285,28 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -7568,28 +8320,28 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -7603,25 +8355,25 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>270</v>
@@ -7638,28 +8390,28 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>206</v>
+        <v>163</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -7673,25 +8425,25 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>270</v>
@@ -7708,25 +8460,25 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>270</v>
@@ -7743,43 +8495,183 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
-    <hyperlink ref="J9" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
-    <hyperlink ref="J13" r:id="rId4" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
-    <hyperlink ref="J14" r:id="rId5" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
-    <hyperlink ref="J15" r:id="rId6" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
-    <hyperlink ref="J16" r:id="rId7" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
-    <hyperlink ref="J17" r:id="rId8" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
-    <hyperlink ref="J18" r:id="rId9" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
-    <hyperlink ref="J10" r:id="rId11" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
+    <hyperlink ref="J11" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
+    <hyperlink ref="J12" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
+    <hyperlink ref="J13" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
+    <hyperlink ref="J18" r:id="rId5" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
+    <hyperlink ref="J20" r:id="rId7" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
+    <hyperlink ref="J21" r:id="rId8" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
+    <hyperlink ref="J22" r:id="rId9" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
+    <hyperlink ref="J16" r:id="rId10" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -7816,7 +8708,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>68</v>
@@ -7848,13 +8740,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -7874,7 +8766,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>27</v>
@@ -7909,7 +8801,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>27</v>
@@ -7979,7 +8871,7 @@
         <v>102</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>27</v>
@@ -8014,7 +8906,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>27</v>
@@ -8049,7 +8941,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>27</v>
@@ -8154,7 +9046,7 @@
         <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>27</v>
@@ -8224,7 +9116,7 @@
         <v>62</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>27</v>
@@ -8259,7 +9151,7 @@
         <v>64</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>27</v>
@@ -8294,7 +9186,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>27</v>
@@ -8349,8 +9241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B005557-25B7-4487-BE06-E764B2181BB1}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8371,7 +9263,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>68</v>
@@ -8418,7 +9310,7 @@
         <v>99</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -8427,10 +9319,10 @@
         <v>175</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="K2" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -8453,7 +9345,7 @@
         <v>93</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>27</v>
@@ -8462,10 +9354,10 @@
         <v>176</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="K3" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -8488,7 +9380,7 @@
         <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>27</v>
@@ -8497,10 +9389,10 @@
         <v>177</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="K4" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -8523,7 +9415,7 @@
         <v>8010109090</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>27</v>
@@ -8532,7 +9424,7 @@
         <v>178</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -8549,13 +9441,13 @@
         <v>82</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>27</v>
@@ -8564,7 +9456,7 @@
         <v>179</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>270</v>
@@ -8590,7 +9482,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>27</v>
@@ -8599,7 +9491,7 @@
         <v>180</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -8622,7 +9514,7 @@
         <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>27</v>
@@ -8631,7 +9523,7 @@
         <v>181</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -8654,7 +9546,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>27</v>
@@ -8663,7 +9555,7 @@
         <v>182</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -8686,7 +9578,7 @@
         <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>27</v>
@@ -8712,25 +9604,25 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="E11" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="J11" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="K11" t="s">
         <v>272</v>
@@ -8779,11 +9671,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8806,7 +9696,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -8847,28 +9737,28 @@
         <v>14</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>273</v>
@@ -8923,31 +9813,31 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8985,7 +9875,7 @@
         <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -9014,7 +9904,7 @@
         <v>329</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>332</v>
@@ -9023,7 +9913,7 @@
         <v>330</v>
       </c>
       <c r="L6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -9075,28 +9965,28 @@
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>270</v>
@@ -9175,7 +10065,7 @@
         <v>350</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -9201,10 +10091,10 @@
         <v>27</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>349</v>
@@ -9245,13 +10135,13 @@
         <v>142</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>356</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -9265,28 +10155,28 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>273</v>
@@ -9306,7 +10196,7 @@
         <v>228</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>263</v>
@@ -9315,19 +10205,19 @@
         <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>241</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -9344,7 +10234,7 @@
         <v>242</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>263</v>
@@ -9356,7 +10246,7 @@
         <v>284</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>258</v>
@@ -9365,7 +10255,7 @@
         <v>243</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -9382,7 +10272,7 @@
         <v>244</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>263</v>
@@ -9394,7 +10284,7 @@
         <v>283</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>258</v>
@@ -9403,7 +10293,7 @@
         <v>245</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -9420,7 +10310,7 @@
         <v>246</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>263</v>
@@ -9432,7 +10322,7 @@
         <v>282</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>258</v>
@@ -9441,7 +10331,7 @@
         <v>247</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -9458,7 +10348,7 @@
         <v>248</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>263</v>
@@ -9470,7 +10360,7 @@
         <v>281</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>258</v>
@@ -9479,7 +10369,7 @@
         <v>249</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -9496,7 +10386,7 @@
         <v>250</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>263</v>
@@ -9508,7 +10398,7 @@
         <v>280</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>258</v>
@@ -9517,7 +10407,7 @@
         <v>251</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -9534,7 +10424,7 @@
         <v>252</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>263</v>
@@ -9546,7 +10436,7 @@
         <v>279</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>258</v>
@@ -9555,7 +10445,7 @@
         <v>253</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -9572,7 +10462,7 @@
         <v>254</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>263</v>
@@ -9584,7 +10474,7 @@
         <v>287</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>258</v>
@@ -9593,7 +10483,7 @@
         <v>255</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -9610,7 +10500,7 @@
         <v>256</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>263</v>
@@ -9622,7 +10512,7 @@
         <v>278</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>258</v>
@@ -9631,7 +10521,7 @@
         <v>257</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -9721,31 +10611,31 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G25" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -9759,28 +10649,28 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>273</v>
@@ -9797,31 +10687,31 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -9835,31 +10725,31 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -9873,31 +10763,31 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -9911,31 +10801,31 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -9949,31 +10839,31 @@
         <v>14</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -9987,31 +10877,31 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -10025,31 +10915,31 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J33" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -10063,31 +10953,31 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J34" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -10101,31 +10991,183 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J35" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>690</v>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="I36" t="s">
+        <v>947</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="I37" t="s">
+        <v>947</v>
+      </c>
+      <c r="J37" t="s">
+        <v>934</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="I38" t="s">
+        <v>962</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="I39" t="s">
+        <v>963</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -10161,7 +11203,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>68</v>
@@ -10199,28 +11241,28 @@
         <v>139</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -10409,28 +11451,28 @@
         <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="E8" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="J8" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="K8" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -10444,28 +11486,28 @@
         <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="E9" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="I9" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="J9" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="K9" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -10505,7 +11547,7 @@
         <v>379</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
@@ -10543,7 +11585,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>264</v>
@@ -10564,7 +11606,7 @@
         <v>267</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -10578,13 +11620,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -10596,10 +11638,10 @@
         <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">

--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03349EA-4C7D-4631-81C2-237F7D9E5260}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801AF47-6D72-435D-AF27-B8A0DAF62AB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="14" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="24" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="2450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="2475">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -7266,9 +7266,6 @@
     <t>09999030566</t>
   </si>
   <si>
-    <t>09891126984</t>
-  </si>
-  <si>
     <t>05:00AM to 06:00PM</t>
   </si>
   <si>
@@ -7498,6 +7495,84 @@
   </si>
   <si>
     <t>06:00AM to 12:00PM</t>
+  </si>
+  <si>
+    <t>www.thelittleengines.com</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/playSchools/playSchools_TheLittleEngines.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+Little+Engines/@28.560408,77.4531144,15z/data=!4m5!3m4!1s0x0:0x600c4ac26c1bc0d4!8m2!3d28.560408!4d77.4531144</t>
+  </si>
+  <si>
+    <t>Nazar Optical (Hearning Aids, Contact Lenses, Designer Frames, Sunglasses, AIIMS Qualified</t>
+  </si>
+  <si>
+    <t>09871876026</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/otherCategory/opticians_NazarOptical.jpeg</t>
+  </si>
+  <si>
+    <t>Acharya Madhur Dev</t>
+  </si>
+  <si>
+    <t>07065260762</t>
+  </si>
+  <si>
+    <t>08354019657</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/otherCategory/panditJi_AcharyaMadhurDev.jpeg</t>
+  </si>
+  <si>
+    <t>Shree Madhukar Pooja Samgari Bhandar</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/otherCategory/poojaItems_ShreeMadhukarPoojaSamgariBhandar.jpeg</t>
+  </si>
+  <si>
+    <t>99 Fahrenheit (Pizza, Pasta, Indian, Chinese, Tandoor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop No CH 111, First Floor, Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension) </t>
+  </si>
+  <si>
+    <t>08527752203</t>
+  </si>
+  <si>
+    <t>08882219732 , 01204548592 (Ext. No. 7111 for Local Residents)</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/restaurant/restaurant_99Fahrenheit.jpeg</t>
+  </si>
+  <si>
+    <t>Racia Agro Food Products Pvt. Ltd. (Atta Chakki - manufacturing wheat flour, chilli powder, turmeric powder, coriander powder &amp; mustard oil)</t>
+  </si>
+  <si>
+    <t>LGF-38, Gaur Galleria, Gaur City-2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09811420111</t>
+  </si>
+  <si>
+    <t>08447379559 , 01204110444</t>
+  </si>
+  <si>
+    <t>Gaur Galleria, Gaur City 2</t>
+  </si>
+  <si>
+    <t>/nxdial-1/img/dailyNeeds/dailyNeeds_RaciaAgroFoodProductsPvtLtd.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/gaur+galleria+near+Gaur+City+2,+Ghaziabad,+Uttar+Pradesh/@28.6176512,77.4208342,16z/data=!3m1!4b1</t>
+  </si>
+  <si>
+    <t>08700263181</t>
+  </si>
+  <si>
+    <t>08650100534</t>
   </si>
 </sst>
 </file>
@@ -7989,7 +8064,7 @@
         <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2051</v>
@@ -8011,10 +8086,10 @@
         <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="C4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -8022,7 +8097,7 @@
         <v>2124</v>
       </c>
       <c r="B5" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1966</v>
@@ -8033,10 +8108,10 @@
         <v>1349</v>
       </c>
       <c r="B6" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C6" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -8044,10 +8119,10 @@
         <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C7" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -8055,10 +8130,10 @@
         <v>694</v>
       </c>
       <c r="B8" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C8" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -8066,7 +8141,7 @@
         <v>744</v>
       </c>
       <c r="B9" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C9" t="s">
         <v>2017</v>
@@ -8077,7 +8152,7 @@
         <v>267</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2323</v>
@@ -8088,10 +8163,10 @@
         <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C11" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -8107,13 +8182,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B13" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C13" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -8121,7 +8196,7 @@
         <v>732</v>
       </c>
       <c r="C14" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -8129,7 +8204,7 @@
         <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -8145,7 +8220,7 @@
         <v>356</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -8177,7 +8252,7 @@
         <v>657</v>
       </c>
       <c r="C21" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -8193,7 +8268,7 @@
         <v>1237</v>
       </c>
       <c r="C23" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -8201,7 +8276,7 @@
         <v>2290</v>
       </c>
       <c r="C24" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8236,10 +8311,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="J37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="F38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8800,7 +8875,7 @@
         <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -8870,7 +8945,7 @@
         <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -8905,7 +8980,7 @@
         <v>95</v>
       </c>
       <c r="L18" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -8975,7 +9050,7 @@
         <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -9010,7 +9085,7 @@
         <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -9167,7 +9242,7 @@
         <v>175</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>191</v>
@@ -9439,7 +9514,7 @@
         <v>1175</v>
       </c>
       <c r="L33" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -10257,7 +10332,45 @@
         <v>2326</v>
       </c>
       <c r="L55" t="s">
-        <v>2378</v>
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -11296,7 +11409,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11937,7 +12050,7 @@
         <v>205</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -11975,7 +12088,7 @@
         <v>207</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -12013,7 +12126,7 @@
         <v>209</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -12051,7 +12164,7 @@
         <v>211</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -12089,7 +12202,7 @@
         <v>213</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -12127,7 +12240,7 @@
         <v>215</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -12165,7 +12278,7 @@
         <v>217</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -12203,7 +12316,7 @@
         <v>219</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -12241,7 +12354,7 @@
         <v>221</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -12282,7 +12395,7 @@
         <v>243</v>
       </c>
       <c r="M25" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -12323,7 +12436,7 @@
         <v>244</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -12440,7 +12553,7 @@
         <v>556</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -12516,7 +12629,7 @@
         <v>563</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -12554,7 +12667,7 @@
         <v>1467</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -12633,7 +12746,7 @@
         <v>572</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -12726,7 +12839,7 @@
         <v>586</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>588</v>
@@ -12747,7 +12860,7 @@
         <v>587</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -12993,7 +13106,7 @@
         <v>1145</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -14525,28 +14638,28 @@
         <v>11</v>
       </c>
       <c r="D83" s="16" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>2407</v>
       </c>
-      <c r="E83" t="s">
-        <v>2411</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="H83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" t="s">
         <v>2409</v>
-      </c>
-      <c r="J83" t="s">
-        <v>2410</v>
       </c>
       <c r="K83" t="s">
         <v>114</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>234</v>
@@ -14563,31 +14676,31 @@
         <v>11</v>
       </c>
       <c r="D84" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>2413</v>
       </c>
-      <c r="E84" t="s">
-        <v>2420</v>
-      </c>
-      <c r="F84" s="8" t="s">
+      <c r="H84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" t="s">
         <v>2415</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="K84" t="s">
-        <v>2419</v>
-      </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" t="s">
         <v>2417</v>
-      </c>
-      <c r="M84" t="s">
-        <v>2418</v>
       </c>
     </row>
   </sheetData>
@@ -14602,7 +14715,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:L20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14764,7 +14877,7 @@
         <v>299</v>
       </c>
       <c r="L4" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -14802,7 +14915,7 @@
         <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -15073,7 +15186,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>1327</v>
@@ -15088,16 +15201,16 @@
         <v>2206</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>24</v>
+        <v>2449</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>1946</v>
+        <v>2450</v>
       </c>
       <c r="K13" t="s">
-        <v>2279</v>
+        <v>2451</v>
       </c>
       <c r="L13" t="s">
         <v>330</v>
@@ -15176,7 +15289,7 @@
         <v>2318</v>
       </c>
       <c r="L15" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -15249,7 +15362,7 @@
         <v>2340</v>
       </c>
       <c r="L17" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -15301,28 +15414,28 @@
         <v>1327</v>
       </c>
       <c r="D19" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E19" t="s">
         <v>2425</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="12" t="s">
         <v>2426</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>2427</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>2428</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="K19" t="s">
         <v>2429</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>2430</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -15336,31 +15449,31 @@
         <v>1327</v>
       </c>
       <c r="D20" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E20" t="s">
         <v>2432</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="12" t="s">
         <v>2433</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>2434</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>2436</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>2435</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>2437</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>2436</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>2340</v>
       </c>
       <c r="L20" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
   </sheetData>
@@ -15373,8 +15486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15705,28 +15818,28 @@
         <v>2370</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>2373</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>2371</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>2372</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2373</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>2376</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -15734,22 +15847,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>2371</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>24</v>
@@ -15758,13 +15871,13 @@
         <v>974</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -15946,7 +16059,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>643</v>
@@ -16041,7 +16154,7 @@
         <v>909</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -16182,7 +16295,7 @@
         <v>1672</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
@@ -17055,7 +17168,7 @@
         <v>417</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>24</v>
@@ -17070,7 +17183,7 @@
         <v>383</v>
       </c>
       <c r="L17" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -17248,7 +17361,7 @@
         <v>404</v>
       </c>
       <c r="L22" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -17283,7 +17396,7 @@
         <v>407</v>
       </c>
       <c r="L23" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -17423,7 +17536,7 @@
         <v>426</v>
       </c>
       <c r="L27" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -17563,7 +17676,7 @@
         <v>439</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -17598,7 +17711,7 @@
         <v>445</v>
       </c>
       <c r="L32" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -17668,7 +17781,7 @@
         <v>454</v>
       </c>
       <c r="L34" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -17703,7 +17816,7 @@
         <v>458</v>
       </c>
       <c r="L35" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -17738,7 +17851,7 @@
         <v>463</v>
       </c>
       <c r="L36" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -17808,7 +17921,7 @@
         <v>472</v>
       </c>
       <c r="L38" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -18588,7 +18701,7 @@
         <v>539</v>
       </c>
       <c r="E11" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>508</v>
@@ -18679,7 +18792,7 @@
         <v>516</v>
       </c>
       <c r="L13" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -18715,7 +18828,7 @@
         <v>519</v>
       </c>
       <c r="L14" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -18748,7 +18861,7 @@
         <v>522</v>
       </c>
       <c r="L15" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -18781,7 +18894,7 @@
         <v>525</v>
       </c>
       <c r="L16" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -18817,7 +18930,7 @@
         <v>122</v>
       </c>
       <c r="L17" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -18853,7 +18966,7 @@
         <v>531</v>
       </c>
       <c r="L18" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -19193,8 +19306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED1DB0C-0CF3-43D6-9188-8D0D89B0D236}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19360,7 +19473,7 @@
         <v>735</v>
       </c>
       <c r="L4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -20403,27 +20516,61 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
@@ -20688,7 +20835,7 @@
         <v>735</v>
       </c>
       <c r="L3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20726,7 +20873,7 @@
         <v>740</v>
       </c>
       <c r="L4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -20802,7 +20949,7 @@
         <v>715</v>
       </c>
       <c r="L6" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -20840,7 +20987,7 @@
         <v>718</v>
       </c>
       <c r="L7" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -21502,7 +21649,7 @@
         <v>707</v>
       </c>
       <c r="L2" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -22839,31 +22986,31 @@
         <v>1933</v>
       </c>
       <c r="F14" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G14" t="s">
         <v>2438</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>2441</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2444</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>2445</v>
+      </c>
+      <c r="N14" t="s">
         <v>2439</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2441</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>2442</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>2443</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>2444</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2445</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>2446</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2440</v>
       </c>
     </row>
   </sheetData>
@@ -22940,7 +23087,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>876</v>
@@ -22956,7 +23103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5362566-5898-465A-9477-9B2E8889A7C5}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -23572,8 +23719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7220591-6B61-40EA-9175-255719787458}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23877,10 +24024,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9782ABEF-ADC0-4B58-AD02-3AEBD9E00C61}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="F81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24275,16 +24422,16 @@
         <v>1355</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>2446</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>2448</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>2447</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>2449</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>1356</v>
@@ -26036,144 +26183,141 @@
         <v>313</v>
       </c>
       <c r="C59" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1338</v>
+        <v>2452</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>1339</v>
+        <v>958</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>1344</v>
+        <v>2453</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>1612</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>1345</v>
+        <v>2454</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="18">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="18" t="s">
         <v>313</v>
       </c>
       <c r="C60" t="s">
         <v>1336</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>265</v>
+      <c r="D60" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>1339</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>267</v>
+        <v>1343</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="16" t="s">
         <v>313</v>
       </c>
       <c r="C61" t="s">
         <v>1336</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1351</v>
+        <v>264</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1557</v>
+        <v>265</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>1347</v>
+        <v>1010</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>1348</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1352</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18">
         <v>60</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" t="s">
         <v>1336</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1359</v>
+      <c r="D62" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1557</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H62" s="18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>1250</v>
+        <v>1348</v>
       </c>
       <c r="L62" t="s">
-        <v>1237</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -26187,104 +26331,107 @@
         <v>1336</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1754</v>
+        <v>1358</v>
       </c>
       <c r="E63" t="s">
-        <v>1760</v>
+        <v>1359</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1755</v>
+        <v>1360</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1756</v>
+        <v>1361</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="18" t="s">
-        <v>1757</v>
+      <c r="I63" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1758</v>
+        <v>1362</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>1744</v>
+        <v>1250</v>
       </c>
       <c r="L63" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="18">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="18" t="s">
         <v>313</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>1336</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>2008</v>
+      <c r="D64" s="18" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1760</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>2010</v>
+        <v>1755</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>300</v>
+        <v>1756</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>1757</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>1965</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1758</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="L64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>63</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>1555</v>
+      <c r="B65" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>2007</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1556</v>
+        <v>2008</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>1348</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1349</v>
+        <v>2010</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -26294,35 +26441,32 @@
       <c r="B66" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" t="s">
         <v>1540</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1544</v>
+        <v>1555</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>1548</v>
+      <c r="I66" s="18" t="s">
+        <v>1542</v>
       </c>
       <c r="J66" t="s">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>1503</v>
+        <v>1348</v>
       </c>
       <c r="L66" t="s">
-        <v>1437</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -26336,31 +26480,31 @@
         <v>1540</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1657</v>
+        <v>1544</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1658</v>
+        <v>1545</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>1659</v>
+        <v>1546</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1660</v>
+        <v>1547</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="J67" t="s">
-        <v>1664</v>
+        <v>1549</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>2216</v>
+        <v>1503</v>
       </c>
       <c r="L67" t="s">
-        <v>310</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -26374,16 +26518,16 @@
         <v>1540</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>2217</v>
+        <v>1657</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>2218</v>
+        <v>1658</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>2219</v>
+        <v>1659</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>2220</v>
+        <v>1660</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>24</v>
@@ -26392,7 +26536,7 @@
         <v>1542</v>
       </c>
       <c r="J68" t="s">
-        <v>2221</v>
+        <v>1664</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>2216</v>
@@ -26408,35 +26552,35 @@
       <c r="B69" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C69" t="s">
-        <v>948</v>
+      <c r="C69" s="18" t="s">
+        <v>1540</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>958</v>
+        <v>2217</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2218</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>1596</v>
+        <v>2219</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1597</v>
+        <v>2220</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="18" t="s">
-        <v>380</v>
+      <c r="I69" s="1" t="s">
+        <v>1542</v>
       </c>
       <c r="J69" t="s">
-        <v>1599</v>
+        <v>2221</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>1598</v>
+        <v>2216</v>
+      </c>
+      <c r="L69" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -26450,31 +26594,31 @@
         <v>948</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>1691</v>
+        <v>1595</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>958</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1689</v>
+        <v>1596</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1688</v>
+        <v>1597</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>1694</v>
+        <v>380</v>
       </c>
       <c r="J70" t="s">
-        <v>1690</v>
+        <v>1599</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1437</v>
+        <v>114</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -26488,31 +26632,31 @@
         <v>948</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>1847</v>
+        <v>1687</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1691</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>1848</v>
+        <v>1689</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1849</v>
+        <v>1688</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>644</v>
+        <v>1694</v>
       </c>
       <c r="J71" t="s">
-        <v>1850</v>
+        <v>1690</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1801</v>
+        <v>1503</v>
       </c>
       <c r="L71" t="s">
-        <v>1815</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -26523,31 +26667,34 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>1606</v>
+        <v>948</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>1611</v>
+        <v>1853</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>1847</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1608</v>
+        <v>1848</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>1849</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>1612</v>
+        <v>644</v>
       </c>
       <c r="J72" t="s">
-        <v>1613</v>
+        <v>1850</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>1348</v>
+        <v>1801</v>
       </c>
       <c r="L72" t="s">
-        <v>1349</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -26557,26 +26704,26 @@
       <c r="B73" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" t="s">
         <v>1606</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>1617</v>
+        <v>1610</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1611</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="J73" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>1348</v>
@@ -26596,34 +26743,31 @@
         <v>1606</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1816</v>
+        <v>1620</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1817</v>
+        <v>1617</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>1818</v>
+        <v>1618</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="33" t="s">
-        <v>644</v>
+      <c r="I74" s="18" t="s">
+        <v>1616</v>
       </c>
       <c r="J74" t="s">
-        <v>1814</v>
+        <v>1619</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1801</v>
+        <v>1348</v>
       </c>
       <c r="L74" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="18">
         <v>73</v>
       </c>
@@ -26633,70 +26777,70 @@
       <c r="C75" s="18" t="s">
         <v>1606</v>
       </c>
-      <c r="D75" t="s">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2026</v>
+      <c r="D75" s="18" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>1817</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>2027</v>
+        <v>1813</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>2028</v>
-      </c>
-      <c r="H75" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H75" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I75" s="33" t="s">
         <v>644</v>
       </c>
       <c r="J75" t="s">
-        <v>2029</v>
-      </c>
-      <c r="K75" t="s">
-        <v>2018</v>
+        <v>1814</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>1801</v>
       </c>
       <c r="L75" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18">
         <v>74</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C76" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>1628</v>
+      <c r="C76" s="18" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2026</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>1623</v>
+        <v>2027</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>1625</v>
+        <v>2028</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>644</v>
       </c>
       <c r="J76" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>1348</v>
+        <v>2029</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2018</v>
       </c>
       <c r="L76" t="s">
-        <v>1349</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -26707,25 +26851,28 @@
         <v>313</v>
       </c>
       <c r="C77" t="s">
-        <v>1819</v>
+        <v>1621</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>1633</v>
+        <v>1623</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>1624</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="J77" t="s">
-        <v>1822</v>
+        <v>1626</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>1348</v>
@@ -26745,22 +26892,22 @@
         <v>1819</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1661</v>
+        <v>1631</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>1662</v>
+        <v>1632</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>1663</v>
+        <v>1633</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>1665</v>
+        <v>1634</v>
       </c>
       <c r="J78" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>1348</v>
@@ -26780,28 +26927,28 @@
         <v>1819</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1823</v>
+        <v>1661</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>1817</v>
+        <v>1662</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>1824</v>
+        <v>1663</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>701</v>
+        <v>1665</v>
       </c>
       <c r="J79" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>1801</v>
+        <v>1348</v>
       </c>
       <c r="L79" t="s">
-        <v>1815</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -26815,25 +26962,22 @@
         <v>1819</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>1831</v>
+        <v>1817</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>1827</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>1826</v>
+        <v>701</v>
       </c>
       <c r="J80" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>1801</v>
@@ -26853,13 +26997,16 @@
         <v>1819</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>1834</v>
+        <v>1827</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>1830</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>24</v>
@@ -26868,7 +27015,7 @@
         <v>1826</v>
       </c>
       <c r="J81" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>1801</v>
@@ -26888,31 +27035,28 @@
         <v>1819</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>2210</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>2211</v>
+        <v>1832</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>1833</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>2212</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>2213</v>
+        <v>1834</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>2214</v>
+        <v>1826</v>
       </c>
       <c r="J82" t="s">
-        <v>2215</v>
+        <v>1835</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>2216</v>
+        <v>1801</v>
       </c>
       <c r="L82" t="s">
-        <v>310</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -26922,35 +27066,35 @@
       <c r="B83" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>1635</v>
+      <c r="C83" t="s">
+        <v>1819</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>1638</v>
+        <v>2210</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2211</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>1639</v>
+        <v>2212</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>1642</v>
+        <v>2213</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>1641</v>
+        <v>2214</v>
       </c>
       <c r="J83" t="s">
-        <v>1640</v>
+        <v>2215</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1348</v>
+        <v>2216</v>
       </c>
       <c r="L83" t="s">
-        <v>1349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -26960,35 +27104,35 @@
       <c r="B84" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C84" t="s">
-        <v>1713</v>
+      <c r="C84" s="18" t="s">
+        <v>1635</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1715</v>
+        <v>1637</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>1638</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>1716</v>
+        <v>1639</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>1717</v>
+        <v>1642</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1612</v>
+        <v>1641</v>
       </c>
       <c r="J84" t="s">
-        <v>1718</v>
+        <v>1640</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>1503</v>
+        <v>1348</v>
       </c>
       <c r="L84" t="s">
-        <v>1437</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -27002,31 +27146,31 @@
         <v>1713</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>2173</v>
+        <v>1719</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>709</v>
+        <v>1715</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>2174</v>
+        <v>1716</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>2175</v>
+        <v>1717</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>644</v>
+        <v>1612</v>
       </c>
       <c r="J85" t="s">
-        <v>2176</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>713</v>
+        <v>1718</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -27040,28 +27184,31 @@
         <v>1713</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>2295</v>
+        <v>2173</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>2292</v>
+        <v>709</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>2293</v>
+        <v>2174</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>2175</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>2294</v>
+        <v>24</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>324</v>
+        <v>644</v>
       </c>
       <c r="J86" t="s">
-        <v>2296</v>
+        <v>2176</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>114</v>
+        <v>2177</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>234</v>
+        <v>713</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -27072,34 +27219,31 @@
         <v>313</v>
       </c>
       <c r="C87" t="s">
-        <v>1908</v>
+        <v>1713</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>1913</v>
+        <v>2295</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2292</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>1914</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>1915</v>
+        <v>2293</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>24</v>
+        <v>2294</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="J87" t="s">
-        <v>1916</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>1801</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1815</v>
+        <v>2296</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -27113,31 +27257,31 @@
         <v>1908</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>1923</v>
+        <v>1912</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>1913</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>644</v>
+        <v>261</v>
       </c>
       <c r="J88" t="s">
-        <v>1922</v>
-      </c>
-      <c r="K88" s="18" t="s">
-        <v>1920</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>1921</v>
+        <v>1916</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1815</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -27148,10 +27292,10 @@
         <v>313</v>
       </c>
       <c r="C89" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>1923</v>
@@ -27169,7 +27313,7 @@
         <v>644</v>
       </c>
       <c r="J89" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="K89" s="18" t="s">
         <v>1920</v>
@@ -27189,28 +27333,31 @@
         <v>1909</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>2153</v>
+        <v>1924</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>2158</v>
+        <v>1923</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>2154</v>
+        <v>1919</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>1918</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>336</v>
+        <v>644</v>
       </c>
       <c r="J90" t="s">
-        <v>2155</v>
+        <v>1925</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>2156</v>
+        <v>1920</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>2157</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -27224,28 +27371,28 @@
         <v>1909</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>2189</v>
-      </c>
-      <c r="E91" t="s">
-        <v>2187</v>
+        <v>2153</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2158</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>2188</v>
+        <v>2154</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>471</v>
+        <v>336</v>
       </c>
       <c r="J91" t="s">
-        <v>2190</v>
-      </c>
-      <c r="K91" t="s">
-        <v>272</v>
-      </c>
-      <c r="L91" t="s">
-        <v>2051</v>
+        <v>2155</v>
+      </c>
+      <c r="K91" s="18" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>2157</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -27256,34 +27403,31 @@
         <v>313</v>
       </c>
       <c r="C92" t="s">
-        <v>1959</v>
+        <v>1909</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>1951</v>
+        <v>2189</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2187</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>1953</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>1954</v>
+        <v>2188</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>336</v>
+        <v>471</v>
       </c>
       <c r="J92" t="s">
-        <v>1961</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>1801</v>
+        <v>2190</v>
+      </c>
+      <c r="K92" t="s">
+        <v>272</v>
       </c>
       <c r="L92" t="s">
-        <v>1815</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -27294,10 +27438,10 @@
         <v>313</v>
       </c>
       <c r="C93" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>1951</v>
@@ -27315,13 +27459,127 @@
         <v>336</v>
       </c>
       <c r="J93" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>1801</v>
       </c>
       <c r="L93" t="s">
         <v>1815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2460</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1958</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2458</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/nxData_prod.xlsx
+++ b/src/main/resources/nxData_prod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\nxdial\nxdial\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801AF47-6D72-435D-AF27-B8A0DAF62AB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D8ECBB-0D8F-4F9F-9516-EA2A6B80B218}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="14" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="24" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="2475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="2476">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -7573,6 +7573,9 @@
   </si>
   <si>
     <t>08650100534</t>
+  </si>
+  <si>
+    <t>The UP government cleared the decks for the expansion of the metro network to Noida Extension</t>
   </si>
 </sst>
 </file>
@@ -15486,7 +15489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -23023,8 +23026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6423CCE-6EB8-4EF2-8139-9A238685283D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23051,11 +23054,9 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2298</v>
-      </c>
+        <v>2475</v>
+      </c>
+      <c r="B3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23065,10 +23066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5551A84-3C39-4D9D-A279-933A50692AE3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23091,6 +23092,14 @@
       </c>
       <c r="B2" s="7" t="s">
         <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2298</v>
       </c>
     </row>
   </sheetData>
